--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147880</v>
+        <v>6147877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
         <v>3.1</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q50">
         <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.975</v>
+      </c>
+      <c r="S50">
         <v>1.825</v>
       </c>
-      <c r="S50">
-        <v>1.975</v>
-      </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.825</v>
       </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147877</v>
+        <v>6147880</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
         <v>3.1</v>
       </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.825</v>
+      </c>
+      <c r="S51">
         <v>1.975</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>1.975</v>
+      </c>
+      <c r="V51">
         <v>1.825</v>
       </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147882</v>
+        <v>6147879</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,73 +5090,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N52">
+        <v>2.375</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>2.8</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.75</v>
+      </c>
+      <c r="S52">
         <v>2.05</v>
-      </c>
-      <c r="O52">
-        <v>3.1</v>
-      </c>
-      <c r="P52">
-        <v>3.3</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6147879</v>
+        <v>6147882</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,73 +5179,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N53">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P53">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N99">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>2.3</v>
       </c>
-      <c r="L100">
-        <v>2.9</v>
-      </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
       <c r="N100">
+        <v>2.875</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>2.4</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.7</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.25</v>
       </c>
-      <c r="O100">
-        <v>2.75</v>
-      </c>
-      <c r="P100">
-        <v>3.3</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6619171</v>
+        <v>6147954</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,49 +11409,49 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>1.952</v>
+        <v>2.8</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M123">
+        <v>2.6</v>
+      </c>
+      <c r="N123">
         <v>3.75</v>
       </c>
-      <c r="N123">
-        <v>1.666</v>
-      </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U123">
         <v>1.825</v>
@@ -11463,22 +11463,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6147954</v>
+        <v>6619171</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,49 +11587,49 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>2.8</v>
+        <v>1.952</v>
       </c>
       <c r="L125">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U125">
         <v>1.825</v>
@@ -11641,22 +11641,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6631252</v>
+        <v>6619169</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
+        <v>2.025</v>
+      </c>
+      <c r="V127">
         <v>1.775</v>
       </c>
-      <c r="V127">
-        <v>2.025</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6619169</v>
+        <v>6631252</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
+        <v>2.7</v>
+      </c>
+      <c r="O129">
         <v>3</v>
       </c>
-      <c r="O129">
-        <v>3.25</v>
-      </c>
       <c r="P129">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.775</v>
+      </c>
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="V129">
-        <v>1.775</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y129">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>1.025</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,49 +14702,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
         <v>1.9</v>
@@ -14756,22 +14756,22 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y160">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
         <v>1.8</v>
       </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>1.9</v>
@@ -14845,22 +14845,22 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="S174">
-        <v>1.85</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
+        <v>-0.5</v>
+      </c>
+      <c r="AB174">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q175">
         <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990727</v>
+        <v>6990725</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,49 +16571,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M181">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N181">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U181">
         <v>1.8</v>
@@ -16622,19 +16622,19 @@
         <v>2</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,49 +16749,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
+        <v>1.7</v>
+      </c>
+      <c r="L183">
+        <v>3.4</v>
+      </c>
+      <c r="M183">
+        <v>4.333</v>
+      </c>
+      <c r="N183">
+        <v>1.65</v>
+      </c>
+      <c r="O183">
+        <v>3.6</v>
+      </c>
+      <c r="P183">
+        <v>4.333</v>
+      </c>
+      <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
         <v>1.85</v>
       </c>
-      <c r="L183">
-        <v>3.25</v>
-      </c>
-      <c r="M183">
-        <v>3.75</v>
-      </c>
-      <c r="N183">
-        <v>1.85</v>
-      </c>
-      <c r="O183">
-        <v>3.25</v>
-      </c>
-      <c r="P183">
-        <v>3.75</v>
-      </c>
-      <c r="Q183">
-        <v>-0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.9</v>
-      </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
         <v>1.8</v>
@@ -16800,19 +16800,19 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45172.75</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O215">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
+        <v>1.75</v>
+      </c>
+      <c r="S215">
         <v>1.95</v>
       </c>
-      <c r="S215">
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
         <v>1.85</v>
       </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>1.975</v>
-      </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.75</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K216">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
+        <v>5.25</v>
+      </c>
+      <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
         <v>4</v>
       </c>
-      <c r="N216">
-        <v>1.8</v>
-      </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
       <c r="P216">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,13 +24581,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -24596,25 +24596,25 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L271">
+        <v>3.2</v>
+      </c>
+      <c r="M271">
+        <v>3.25</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
         <v>3.5</v>
       </c>
-      <c r="M271">
-        <v>4.25</v>
-      </c>
-      <c r="N271">
-        <v>1.75</v>
-      </c>
-      <c r="O271">
-        <v>3.6</v>
-      </c>
       <c r="P271">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
         <v>2</v>
@@ -24623,16 +24623,16 @@
         <v>1.8</v>
       </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W271">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24647,7 +24647,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,13 +24670,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24685,25 +24685,25 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L272">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M272">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N272">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O272">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P272">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q272">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -24712,16 +24712,16 @@
         <v>1.8</v>
       </c>
       <c r="T272">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V272">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,7 +24736,7 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630523</v>
+        <v>7630525</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,76 +28497,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G315" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315">
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K315">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L315">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M315">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O315">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P315">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q315">
+        <v>-0.75</v>
+      </c>
+      <c r="R315">
+        <v>1.8</v>
+      </c>
+      <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>2.25</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>1.95</v>
+      </c>
+      <c r="W315">
+        <v>0.615</v>
+      </c>
+      <c r="X315">
+        <v>-1</v>
+      </c>
+      <c r="Y315">
+        <v>-1</v>
+      </c>
+      <c r="Z315">
+        <v>0.8</v>
+      </c>
+      <c r="AA315">
+        <v>-1</v>
+      </c>
+      <c r="AB315">
         <v>-0.5</v>
       </c>
-      <c r="R315">
-        <v>1.975</v>
-      </c>
-      <c r="S315">
-        <v>1.825</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.975</v>
-      </c>
-      <c r="V315">
-        <v>1.825</v>
-      </c>
-      <c r="W315">
-        <v>-1</v>
-      </c>
-      <c r="X315">
-        <v>2.6</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>-1</v>
-      </c>
-      <c r="AA315">
-        <v>0.825</v>
-      </c>
-      <c r="AB315">
-        <v>-1</v>
-      </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K316">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M316">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O316">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P316">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630538</v>
+        <v>7630539</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29829,49 +29829,49 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45339.72916666666</v>
+        <v>45339.70833333334</v>
       </c>
       <c r="F330" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K330">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L330">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M330">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N330">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O330">
         <v>3.8</v>
       </c>
       <c r="P330">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q330">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T330">
         <v>2.25</v>
       </c>
       <c r="U330">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V330">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29906,40 +29906,40 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G331" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K331">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L331">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M331">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N331">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O331">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P331">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R331">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
         <v>1.8</v>
@@ -29968,7 +29968,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7630539</v>
+        <v>7630536</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29980,46 +29980,46 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F332" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K332">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L332">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M332">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N332">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O332">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P332">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q332">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R332">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S332">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V332">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30069,22 +30069,22 @@
         <v>2.6</v>
       </c>
       <c r="N333">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O333">
         <v>3.2</v>
       </c>
       <c r="P333">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q333">
         <v>0</v>
       </c>
       <c r="R333">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T333">
         <v>2.25</v>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC333"/>
+  <dimension ref="A1:AC329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6147143</v>
+        <v>6147141</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,13 +2153,13 @@
         <v>44976.75</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2174,55 +2174,55 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
+        <v>-0.25</v>
+      </c>
+      <c r="R19">
+        <v>2.025</v>
+      </c>
+      <c r="S19">
+        <v>1.775</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>1.3</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>1.025</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
         <v>-0.5</v>
       </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.909</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.925</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6147141</v>
+        <v>6147143</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>44976.75</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2263,37 +2263,37 @@
         <v>3</v>
       </c>
       <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
         <v>3.1</v>
       </c>
-      <c r="N20">
-        <v>2.3</v>
-      </c>
-      <c r="O20">
-        <v>2.9</v>
-      </c>
       <c r="P20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
         <v>2.3</v>
       </c>
-      <c r="L99">
-        <v>2.9</v>
-      </c>
-      <c r="M99">
-        <v>3.1</v>
-      </c>
       <c r="N99">
+        <v>2.875</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>2.4</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.7</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
         <v>2.25</v>
       </c>
-      <c r="O99">
-        <v>2.75</v>
-      </c>
-      <c r="P99">
-        <v>3.3</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P100">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y100">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6990717</v>
+        <v>6990715</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,49 +15681,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>50</v>
       </c>
       <c r="K171">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L171">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O171">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15732,7 +15732,7 @@
         <v>1.775</v>
       </c>
       <c r="W171">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,7 +15741,7 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6990715</v>
+        <v>6990716</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>51</v>
+      </c>
+      <c r="K172">
         <v>4</v>
-      </c>
-      <c r="I172">
-        <v>3</v>
-      </c>
-      <c r="J172" t="s">
-        <v>50</v>
-      </c>
-      <c r="K172">
-        <v>1.833</v>
       </c>
       <c r="L172">
         <v>3.25</v>
       </c>
       <c r="M172">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="N172">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.775</v>
+      </c>
+      <c r="V172">
         <v>2.025</v>
       </c>
-      <c r="S172">
-        <v>1.775</v>
-      </c>
-      <c r="T172">
-        <v>2.25</v>
-      </c>
-      <c r="U172">
-        <v>2.025</v>
-      </c>
-      <c r="V172">
-        <v>1.775</v>
-      </c>
       <c r="W172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>1.025</v>
-      </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>1.025</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6990716</v>
+        <v>6990717</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M173">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="N173">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
         <v>1.825</v>
       </c>
-      <c r="S173">
-        <v>1.975</v>
-      </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173">
+        <v>2.025</v>
+      </c>
+      <c r="V173">
         <v>1.775</v>
       </c>
-      <c r="V173">
-        <v>2.025</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45172.75</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
+        <v>5.25</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
         <v>4</v>
       </c>
-      <c r="N215">
-        <v>1.8</v>
-      </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
       <c r="P215">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.75</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K216">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N216">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
+        <v>1.75</v>
+      </c>
+      <c r="S216">
         <v>1.95</v>
       </c>
-      <c r="S216">
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
         <v>1.85</v>
       </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
-      <c r="U216">
-        <v>1.975</v>
-      </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,13 +24581,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -24596,25 +24596,25 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L271">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N271">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O271">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P271">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R271">
         <v>2</v>
@@ -24623,16 +24623,16 @@
         <v>1.8</v>
       </c>
       <c r="T271">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24647,7 +24647,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,13 +24670,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24685,25 +24685,25 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L272">
+        <v>3.2</v>
+      </c>
+      <c r="M272">
+        <v>3.25</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
         <v>3.5</v>
       </c>
-      <c r="M272">
-        <v>4.25</v>
-      </c>
-      <c r="N272">
-        <v>1.75</v>
-      </c>
-      <c r="O272">
-        <v>3.6</v>
-      </c>
       <c r="P272">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q272">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -24712,16 +24712,16 @@
         <v>1.8</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U272">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V272">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W272">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,7 +24736,7 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7452587</v>
+        <v>7452586</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,49 +27518,49 @@
         <v>45241.75</v>
       </c>
       <c r="F304" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G304" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K304">
         <v>1.833</v>
       </c>
       <c r="L304">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N304">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O304">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P304">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q304">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
         <v>1.875</v>
@@ -27569,19 +27569,19 @@
         <v>1.925</v>
       </c>
       <c r="W304">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB304">
         <v>-1</v>
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7452586</v>
+        <v>7452587</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,49 +27607,49 @@
         <v>45241.75</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G305" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305">
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K305">
         <v>1.833</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M305">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N305">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O305">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P305">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q305">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R305">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
         <v>1.875</v>
@@ -27658,19 +27658,19 @@
         <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X305">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA305">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB305">
         <v>-1</v>
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,76 +28497,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315">
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K315">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M315">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N315">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O315">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S315">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630523</v>
+        <v>7630525</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L316">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M316">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N316">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P316">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q316">
+        <v>-0.75</v>
+      </c>
+      <c r="R316">
+        <v>1.8</v>
+      </c>
+      <c r="S316">
+        <v>2</v>
+      </c>
+      <c r="T316">
+        <v>2.25</v>
+      </c>
+      <c r="U316">
+        <v>1.85</v>
+      </c>
+      <c r="V316">
+        <v>1.95</v>
+      </c>
+      <c r="W316">
+        <v>0.615</v>
+      </c>
+      <c r="X316">
+        <v>-1</v>
+      </c>
+      <c r="Y316">
+        <v>-1</v>
+      </c>
+      <c r="Z316">
+        <v>0.8</v>
+      </c>
+      <c r="AA316">
+        <v>-1</v>
+      </c>
+      <c r="AB316">
         <v>-0.5</v>
       </c>
-      <c r="R316">
-        <v>1.975</v>
-      </c>
-      <c r="S316">
-        <v>1.825</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>1.975</v>
-      </c>
-      <c r="V316">
-        <v>1.825</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
-      <c r="X316">
-        <v>2.6</v>
-      </c>
-      <c r="Y316">
-        <v>-1</v>
-      </c>
-      <c r="Z316">
-        <v>-1</v>
-      </c>
-      <c r="AA316">
-        <v>0.825</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -29813,302 +29813,6 @@
       </c>
       <c r="AC329">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:29">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>7630539</v>
-      </c>
-      <c r="C330" t="s">
-        <v>28</v>
-      </c>
-      <c r="D330" t="s">
-        <v>28</v>
-      </c>
-      <c r="E330" s="2">
-        <v>45339.70833333334</v>
-      </c>
-      <c r="F330" t="s">
-        <v>41</v>
-      </c>
-      <c r="G330" t="s">
-        <v>46</v>
-      </c>
-      <c r="K330">
-        <v>1.5</v>
-      </c>
-      <c r="L330">
-        <v>3.6</v>
-      </c>
-      <c r="M330">
-        <v>6</v>
-      </c>
-      <c r="N330">
-        <v>1.55</v>
-      </c>
-      <c r="O330">
-        <v>3.8</v>
-      </c>
-      <c r="P330">
-        <v>6.5</v>
-      </c>
-      <c r="Q330">
-        <v>-1</v>
-      </c>
-      <c r="R330">
-        <v>1.925</v>
-      </c>
-      <c r="S330">
-        <v>1.875</v>
-      </c>
-      <c r="T330">
-        <v>2.25</v>
-      </c>
-      <c r="U330">
-        <v>1.9</v>
-      </c>
-      <c r="V330">
-        <v>1.9</v>
-      </c>
-      <c r="W330">
-        <v>0</v>
-      </c>
-      <c r="X330">
-        <v>0</v>
-      </c>
-      <c r="Y330">
-        <v>0</v>
-      </c>
-      <c r="Z330">
-        <v>0</v>
-      </c>
-      <c r="AA330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:29">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331">
-        <v>7630538</v>
-      </c>
-      <c r="C331" t="s">
-        <v>28</v>
-      </c>
-      <c r="D331" t="s">
-        <v>28</v>
-      </c>
-      <c r="E331" s="2">
-        <v>45339.72916666666</v>
-      </c>
-      <c r="F331" t="s">
-        <v>42</v>
-      </c>
-      <c r="G331" t="s">
-        <v>45</v>
-      </c>
-      <c r="K331">
-        <v>1.75</v>
-      </c>
-      <c r="L331">
-        <v>3.4</v>
-      </c>
-      <c r="M331">
-        <v>4</v>
-      </c>
-      <c r="N331">
-        <v>1.571</v>
-      </c>
-      <c r="O331">
-        <v>4.2</v>
-      </c>
-      <c r="P331">
-        <v>6</v>
-      </c>
-      <c r="Q331">
-        <v>-1</v>
-      </c>
-      <c r="R331">
-        <v>2</v>
-      </c>
-      <c r="S331">
-        <v>1.8</v>
-      </c>
-      <c r="T331">
-        <v>2.25</v>
-      </c>
-      <c r="U331">
-        <v>1.8</v>
-      </c>
-      <c r="V331">
-        <v>2</v>
-      </c>
-      <c r="W331">
-        <v>0</v>
-      </c>
-      <c r="X331">
-        <v>0</v>
-      </c>
-      <c r="Y331">
-        <v>0</v>
-      </c>
-      <c r="Z331">
-        <v>0</v>
-      </c>
-      <c r="AA331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:29">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332">
-        <v>7630536</v>
-      </c>
-      <c r="C332" t="s">
-        <v>28</v>
-      </c>
-      <c r="D332" t="s">
-        <v>28</v>
-      </c>
-      <c r="E332" s="2">
-        <v>45339.72916666666</v>
-      </c>
-      <c r="F332" t="s">
-        <v>39</v>
-      </c>
-      <c r="G332" t="s">
-        <v>48</v>
-      </c>
-      <c r="K332">
-        <v>2.7</v>
-      </c>
-      <c r="L332">
-        <v>3</v>
-      </c>
-      <c r="M332">
-        <v>2.45</v>
-      </c>
-      <c r="N332">
-        <v>3</v>
-      </c>
-      <c r="O332">
-        <v>3.1</v>
-      </c>
-      <c r="P332">
-        <v>2.45</v>
-      </c>
-      <c r="Q332">
-        <v>0.25</v>
-      </c>
-      <c r="R332">
-        <v>1.725</v>
-      </c>
-      <c r="S332">
-        <v>2.075</v>
-      </c>
-      <c r="T332">
-        <v>2</v>
-      </c>
-      <c r="U332">
-        <v>1.8</v>
-      </c>
-      <c r="V332">
-        <v>2</v>
-      </c>
-      <c r="W332">
-        <v>0</v>
-      </c>
-      <c r="X332">
-        <v>0</v>
-      </c>
-      <c r="Y332">
-        <v>0</v>
-      </c>
-      <c r="Z332">
-        <v>0</v>
-      </c>
-      <c r="AA332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>7630537</v>
-      </c>
-      <c r="C333" t="s">
-        <v>28</v>
-      </c>
-      <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="2">
-        <v>45339.75</v>
-      </c>
-      <c r="F333" t="s">
-        <v>35</v>
-      </c>
-      <c r="G333" t="s">
-        <v>30</v>
-      </c>
-      <c r="K333">
-        <v>2.55</v>
-      </c>
-      <c r="L333">
-        <v>3</v>
-      </c>
-      <c r="M333">
-        <v>2.6</v>
-      </c>
-      <c r="N333">
-        <v>2.8</v>
-      </c>
-      <c r="O333">
-        <v>3.2</v>
-      </c>
-      <c r="P333">
-        <v>2.7</v>
-      </c>
-      <c r="Q333">
-        <v>0</v>
-      </c>
-      <c r="R333">
-        <v>1.95</v>
-      </c>
-      <c r="S333">
-        <v>1.85</v>
-      </c>
-      <c r="T333">
-        <v>2.25</v>
-      </c>
-      <c r="U333">
-        <v>2</v>
-      </c>
-      <c r="V333">
-        <v>1.8</v>
-      </c>
-      <c r="W333">
-        <v>0</v>
-      </c>
-      <c r="X333">
-        <v>0</v>
-      </c>
-      <c r="Y333">
-        <v>0</v>
-      </c>
-      <c r="Z333">
-        <v>0</v>
-      </c>
-      <c r="AA333">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -109,13 +109,13 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Atletico Cali FC</t>
+    <t>Patriotas FC</t>
   </si>
   <si>
     <t>Cortulua</t>
   </si>
   <si>
-    <t>Patriotas FC</t>
+    <t>Atletico Cali FC</t>
   </si>
   <si>
     <t>Leones</t>
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC329"/>
+  <dimension ref="A1:AC335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6147844</v>
+        <v>6147849</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
+        <v>3.4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2.3</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
       <c r="P4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6147849</v>
+        <v>6147844</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
+        <v>3.1</v>
+      </c>
+      <c r="P6">
         <v>3</v>
-      </c>
-      <c r="P6">
-        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2331,10 +2331,10 @@
         <v>44977.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6147856</v>
+        <v>6147147</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>44982.75</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,16 +2836,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6147147</v>
+        <v>6147856</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>44982.75</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N27">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>44984.70833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6147861</v>
+        <v>6147862</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>44989.75</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,7 +3628,7 @@
         <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.7250000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6147862</v>
+        <v>6147861</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,46 +3666,46 @@
         <v>44989.75</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2.25</v>
+      </c>
+      <c r="O36">
         <v>3.25</v>
       </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>1.666</v>
-      </c>
-      <c r="O36">
-        <v>3.4</v>
-      </c>
       <c r="P36">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3717,7 +3717,7 @@
         <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -3936,7 +3936,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
@@ -4378,7 +4378,7 @@
         <v>44993.92013888889</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4467,7 +4467,7 @@
         <v>44994.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147877</v>
+        <v>6147879</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147880</v>
+        <v>6147877</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
         <v>3.1</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
         <v>1.825</v>
       </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.825</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147879</v>
+        <v>6147882</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,73 +5090,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6147882</v>
+        <v>6147880</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,40 +5179,40 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
       </c>
       <c r="K53">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
         <v>1.825</v>
@@ -5221,16 +5221,16 @@
         <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5245,10 +5245,10 @@
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5360,7 +5360,7 @@
         <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -5894,7 +5894,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>45006.8125</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>45009.83333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>43</v>
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6147893</v>
+        <v>6147898</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,40 +6603,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>51</v>
-      </c>
-      <c r="K69">
-        <v>1.5</v>
-      </c>
-      <c r="L69">
-        <v>4</v>
-      </c>
       <c r="M69">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R69">
         <v>1.775</v>
@@ -6645,34 +6645,34 @@
         <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6147898</v>
+        <v>6147893</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,40 +6692,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6734,34 +6734,34 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7582,10 +7582,10 @@
         <v>45019.83680555555</v>
       </c>
       <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
         <v>31</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8116,10 +8116,10 @@
         <v>45026.75</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -8917,7 +8917,7 @@
         <v>45032.71875</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9362,7 +9362,7 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9451,7 +9451,7 @@
         <v>45035.72916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9807,7 +9807,7 @@
         <v>45036.92013888889</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>30</v>
@@ -9899,7 +9899,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>45047.89583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11142,7 +11142,7 @@
         <v>45048.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6147954</v>
+        <v>6619171</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,49 +11409,49 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>2.8</v>
+        <v>1.952</v>
       </c>
       <c r="L123">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O123">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U123">
         <v>1.825</v>
@@ -11463,22 +11463,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6619168</v>
+        <v>6631252</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619171</v>
+        <v>6619173</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,61 +11587,61 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>1.952</v>
+        <v>1.85</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
         <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q125">
         <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y125">
         <v>-1</v>
@@ -11650,13 +11650,13 @@
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6619173</v>
+        <v>6619170</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,37 +11676,37 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
         <v>-0.75</v>
@@ -11718,31 +11718,31 @@
         <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X126">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6619169</v>
+        <v>6147954</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,13 +11765,13 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11780,40 +11780,40 @@
         <v>51</v>
       </c>
       <c r="K127">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M127">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N127">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P127">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q127">
         <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11822,19 +11822,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6619170</v>
+        <v>6619168</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,13 +11854,13 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11869,43 +11869,43 @@
         <v>50</v>
       </c>
       <c r="K128">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11914,13 +11914,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6631252</v>
+        <v>6619169</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M129">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>2.025</v>
+      </c>
+      <c r="V129">
         <v>1.775</v>
       </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12299,10 +12299,10 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>45071.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>32</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6681950</v>
+        <v>6681951</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,58 +12744,58 @@
         <v>45073.75</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>50</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="W138">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,13 +12804,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6681951</v>
+        <v>6681950</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,58 +12833,58 @@
         <v>45073.75</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>50</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12893,13 +12893,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12925,7 +12925,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45078.75</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
         <v>1.875</v>
       </c>
-      <c r="S144">
-        <v>1.925</v>
-      </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K145">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
         <v>1.925</v>
       </c>
-      <c r="S145">
-        <v>1.875</v>
-      </c>
       <c r="T145">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45087.75</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N150">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45087.75</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
+        <v>1.615</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
         <v>1.533</v>
       </c>
-      <c r="L151">
-        <v>3.8</v>
-      </c>
-      <c r="M151">
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
         <v>5.75</v>
       </c>
-      <c r="N151">
-        <v>1.363</v>
-      </c>
-      <c r="O151">
-        <v>4.2</v>
-      </c>
-      <c r="P151">
-        <v>7.5</v>
-      </c>
       <c r="Q151">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.8</v>
+      </c>
+      <c r="AB151">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA151">
-        <v>-1</v>
-      </c>
-      <c r="AB151">
-        <v>-0.5</v>
-      </c>
       <c r="AC151">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>41</v>
@@ -14260,7 +14260,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14613,10 +14613,10 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>35</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
         <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P166">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
         <v>1.95</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.8</v>
-      </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6883106</v>
+        <v>6883103</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M167">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P167">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6883103</v>
+        <v>6883106</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15859,10 +15859,10 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q175">
         <v>-0.75</v>
       </c>
       <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>1.95</v>
       </c>
-      <c r="S175">
-        <v>1.85</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
-      </c>
-      <c r="V175">
-        <v>1.8</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA175">
+        <v>-0.5</v>
+      </c>
+      <c r="AB175">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
       <c r="AC175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16126,7 +16126,7 @@
         <v>45145.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16752,7 +16752,7 @@
         <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16841,7 +16841,7 @@
         <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17283,7 +17283,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>34</v>
@@ -17372,7 +17372,7 @@
         <v>45157.72916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17998,7 +17998,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18176,7 +18176,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18707,7 +18707,7 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>45</v>
@@ -19063,7 +19063,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19511,7 +19511,7 @@
         <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45172.75</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O215">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
+        <v>1.75</v>
+      </c>
+      <c r="S215">
         <v>1.95</v>
       </c>
-      <c r="S215">
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
         <v>1.85</v>
       </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>1.975</v>
-      </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.75</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K216">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
+        <v>5.25</v>
+      </c>
+      <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
         <v>4</v>
       </c>
-      <c r="N216">
-        <v>1.8</v>
-      </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
       <c r="P216">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19864,7 +19864,7 @@
         <v>45173.75</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45174.83680555555</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,25 +20131,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>51</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L221">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
         <v>3.2</v>
@@ -20158,28 +20158,28 @@
         <v>2.55</v>
       </c>
       <c r="O221">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20188,19 +20188,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,25 +20220,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>51</v>
       </c>
       <c r="K222">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M222">
         <v>3.2</v>
@@ -20247,28 +20247,28 @@
         <v>2.55</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P222">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20277,19 +20277,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20490,7 +20490,7 @@
         <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4.333</v>
+      </c>
+      <c r="M231">
+        <v>6.5</v>
+      </c>
+      <c r="N231">
+        <v>1.615</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>5.75</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
         <v>2.25</v>
       </c>
-      <c r="L231">
-        <v>3</v>
-      </c>
-      <c r="M231">
-        <v>3</v>
-      </c>
-      <c r="N231">
-        <v>2.4</v>
-      </c>
-      <c r="O231">
-        <v>3.1</v>
-      </c>
-      <c r="P231">
-        <v>3.2</v>
-      </c>
-      <c r="Q231">
-        <v>-0.25</v>
-      </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>1.75</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21469,7 +21469,7 @@
         <v>45</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21555,7 +21555,7 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>42</v>
@@ -22089,7 +22089,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
         <v>38</v>
@@ -22270,7 +22270,7 @@
         <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990794</v>
+        <v>6990788</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,49 +22356,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246">
+        <v>3</v>
+      </c>
+      <c r="P246">
+        <v>2.5</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>2.05</v>
+      </c>
+      <c r="S246">
         <v>1.75</v>
       </c>
-      <c r="O246">
-        <v>3.5</v>
-      </c>
-      <c r="P246">
-        <v>5</v>
-      </c>
-      <c r="Q246">
-        <v>-0.5</v>
-      </c>
-      <c r="R246">
-        <v>1.75</v>
-      </c>
-      <c r="S246">
-        <v>2.05</v>
-      </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U246">
         <v>1.85</v>
@@ -22407,25 +22407,25 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA246">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6990788</v>
+        <v>6990794</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,49 +22534,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N248">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
+        <v>1.75</v>
+      </c>
+      <c r="S248">
         <v>2.05</v>
       </c>
-      <c r="S248">
-        <v>1.75</v>
-      </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
         <v>1.85</v>
@@ -22585,25 +22585,25 @@
         <v>1.95</v>
       </c>
       <c r="W248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z248">
+        <v>-1</v>
+      </c>
+      <c r="AA248">
         <v>1.05</v>
       </c>
-      <c r="AA248">
-        <v>-1</v>
-      </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22804,7 +22804,7 @@
         <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23249,7 +23249,7 @@
         <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H256">
         <v>4</v>
@@ -23513,7 +23513,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
         <v>43</v>
@@ -23691,7 +23691,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G261" t="s">
         <v>41</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24228,7 +24228,7 @@
         <v>41</v>
       </c>
       <c r="G267" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24581,7 +24581,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -24673,7 +24673,7 @@
         <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H272">
         <v>3</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990822</v>
+        <v>6990826</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,55 +25026,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G276" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
         <v>51</v>
       </c>
       <c r="K276">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L276">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M276">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N276">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O276">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R276">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>-1</v>
@@ -25083,19 +25083,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6990823</v>
+        <v>6990825</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,73 +25115,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G277" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K277">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L277">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M277">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N277">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="O277">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P277">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q277">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R277">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V277">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA277">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6990824</v>
+        <v>6990821</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,10 +25204,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25219,46 +25219,46 @@
         <v>49</v>
       </c>
       <c r="K278">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L278">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M278">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N278">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O278">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P278">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q278">
         <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S278">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T278">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
@@ -25267,13 +25267,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB278">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC278">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990825</v>
+        <v>6990823</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,73 +25293,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K279">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N279">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O279">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P279">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q279">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S279">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
+        <v>1.825</v>
+      </c>
+      <c r="V279">
+        <v>1.975</v>
+      </c>
+      <c r="W279">
+        <v>-1</v>
+      </c>
+      <c r="X279">
+        <v>-1</v>
+      </c>
+      <c r="Y279">
         <v>1.875</v>
       </c>
-      <c r="V279">
-        <v>1.925</v>
-      </c>
-      <c r="W279">
-        <v>0.3</v>
-      </c>
-      <c r="X279">
-        <v>-1</v>
-      </c>
-      <c r="Y279">
-        <v>-1</v>
-      </c>
       <c r="Z279">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB279">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990821</v>
+        <v>6990822</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,76 +25382,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J280" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K280">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N280">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P280">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S280">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U280">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V280">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB280">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC280">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6990826</v>
+        <v>6990819</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G281" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>49</v>
+      </c>
+      <c r="K281">
+        <v>3.6</v>
+      </c>
+      <c r="L281">
+        <v>3.25</v>
+      </c>
+      <c r="M281">
+        <v>1.909</v>
+      </c>
+      <c r="N281">
+        <v>5.25</v>
+      </c>
+      <c r="O281">
+        <v>4</v>
+      </c>
+      <c r="P281">
+        <v>1.615</v>
+      </c>
+      <c r="Q281">
         <v>1</v>
       </c>
-      <c r="J281" t="s">
-        <v>51</v>
-      </c>
-      <c r="K281">
-        <v>2.375</v>
-      </c>
-      <c r="L281">
+      <c r="R281">
+        <v>1.725</v>
+      </c>
+      <c r="S281">
+        <v>1.975</v>
+      </c>
+      <c r="T281">
+        <v>2.5</v>
+      </c>
+      <c r="U281">
+        <v>1.975</v>
+      </c>
+      <c r="V281">
+        <v>1.825</v>
+      </c>
+      <c r="W281">
+        <v>-1</v>
+      </c>
+      <c r="X281">
         <v>3</v>
       </c>
-      <c r="M281">
-        <v>2.875</v>
-      </c>
-      <c r="N281">
-        <v>4.75</v>
-      </c>
-      <c r="O281">
-        <v>3.1</v>
-      </c>
-      <c r="P281">
-        <v>1.909</v>
-      </c>
-      <c r="Q281">
-        <v>0.5</v>
-      </c>
-      <c r="R281">
-        <v>1.875</v>
-      </c>
-      <c r="S281">
-        <v>1.925</v>
-      </c>
-      <c r="T281">
-        <v>2.25</v>
-      </c>
-      <c r="U281">
-        <v>1.9</v>
-      </c>
-      <c r="V281">
-        <v>1.9</v>
-      </c>
-      <c r="W281">
-        <v>-1</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
       <c r="Y281">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990819</v>
+        <v>6990824</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
         <v>49</v>
       </c>
       <c r="K282">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L282">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M282">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N282">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O282">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P282">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="Q282">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25919,7 +25919,7 @@
         <v>29</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26272,7 +26272,7 @@
         <v>45222.8125</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G290" t="s">
         <v>30</v>
@@ -26628,7 +26628,7 @@
         <v>45226.72916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G294" t="s">
         <v>41</v>
@@ -27076,7 +27076,7 @@
         <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27432,7 +27432,7 @@
         <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -27518,7 +27518,7 @@
         <v>45241.75</v>
       </c>
       <c r="F304" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G304" t="s">
         <v>29</v>
@@ -28052,7 +28052,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G310" t="s">
         <v>43</v>
@@ -28144,7 +28144,7 @@
         <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7630524</v>
+        <v>7630523</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,61 +28408,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F314" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>49</v>
       </c>
       <c r="K314">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L314">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M314">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N314">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O314">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P314">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q314">
         <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T314">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
+        <v>1.975</v>
+      </c>
+      <c r="V314">
         <v>1.825</v>
       </c>
-      <c r="V314">
-        <v>1.975</v>
-      </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y314">
         <v>-1</v>
@@ -28471,13 +28471,13 @@
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB314">
+        <v>-1</v>
+      </c>
+      <c r="AC314">
         <v>0.825</v>
-      </c>
-      <c r="AC314">
-        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,61 +28497,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G315" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>49</v>
       </c>
       <c r="K315">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L315">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M315">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O315">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P315">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q315">
         <v>-0.5</v>
       </c>
       <c r="R315">
+        <v>1.9</v>
+      </c>
+      <c r="S315">
+        <v>1.9</v>
+      </c>
+      <c r="T315">
+        <v>2</v>
+      </c>
+      <c r="U315">
+        <v>1.825</v>
+      </c>
+      <c r="V315">
         <v>1.975</v>
       </c>
-      <c r="S315">
-        <v>1.825</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.975</v>
-      </c>
-      <c r="V315">
-        <v>1.825</v>
-      </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y315">
         <v>-1</v>
@@ -28560,13 +28560,13 @@
         <v>-1</v>
       </c>
       <c r="AA315">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB315">
         <v>0.825</v>
       </c>
-      <c r="AB315">
-        <v>-1</v>
-      </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28764,7 +28764,7 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G318" t="s">
         <v>30</v>
@@ -29123,7 +29123,7 @@
         <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H322">
         <v>4</v>
@@ -29390,7 +29390,7 @@
         <v>34</v>
       </c>
       <c r="G325" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -29746,7 +29746,7 @@
         <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29813,6 +29813,540 @@
       </c>
       <c r="AC329">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7630540</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45338.72916666666</v>
+      </c>
+      <c r="F330" t="s">
+        <v>29</v>
+      </c>
+      <c r="G330" t="s">
+        <v>34</v>
+      </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330" t="s">
+        <v>49</v>
+      </c>
+      <c r="K330">
+        <v>3.6</v>
+      </c>
+      <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>2.1</v>
+      </c>
+      <c r="O330">
+        <v>3.5</v>
+      </c>
+      <c r="P330">
+        <v>3.4</v>
+      </c>
+      <c r="Q330">
+        <v>-0.25</v>
+      </c>
+      <c r="R330">
+        <v>1.825</v>
+      </c>
+      <c r="S330">
+        <v>1.975</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>1.8</v>
+      </c>
+      <c r="V330">
+        <v>2</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
+        <v>2.5</v>
+      </c>
+      <c r="Y330">
+        <v>-1</v>
+      </c>
+      <c r="Z330">
+        <v>-0.5</v>
+      </c>
+      <c r="AA330">
+        <v>0.4875</v>
+      </c>
+      <c r="AB330">
+        <v>0.8</v>
+      </c>
+      <c r="AC330">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7630542</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45338.72916666666</v>
+      </c>
+      <c r="F331" t="s">
+        <v>38</v>
+      </c>
+      <c r="G331" t="s">
+        <v>47</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>3</v>
+      </c>
+      <c r="J331" t="s">
+        <v>51</v>
+      </c>
+      <c r="K331">
+        <v>2.5</v>
+      </c>
+      <c r="L331">
+        <v>3.2</v>
+      </c>
+      <c r="M331">
+        <v>2.5</v>
+      </c>
+      <c r="N331">
+        <v>3</v>
+      </c>
+      <c r="O331">
+        <v>3.1</v>
+      </c>
+      <c r="P331">
+        <v>2.15</v>
+      </c>
+      <c r="Q331">
+        <v>0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.85</v>
+      </c>
+      <c r="S331">
+        <v>1.95</v>
+      </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
+      <c r="U331">
+        <v>1.75</v>
+      </c>
+      <c r="V331">
+        <v>2.05</v>
+      </c>
+      <c r="W331">
+        <v>-1</v>
+      </c>
+      <c r="X331">
+        <v>-1</v>
+      </c>
+      <c r="Y331">
+        <v>1.15</v>
+      </c>
+      <c r="Z331">
+        <v>-1</v>
+      </c>
+      <c r="AA331">
+        <v>0.95</v>
+      </c>
+      <c r="AB331">
+        <v>0.75</v>
+      </c>
+      <c r="AC331">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7630539</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45339.70833333334</v>
+      </c>
+      <c r="F332" t="s">
+        <v>41</v>
+      </c>
+      <c r="G332" t="s">
+        <v>46</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>2</v>
+      </c>
+      <c r="J332" t="s">
+        <v>51</v>
+      </c>
+      <c r="K332">
+        <v>1.5</v>
+      </c>
+      <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>6</v>
+      </c>
+      <c r="N332">
+        <v>1.6</v>
+      </c>
+      <c r="O332">
+        <v>3.75</v>
+      </c>
+      <c r="P332">
+        <v>6</v>
+      </c>
+      <c r="Q332">
+        <v>-1</v>
+      </c>
+      <c r="R332">
+        <v>2</v>
+      </c>
+      <c r="S332">
+        <v>1.8</v>
+      </c>
+      <c r="T332">
+        <v>2.25</v>
+      </c>
+      <c r="U332">
+        <v>1.95</v>
+      </c>
+      <c r="V332">
+        <v>1.85</v>
+      </c>
+      <c r="W332">
+        <v>-1</v>
+      </c>
+      <c r="X332">
+        <v>-1</v>
+      </c>
+      <c r="Y332">
+        <v>5</v>
+      </c>
+      <c r="Z332">
+        <v>-1</v>
+      </c>
+      <c r="AA332">
+        <v>0.8</v>
+      </c>
+      <c r="AB332">
+        <v>0.95</v>
+      </c>
+      <c r="AC332">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>7630536</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45339.72916666666</v>
+      </c>
+      <c r="F333" t="s">
+        <v>39</v>
+      </c>
+      <c r="G333" t="s">
+        <v>48</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>51</v>
+      </c>
+      <c r="K333">
+        <v>2.7</v>
+      </c>
+      <c r="L333">
+        <v>3</v>
+      </c>
+      <c r="M333">
+        <v>2.45</v>
+      </c>
+      <c r="N333">
+        <v>3</v>
+      </c>
+      <c r="O333">
+        <v>3.1</v>
+      </c>
+      <c r="P333">
+        <v>2.4</v>
+      </c>
+      <c r="Q333">
+        <v>0.25</v>
+      </c>
+      <c r="R333">
+        <v>1.75</v>
+      </c>
+      <c r="S333">
+        <v>2.05</v>
+      </c>
+      <c r="T333">
+        <v>2</v>
+      </c>
+      <c r="U333">
+        <v>1.825</v>
+      </c>
+      <c r="V333">
+        <v>1.975</v>
+      </c>
+      <c r="W333">
+        <v>-1</v>
+      </c>
+      <c r="X333">
+        <v>-1</v>
+      </c>
+      <c r="Y333">
+        <v>1.4</v>
+      </c>
+      <c r="Z333">
+        <v>-1</v>
+      </c>
+      <c r="AA333">
+        <v>1.05</v>
+      </c>
+      <c r="AB333">
+        <v>0</v>
+      </c>
+      <c r="AC333">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7630538</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45339.72916666666</v>
+      </c>
+      <c r="F334" t="s">
+        <v>42</v>
+      </c>
+      <c r="G334" t="s">
+        <v>45</v>
+      </c>
+      <c r="H334">
+        <v>3</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334" t="s">
+        <v>50</v>
+      </c>
+      <c r="K334">
+        <v>1.75</v>
+      </c>
+      <c r="L334">
+        <v>3.4</v>
+      </c>
+      <c r="M334">
+        <v>4</v>
+      </c>
+      <c r="N334">
+        <v>1.727</v>
+      </c>
+      <c r="O334">
+        <v>3.8</v>
+      </c>
+      <c r="P334">
+        <v>4.75</v>
+      </c>
+      <c r="Q334">
+        <v>-0.75</v>
+      </c>
+      <c r="R334">
+        <v>1.925</v>
+      </c>
+      <c r="S334">
+        <v>1.875</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>1.9</v>
+      </c>
+      <c r="V334">
+        <v>1.9</v>
+      </c>
+      <c r="W334">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X334">
+        <v>-1</v>
+      </c>
+      <c r="Y334">
+        <v>-1</v>
+      </c>
+      <c r="Z334">
+        <v>0.4625</v>
+      </c>
+      <c r="AA334">
+        <v>-0.5</v>
+      </c>
+      <c r="AB334">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC334">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>7630537</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45339.75</v>
+      </c>
+      <c r="F335" t="s">
+        <v>35</v>
+      </c>
+      <c r="G335" t="s">
+        <v>30</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335" t="s">
+        <v>49</v>
+      </c>
+      <c r="K335">
+        <v>2.55</v>
+      </c>
+      <c r="L335">
+        <v>3</v>
+      </c>
+      <c r="M335">
+        <v>2.6</v>
+      </c>
+      <c r="N335">
+        <v>2.55</v>
+      </c>
+      <c r="O335">
+        <v>3.2</v>
+      </c>
+      <c r="P335">
+        <v>3</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>1.725</v>
+      </c>
+      <c r="S335">
+        <v>2.075</v>
+      </c>
+      <c r="T335">
+        <v>2</v>
+      </c>
+      <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
+        <v>1.975</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>2.2</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>-0</v>
+      </c>
+      <c r="AB335">
+        <v>0</v>
+      </c>
+      <c r="AC335">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC335"/>
+  <dimension ref="A1:AC340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6147141</v>
+        <v>6147143</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,13 +2153,13 @@
         <v>44976.75</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2174,37 +2174,37 @@
         <v>3</v>
       </c>
       <c r="M19">
+        <v>3.2</v>
+      </c>
+      <c r="N19">
+        <v>1.909</v>
+      </c>
+      <c r="O19">
         <v>3.1</v>
       </c>
-      <c r="N19">
-        <v>2.3</v>
-      </c>
-      <c r="O19">
-        <v>2.9</v>
-      </c>
       <c r="P19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2213,16 +2213,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6147143</v>
+        <v>6147141</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>44976.75</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2263,55 +2263,55 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.775</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.8</v>
+      </c>
+      <c r="W20">
+        <v>1.3</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>1.025</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.8</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>0.909</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.925</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2334,7 +2334,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6147147</v>
+        <v>6147856</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>44982.75</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,16 +2836,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>-0.5</v>
       </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6147856</v>
+        <v>6147147</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>44982.75</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
       </c>
       <c r="K27">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6147862</v>
+        <v>6147861</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>44989.75</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L35">
+        <v>3.3</v>
+      </c>
+      <c r="M35">
+        <v>3.75</v>
+      </c>
+      <c r="N35">
+        <v>2.25</v>
+      </c>
+      <c r="O35">
         <v>3.25</v>
       </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>1.666</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
       <c r="P35">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,7 +3628,7 @@
         <v>1.825</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6147861</v>
+        <v>6147862</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,46 +3666,46 @@
         <v>44989.75</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3717,7 +3717,7 @@
         <v>1.825</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.7250000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6147870</v>
+        <v>6147873</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6147873</v>
+        <v>6147870</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147879</v>
+        <v>6147882</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,73 +4912,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N50">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X50">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147877</v>
+        <v>6147880</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
         <v>3.1</v>
       </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
         <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.825</v>
+      </c>
+      <c r="S51">
         <v>1.975</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>1.975</v>
+      </c>
+      <c r="V51">
         <v>1.825</v>
       </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147882</v>
+        <v>6147879</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,73 +5090,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N52">
+        <v>2.375</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>2.8</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.75</v>
+      </c>
+      <c r="S52">
         <v>2.05</v>
-      </c>
-      <c r="O52">
-        <v>3.1</v>
-      </c>
-      <c r="P52">
-        <v>3.3</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6147880</v>
+        <v>6147877</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N53">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
+        <v>1.975</v>
+      </c>
+      <c r="S53">
         <v>1.825</v>
       </c>
-      <c r="S53">
-        <v>1.975</v>
-      </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
         <v>0.825</v>
       </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8119,7 +8119,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N99">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>2.3</v>
       </c>
-      <c r="L100">
-        <v>2.9</v>
-      </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
       <c r="N100">
+        <v>2.875</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>2.4</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.7</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.25</v>
       </c>
-      <c r="O100">
-        <v>2.75</v>
-      </c>
-      <c r="P100">
-        <v>3.3</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6619171</v>
+        <v>6631252</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6631252</v>
+        <v>6147954</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>1.75</v>
+      </c>
+      <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.775</v>
-      </c>
-      <c r="V124">
-        <v>2.025</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619173</v>
+        <v>6619168</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,73 +11587,73 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6619170</v>
+        <v>6619169</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,73 +11676,73 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K126">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L126">
         <v>3.1</v>
       </c>
       <c r="M126">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N126">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6147954</v>
+        <v>6619170</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L127">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N127">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O127">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6619168</v>
+        <v>6619171</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>1.952</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6619169</v>
+        <v>6619173</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,73 +11943,73 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>49</v>
+      </c>
+      <c r="K129">
+        <v>1.85</v>
+      </c>
+      <c r="L129">
+        <v>3.4</v>
+      </c>
+      <c r="M129">
+        <v>3.75</v>
+      </c>
+      <c r="N129">
+        <v>1.75</v>
+      </c>
+      <c r="O129">
+        <v>3.5</v>
+      </c>
+      <c r="P129">
+        <v>4</v>
+      </c>
+      <c r="Q129">
+        <v>-0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>1.8</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>2.5</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.825</v>
+      </c>
+      <c r="AB129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="J129" t="s">
-        <v>51</v>
-      </c>
-      <c r="K129">
-        <v>3.25</v>
-      </c>
-      <c r="L129">
-        <v>3.1</v>
-      </c>
-      <c r="M129">
-        <v>2.1</v>
-      </c>
-      <c r="N129">
-        <v>3</v>
-      </c>
-      <c r="O129">
-        <v>3.25</v>
-      </c>
-      <c r="P129">
-        <v>2.15</v>
-      </c>
-      <c r="Q129">
-        <v>0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>2.025</v>
-      </c>
-      <c r="V129">
-        <v>1.775</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>1.15</v>
-      </c>
-      <c r="Z129">
-        <v>-1</v>
-      </c>
-      <c r="AA129">
-        <v>0.95</v>
-      </c>
-      <c r="AB129">
-        <v>1.025</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12299,7 +12299,7 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13815,7 +13815,7 @@
         <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -14613,7 +14613,7 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -15150,7 +15150,7 @@
         <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,49 +15681,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>50</v>
       </c>
       <c r="K171">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N171">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15732,7 +15732,7 @@
         <v>1.775</v>
       </c>
       <c r="W171">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,7 +15741,7 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6990717</v>
+        <v>6990715</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,49 +15859,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L173">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N173">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P173">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15910,7 +15910,7 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15919,7 +15919,7 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990726</v>
+        <v>6990727</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,10 +16660,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16675,31 +16675,31 @@
         <v>51</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N182">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O182">
+        <v>3.6</v>
+      </c>
+      <c r="P182">
         <v>4.333</v>
       </c>
-      <c r="P182">
-        <v>7</v>
-      </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2.5</v>
@@ -16717,13 +16717,13 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>6</v>
+        <v>3.333</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,10 +16749,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16764,31 +16764,31 @@
         <v>51</v>
       </c>
       <c r="K183">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M183">
+        <v>6.5</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
         <v>4.333</v>
       </c>
-      <c r="N183">
-        <v>1.65</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T183">
         <v>2.5</v>
@@ -16806,13 +16806,13 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18072,7 +18072,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18084,76 +18084,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
         <v>3</v>
       </c>
       <c r="M198">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N198">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O198">
+        <v>2.9</v>
+      </c>
+      <c r="P198">
         <v>3.1</v>
       </c>
-      <c r="P198">
-        <v>2.8</v>
-      </c>
       <c r="Q198">
         <v>0</v>
       </c>
       <c r="R198">
+        <v>1.775</v>
+      </c>
+      <c r="S198">
+        <v>2.025</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
         <v>1.85</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="T198">
-        <v>2</v>
-      </c>
-      <c r="U198">
-        <v>1.925</v>
-      </c>
-      <c r="V198">
-        <v>1.875</v>
-      </c>
       <c r="W198">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,76 +18173,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L199">
         <v>3</v>
       </c>
       <c r="M199">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N199">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O199">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X199">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
         <v>-0</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45172.75</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
+        <v>5.25</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
         <v>4</v>
       </c>
-      <c r="N215">
-        <v>1.8</v>
-      </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
       <c r="P215">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.75</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K216">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N216">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
+        <v>1.75</v>
+      </c>
+      <c r="S216">
         <v>1.95</v>
       </c>
-      <c r="S216">
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
         <v>1.85</v>
       </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
-      <c r="U216">
-        <v>1.975</v>
-      </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N231">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P231">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K232">
+        <v>1.5</v>
+      </c>
+      <c r="L232">
+        <v>4.333</v>
+      </c>
+      <c r="M232">
+        <v>6.5</v>
+      </c>
+      <c r="N232">
+        <v>1.615</v>
+      </c>
+      <c r="O232">
+        <v>3.8</v>
+      </c>
+      <c r="P232">
+        <v>5.75</v>
+      </c>
+      <c r="Q232">
+        <v>-1</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
+        <v>1.8</v>
+      </c>
+      <c r="T232">
         <v>2.25</v>
       </c>
-      <c r="L232">
-        <v>3</v>
-      </c>
-      <c r="M232">
-        <v>3</v>
-      </c>
-      <c r="N232">
-        <v>2.4</v>
-      </c>
-      <c r="O232">
-        <v>3.1</v>
-      </c>
-      <c r="P232">
-        <v>3.2</v>
-      </c>
-      <c r="Q232">
-        <v>-0.25</v>
-      </c>
-      <c r="R232">
-        <v>2.05</v>
-      </c>
-      <c r="S232">
-        <v>1.75</v>
-      </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X232">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,10 +22356,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22371,34 +22371,34 @@
         <v>50</v>
       </c>
       <c r="K246">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R246">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U246">
         <v>1.85</v>
@@ -22407,7 +22407,7 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB246">
         <v>-1</v>
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,10 +22445,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22460,34 +22460,34 @@
         <v>50</v>
       </c>
       <c r="K247">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N247">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U247">
         <v>1.85</v>
@@ -22496,7 +22496,7 @@
         <v>1.95</v>
       </c>
       <c r="W247">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22505,10 +22505,10 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
         <v>-1</v>
@@ -22534,7 +22534,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G248" t="s">
         <v>40</v>
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,13 +24581,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -24596,25 +24596,25 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L271">
+        <v>3.2</v>
+      </c>
+      <c r="M271">
+        <v>3.25</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
         <v>3.5</v>
       </c>
-      <c r="M271">
-        <v>4.25</v>
-      </c>
-      <c r="N271">
-        <v>1.75</v>
-      </c>
-      <c r="O271">
-        <v>3.6</v>
-      </c>
       <c r="P271">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
         <v>2</v>
@@ -24623,16 +24623,16 @@
         <v>1.8</v>
       </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W271">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24647,7 +24647,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,13 +24670,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24685,25 +24685,25 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L272">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M272">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N272">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O272">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P272">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q272">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -24712,16 +24712,16 @@
         <v>1.8</v>
       </c>
       <c r="T272">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V272">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,7 +24736,7 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25029,7 +25029,7 @@
         <v>45</v>
       </c>
       <c r="G276" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6990821</v>
+        <v>6990820</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K278">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L278">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M278">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N278">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O278">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P278">
         <v>3.6</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R278">
+        <v>1.975</v>
+      </c>
+      <c r="S278">
+        <v>1.825</v>
+      </c>
+      <c r="T278">
+        <v>2.5</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
         <v>1.8</v>
       </c>
-      <c r="S278">
-        <v>2</v>
-      </c>
-      <c r="T278">
-        <v>2.25</v>
-      </c>
-      <c r="U278">
-        <v>1.85</v>
-      </c>
-      <c r="V278">
-        <v>1.95</v>
-      </c>
       <c r="W278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X278">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA278">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC278">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990824</v>
+        <v>6990821</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,10 +25560,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25575,46 +25575,46 @@
         <v>49</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L282">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M282">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N282">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O282">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P282">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB282">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6990820</v>
+        <v>6990824</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,76 +25649,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F283" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L283">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N283">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P283">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q283">
+        <v>-0.25</v>
+      </c>
+      <c r="R283">
+        <v>1.775</v>
+      </c>
+      <c r="S283">
+        <v>2.025</v>
+      </c>
+      <c r="T283">
+        <v>2</v>
+      </c>
+      <c r="U283">
+        <v>1.9</v>
+      </c>
+      <c r="V283">
+        <v>1.9</v>
+      </c>
+      <c r="W283">
+        <v>-1</v>
+      </c>
+      <c r="X283">
+        <v>2</v>
+      </c>
+      <c r="Y283">
+        <v>-1</v>
+      </c>
+      <c r="Z283">
         <v>-0.5</v>
       </c>
-      <c r="R283">
-        <v>1.975</v>
-      </c>
-      <c r="S283">
-        <v>1.825</v>
-      </c>
-      <c r="T283">
-        <v>2.5</v>
-      </c>
-      <c r="U283">
-        <v>2</v>
-      </c>
-      <c r="V283">
-        <v>1.8</v>
-      </c>
-      <c r="W283">
-        <v>1</v>
-      </c>
-      <c r="X283">
-        <v>-1</v>
-      </c>
-      <c r="Y283">
-        <v>-1</v>
-      </c>
-      <c r="Z283">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -27684,7 +27684,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7452584</v>
+        <v>7452585</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27696,76 +27696,76 @@
         <v>45241.84375</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G306" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306">
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K306">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="L306">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M306">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N306">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="O306">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P306">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="Q306">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R306">
+        <v>1.825</v>
+      </c>
+      <c r="S306">
+        <v>1.975</v>
+      </c>
+      <c r="T306">
+        <v>3.25</v>
+      </c>
+      <c r="U306">
         <v>1.925</v>
       </c>
-      <c r="S306">
+      <c r="V306">
         <v>1.875</v>
       </c>
-      <c r="T306">
-        <v>3</v>
-      </c>
-      <c r="U306">
-        <v>1.8</v>
-      </c>
-      <c r="V306">
-        <v>2</v>
-      </c>
       <c r="W306">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X306">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC306">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7452585</v>
+        <v>7452584</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,76 +27785,76 @@
         <v>45241.84375</v>
       </c>
       <c r="F307" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G307" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K307">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="L307">
+        <v>3.75</v>
+      </c>
+      <c r="M307">
+        <v>1.666</v>
+      </c>
+      <c r="N307">
         <v>5.25</v>
       </c>
-      <c r="M307">
-        <v>9</v>
-      </c>
-      <c r="N307">
-        <v>1.2</v>
-      </c>
       <c r="O307">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P307">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="Q307">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R307">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S307">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U307">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V307">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W307">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA307">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7630523</v>
+        <v>7630525</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,76 +28408,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F314" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314">
         <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K314">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L314">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M314">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N314">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O314">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q314">
+        <v>-0.75</v>
+      </c>
+      <c r="R314">
+        <v>1.8</v>
+      </c>
+      <c r="S314">
+        <v>2</v>
+      </c>
+      <c r="T314">
+        <v>2.25</v>
+      </c>
+      <c r="U314">
+        <v>1.85</v>
+      </c>
+      <c r="V314">
+        <v>1.95</v>
+      </c>
+      <c r="W314">
+        <v>0.615</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>-1</v>
+      </c>
+      <c r="Z314">
+        <v>0.8</v>
+      </c>
+      <c r="AA314">
+        <v>-1</v>
+      </c>
+      <c r="AB314">
         <v>-0.5</v>
       </c>
-      <c r="R314">
-        <v>1.975</v>
-      </c>
-      <c r="S314">
-        <v>1.825</v>
-      </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
-      <c r="U314">
-        <v>1.975</v>
-      </c>
-      <c r="V314">
-        <v>1.825</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>2.6</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
-      <c r="AA314">
-        <v>0.825</v>
-      </c>
-      <c r="AB314">
-        <v>-1</v>
-      </c>
       <c r="AC314">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K316">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M316">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O316">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P316">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G318" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K318">
+        <v>2.2</v>
+      </c>
+      <c r="L318">
+        <v>3</v>
+      </c>
+      <c r="M318">
         <v>3.2</v>
       </c>
-      <c r="L318">
-        <v>3.1</v>
-      </c>
-      <c r="M318">
+      <c r="N318">
+        <v>2.375</v>
+      </c>
+      <c r="O318">
+        <v>3.2</v>
+      </c>
+      <c r="P318">
+        <v>3.2</v>
+      </c>
+      <c r="Q318">
+        <v>-0.25</v>
+      </c>
+      <c r="R318">
+        <v>2.025</v>
+      </c>
+      <c r="S318">
+        <v>1.775</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>1.975</v>
+      </c>
+      <c r="V318">
+        <v>1.825</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
         <v>2.2</v>
       </c>
-      <c r="N318">
-        <v>3.3</v>
-      </c>
-      <c r="O318">
-        <v>3.25</v>
-      </c>
-      <c r="P318">
-        <v>2.2</v>
-      </c>
-      <c r="Q318">
-        <v>0.25</v>
-      </c>
-      <c r="R318">
-        <v>1.9</v>
-      </c>
-      <c r="S318">
-        <v>1.9</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.775</v>
-      </c>
-      <c r="V318">
-        <v>2.025</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
       <c r="Y318">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC318">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K319">
+        <v>3.2</v>
+      </c>
+      <c r="L319">
+        <v>3.1</v>
+      </c>
+      <c r="M319">
         <v>2.2</v>
       </c>
-      <c r="L319">
-        <v>3</v>
-      </c>
-      <c r="M319">
-        <v>3.2</v>
-      </c>
       <c r="N319">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P319">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q319">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.775</v>
+      </c>
+      <c r="V319">
         <v>2.025</v>
       </c>
-      <c r="S319">
-        <v>1.775</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.975</v>
-      </c>
-      <c r="V319">
-        <v>1.825</v>
-      </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>4</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,73 +29832,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F330" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K330">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M330">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N330">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P330">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,73 +29921,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G331" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K331">
+        <v>3.6</v>
+      </c>
+      <c r="L331">
+        <v>3.5</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>2.1</v>
+      </c>
+      <c r="O331">
+        <v>3.5</v>
+      </c>
+      <c r="P331">
+        <v>3.4</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.825</v>
+      </c>
+      <c r="S331">
+        <v>1.975</v>
+      </c>
+      <c r="T331">
         <v>2.5</v>
       </c>
-      <c r="L331">
-        <v>3.2</v>
-      </c>
-      <c r="M331">
+      <c r="U331">
+        <v>1.8</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>-1</v>
+      </c>
+      <c r="X331">
         <v>2.5</v>
       </c>
-      <c r="N331">
-        <v>3</v>
-      </c>
-      <c r="O331">
-        <v>3.1</v>
-      </c>
-      <c r="P331">
-        <v>2.15</v>
-      </c>
-      <c r="Q331">
-        <v>0.25</v>
-      </c>
-      <c r="R331">
-        <v>1.85</v>
-      </c>
-      <c r="S331">
-        <v>1.95</v>
-      </c>
-      <c r="T331">
-        <v>2</v>
-      </c>
-      <c r="U331">
-        <v>1.75</v>
-      </c>
-      <c r="V331">
-        <v>2.05</v>
-      </c>
-      <c r="W331">
-        <v>-1</v>
-      </c>
-      <c r="X331">
-        <v>-1</v>
-      </c>
       <c r="Y331">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB331">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G333" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I333">
         <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L333">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N333">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O333">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P333">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S333">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T333">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V333">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA333">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB333">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F334" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G334" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334" t="s">
+        <v>51</v>
+      </c>
+      <c r="K334">
+        <v>2.7</v>
+      </c>
+      <c r="L334">
         <v>3</v>
       </c>
-      <c r="I334">
-        <v>2</v>
-      </c>
-      <c r="J334" t="s">
-        <v>50</v>
-      </c>
-      <c r="K334">
+      <c r="M334">
+        <v>2.45</v>
+      </c>
+      <c r="N334">
+        <v>3</v>
+      </c>
+      <c r="O334">
+        <v>3.1</v>
+      </c>
+      <c r="P334">
+        <v>2.4</v>
+      </c>
+      <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
         <v>1.75</v>
       </c>
-      <c r="L334">
-        <v>3.4</v>
-      </c>
-      <c r="M334">
-        <v>4</v>
-      </c>
-      <c r="N334">
-        <v>1.727</v>
-      </c>
-      <c r="O334">
-        <v>3.8</v>
-      </c>
-      <c r="P334">
-        <v>4.75</v>
-      </c>
-      <c r="Q334">
-        <v>-0.75</v>
-      </c>
-      <c r="R334">
-        <v>1.925</v>
-      </c>
       <c r="S334">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z334">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB334">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30347,6 +30347,376 @@
       </c>
       <c r="AC335">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>7630544</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45342.72916666666</v>
+      </c>
+      <c r="F336" t="s">
+        <v>40</v>
+      </c>
+      <c r="G336" t="s">
+        <v>38</v>
+      </c>
+      <c r="K336">
+        <v>1.8</v>
+      </c>
+      <c r="L336">
+        <v>3.1</v>
+      </c>
+      <c r="M336">
+        <v>4.5</v>
+      </c>
+      <c r="N336">
+        <v>1.727</v>
+      </c>
+      <c r="O336">
+        <v>3.2</v>
+      </c>
+      <c r="P336">
+        <v>5</v>
+      </c>
+      <c r="Q336">
+        <v>-0.75</v>
+      </c>
+      <c r="R336">
+        <v>1.975</v>
+      </c>
+      <c r="S336">
+        <v>1.825</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>2.025</v>
+      </c>
+      <c r="V336">
+        <v>1.775</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7630546</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45342.79166666666</v>
+      </c>
+      <c r="F337" t="s">
+        <v>30</v>
+      </c>
+      <c r="G337" t="s">
+        <v>39</v>
+      </c>
+      <c r="K337">
+        <v>1.3</v>
+      </c>
+      <c r="L337">
+        <v>4.5</v>
+      </c>
+      <c r="M337">
+        <v>8</v>
+      </c>
+      <c r="N337">
+        <v>1.4</v>
+      </c>
+      <c r="O337">
+        <v>4.2</v>
+      </c>
+      <c r="P337">
+        <v>6</v>
+      </c>
+      <c r="Q337">
+        <v>-1.25</v>
+      </c>
+      <c r="R337">
+        <v>1.975</v>
+      </c>
+      <c r="S337">
+        <v>1.825</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
+        <v>1.925</v>
+      </c>
+      <c r="V337">
+        <v>1.875</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>7630548</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45344.83333333334</v>
+      </c>
+      <c r="F338" t="s">
+        <v>42</v>
+      </c>
+      <c r="G338" t="s">
+        <v>37</v>
+      </c>
+      <c r="K338">
+        <v>1.727</v>
+      </c>
+      <c r="L338">
+        <v>3.2</v>
+      </c>
+      <c r="M338">
+        <v>4.5</v>
+      </c>
+      <c r="N338">
+        <v>1.7</v>
+      </c>
+      <c r="O338">
+        <v>3.25</v>
+      </c>
+      <c r="P338">
+        <v>4.75</v>
+      </c>
+      <c r="Q338">
+        <v>-0.75</v>
+      </c>
+      <c r="R338">
+        <v>1.95</v>
+      </c>
+      <c r="S338">
+        <v>1.85</v>
+      </c>
+      <c r="T338">
+        <v>2.25</v>
+      </c>
+      <c r="U338">
+        <v>2</v>
+      </c>
+      <c r="V338">
+        <v>1.8</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>7630551</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45345.72916666666</v>
+      </c>
+      <c r="F339" t="s">
+        <v>33</v>
+      </c>
+      <c r="G339" t="s">
+        <v>41</v>
+      </c>
+      <c r="K339">
+        <v>4</v>
+      </c>
+      <c r="L339">
+        <v>3</v>
+      </c>
+      <c r="M339">
+        <v>1.909</v>
+      </c>
+      <c r="N339">
+        <v>3.75</v>
+      </c>
+      <c r="O339">
+        <v>3</v>
+      </c>
+      <c r="P339">
+        <v>2</v>
+      </c>
+      <c r="Q339">
+        <v>0.25</v>
+      </c>
+      <c r="R339">
+        <v>2.05</v>
+      </c>
+      <c r="S339">
+        <v>1.75</v>
+      </c>
+      <c r="T339">
+        <v>2</v>
+      </c>
+      <c r="U339">
+        <v>1.775</v>
+      </c>
+      <c r="V339">
+        <v>2.025</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>7630550</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45345.72916666666</v>
+      </c>
+      <c r="F340" t="s">
+        <v>35</v>
+      </c>
+      <c r="G340" t="s">
+        <v>44</v>
+      </c>
+      <c r="K340">
+        <v>1.615</v>
+      </c>
+      <c r="L340">
+        <v>3.5</v>
+      </c>
+      <c r="M340">
+        <v>5</v>
+      </c>
+      <c r="N340">
+        <v>1.65</v>
+      </c>
+      <c r="O340">
+        <v>3.5</v>
+      </c>
+      <c r="P340">
+        <v>4.75</v>
+      </c>
+      <c r="Q340">
+        <v>-0.75</v>
+      </c>
+      <c r="R340">
+        <v>1.85</v>
+      </c>
+      <c r="S340">
+        <v>1.95</v>
+      </c>
+      <c r="T340">
+        <v>2.25</v>
+      </c>
+      <c r="U340">
+        <v>1.85</v>
+      </c>
+      <c r="V340">
+        <v>1.95</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Patriotas FC</t>
   </si>
   <si>
-    <t>Cortulua</t>
+    <t>Atletico Cali FC</t>
   </si>
   <si>
-    <t>Atletico Cali FC</t>
+    <t>Cortulua</t>
   </si>
   <si>
     <t>Leones</t>
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6147846</v>
+        <v>6147844</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,67 +916,67 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>1.65</v>
+        <v>1.775</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.6000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
+        <v>0.3875</v>
+      </c>
+      <c r="AB5">
         <v>-0.5</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6147844</v>
+        <v>6147846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1005,67 +1005,67 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.65</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AA6">
         <v>-0.5</v>
       </c>
-      <c r="AA6">
-        <v>0.3875</v>
-      </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6147142</v>
+        <v>6147854</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,76 +1975,76 @@
         <v>44975.75</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X17">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6147854</v>
+        <v>6147142</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,76 +2064,76 @@
         <v>44975.75</v>
       </c>
       <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
+        <v>1.7</v>
+      </c>
+      <c r="L18">
+        <v>3.5</v>
+      </c>
+      <c r="M18">
+        <v>4.75</v>
+      </c>
+      <c r="N18">
         <v>1.909</v>
       </c>
-      <c r="L18">
-        <v>3.2</v>
-      </c>
-      <c r="M18">
+      <c r="O18">
+        <v>3.3</v>
+      </c>
+      <c r="P18">
         <v>3.75</v>
       </c>
-      <c r="N18">
-        <v>2.375</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>2.9</v>
-      </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2334,7 +2334,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6147856</v>
+        <v>6147147</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>44982.75</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,16 +2836,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6147147</v>
+        <v>6147856</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>44982.75</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N27">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>44984.70833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3577,10 +3577,10 @@
         <v>44989.75</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -4022,7 +4022,7 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4203,7 +4203,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>44993.92013888889</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4912,10 +4912,10 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5182,7 +5182,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -6069,10 +6069,10 @@
         <v>45006.8125</v>
       </c>
       <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
         <v>33</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>45010.75</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6147898</v>
+        <v>6147893</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,40 +6603,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R69">
         <v>1.775</v>
@@ -6645,34 +6645,34 @@
         <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6147893</v>
+        <v>6147898</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,40 +6692,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>51</v>
-      </c>
-      <c r="K70">
-        <v>1.5</v>
-      </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
       <c r="M70">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6734,34 +6734,34 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7582,7 +7582,7 @@
         <v>45019.83680555555</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7938,7 +7938,7 @@
         <v>45025.9375</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8119,7 +8119,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -8917,7 +8917,7 @@
         <v>45032.71875</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
         <v>2.3</v>
       </c>
-      <c r="L99">
-        <v>2.9</v>
-      </c>
-      <c r="M99">
-        <v>3.1</v>
-      </c>
       <c r="N99">
+        <v>2.875</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>2.4</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.7</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
         <v>2.25</v>
       </c>
-      <c r="O99">
-        <v>2.75</v>
-      </c>
-      <c r="P99">
-        <v>3.3</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P100">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y100">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>45035.72916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9629,7 +9629,7 @@
         <v>45035.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10433,7 +10433,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>45048.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6631252</v>
+        <v>6619173</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,40 +11409,40 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
         <v>1.975</v>
@@ -11451,34 +11451,34 @@
         <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6147954</v>
+        <v>6619169</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,13 +11498,13 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -11513,40 +11513,40 @@
         <v>51</v>
       </c>
       <c r="K124">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11555,19 +11555,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619168</v>
+        <v>6619171</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>1.952</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6619169</v>
+        <v>6619170</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,73 +11676,73 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
         <v>1</v>
       </c>
-      <c r="I126">
-        <v>2</v>
-      </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L126">
         <v>3.1</v>
       </c>
       <c r="M126">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
         <v>1.85</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.95</v>
       </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>2.025</v>
-      </c>
-      <c r="V126">
-        <v>1.775</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6619170</v>
+        <v>6619168</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,13 +11765,13 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11780,43 +11780,43 @@
         <v>50</v>
       </c>
       <c r="K127">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11825,13 +11825,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6619171</v>
+        <v>6631252</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N128">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
         <v>2</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6619173</v>
+        <v>6147954</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K129">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M129">
+        <v>2.6</v>
+      </c>
+      <c r="N129">
         <v>3.75</v>
       </c>
-      <c r="N129">
+      <c r="O129">
+        <v>2.8</v>
+      </c>
+      <c r="P129">
+        <v>2.05</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
         <v>1.75</v>
       </c>
-      <c r="O129">
-        <v>3.5</v>
-      </c>
-      <c r="P129">
-        <v>4</v>
-      </c>
-      <c r="Q129">
-        <v>-0.75</v>
-      </c>
-      <c r="R129">
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>45067.70833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12299,7 +12299,7 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12658,7 +12658,7 @@
         <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6681951</v>
+        <v>6681950</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,58 +12744,58 @@
         <v>45073.75</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>50</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W138">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,13 +12804,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6681950</v>
+        <v>6681951</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,58 +12833,58 @@
         <v>45073.75</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>50</v>
       </c>
       <c r="K139">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="W139">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12893,13 +12893,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -13011,10 +13011,10 @@
         <v>45075.89583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45078.75</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
         <v>1.925</v>
       </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
       <c r="T144">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P145">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.925</v>
+      </c>
+      <c r="S145">
         <v>1.875</v>
       </c>
-      <c r="S145">
-        <v>1.925</v>
-      </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>45083.83333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13815,7 +13815,7 @@
         <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13904,7 +13904,7 @@
         <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,40 +13990,40 @@
         <v>45088.75</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N152">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
         <v>1.825</v>
@@ -14035,31 +14035,31 @@
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,40 +14079,40 @@
         <v>45088.75</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R153">
         <v>1.825</v>
@@ -14124,31 +14124,31 @@
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14613,10 +14613,10 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,49 +14702,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N160">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
         <v>1.8</v>
       </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.9</v>
@@ -14756,22 +14756,22 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N161">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
         <v>1.9</v>
@@ -14845,22 +14845,22 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y161">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>45135.92013888889</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>41</v>
@@ -15150,7 +15150,7 @@
         <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15236,7 +15236,7 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6883103</v>
+        <v>6883106</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L167">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X167">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6883106</v>
+        <v>6883103</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P168">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6990717</v>
+        <v>6990715</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,49 +15681,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>50</v>
       </c>
       <c r="K171">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L171">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O171">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15732,7 +15732,7 @@
         <v>1.775</v>
       </c>
       <c r="W171">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,7 +15741,7 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,49 +15859,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M173">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15910,7 +15910,7 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15919,7 +15919,7 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16126,7 +16126,7 @@
         <v>45145.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16218,7 +16218,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,49 +16571,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F181" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" t="s">
         <v>32</v>
       </c>
-      <c r="G181" t="s">
-        <v>40</v>
-      </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
+        <v>1.7</v>
+      </c>
+      <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>4.333</v>
+      </c>
+      <c r="N181">
+        <v>1.65</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>4.333</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
         <v>1.85</v>
       </c>
-      <c r="L181">
-        <v>3.25</v>
-      </c>
-      <c r="M181">
-        <v>3.75</v>
-      </c>
-      <c r="N181">
-        <v>1.85</v>
-      </c>
-      <c r="O181">
-        <v>3.25</v>
-      </c>
-      <c r="P181">
-        <v>3.75</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.9</v>
-      </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
         <v>1.8</v>
@@ -16622,19 +16622,19 @@
         <v>2</v>
       </c>
       <c r="W181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
         <v>0.8</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990727</v>
+        <v>6990725</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,49 +16660,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N182">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U182">
         <v>1.8</v>
@@ -16711,19 +16711,19 @@
         <v>2</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,10 +17105,10 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17372,7 +17372,7 @@
         <v>45157.72916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17817,7 +17817,7 @@
         <v>45160.75</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17998,7 +17998,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18072,7 +18072,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18084,76 +18084,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L198">
         <v>3</v>
       </c>
       <c r="M198">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O198">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
         <v>0</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X198">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
         <v>-0</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,76 +18173,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
         <v>3</v>
       </c>
       <c r="M199">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N199">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O199">
+        <v>2.9</v>
+      </c>
+      <c r="P199">
         <v>3.1</v>
       </c>
-      <c r="P199">
-        <v>2.8</v>
-      </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
         <v>1.85</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>1.875</v>
-      </c>
       <c r="W199">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,55 +18707,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
         <v>1</v>
-      </c>
-      <c r="I205">
-        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>51</v>
       </c>
       <c r="K205">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L205">
+        <v>3.2</v>
+      </c>
+      <c r="M205">
+        <v>2.2</v>
+      </c>
+      <c r="N205">
+        <v>2.4</v>
+      </c>
+      <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
         <v>3</v>
       </c>
-      <c r="M205">
-        <v>3</v>
-      </c>
-      <c r="N205">
-        <v>2.375</v>
-      </c>
-      <c r="O205">
-        <v>3.2</v>
-      </c>
-      <c r="P205">
-        <v>3.2</v>
-      </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T205">
         <v>2</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18764,19 +18764,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>2.375</v>
+      </c>
+      <c r="O206">
         <v>3.2</v>
       </c>
-      <c r="M206">
+      <c r="P206">
+        <v>3.2</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.8</v>
+      </c>
+      <c r="V206">
+        <v>2</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
         <v>2.2</v>
       </c>
-      <c r="N206">
-        <v>2.4</v>
-      </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
-      <c r="P206">
-        <v>3</v>
-      </c>
-      <c r="Q206">
-        <v>0</v>
-      </c>
-      <c r="R206">
-        <v>1.7</v>
-      </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>2</v>
-      </c>
-      <c r="U206">
-        <v>2.025</v>
-      </c>
-      <c r="V206">
-        <v>1.775</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>2</v>
-      </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18977,7 +18977,7 @@
         <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19508,10 +19508,10 @@
         <v>45171.75</v>
       </c>
       <c r="F214" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" t="s">
         <v>32</v>
-      </c>
-      <c r="G214" t="s">
-        <v>33</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45174.83680555555</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,25 +20131,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
         <v>1</v>
-      </c>
-      <c r="I221">
-        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>51</v>
       </c>
       <c r="K221">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L221">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M221">
         <v>3.2</v>
@@ -20158,28 +20158,28 @@
         <v>2.55</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P221">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20188,19 +20188,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,25 +20220,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>51</v>
       </c>
       <c r="K222">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L222">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
         <v>3.2</v>
@@ -20247,28 +20247,28 @@
         <v>2.55</v>
       </c>
       <c r="O222">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T222">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20277,19 +20277,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20401,7 +20401,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20665,7 +20665,7 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4.333</v>
+      </c>
+      <c r="M231">
+        <v>6.5</v>
+      </c>
+      <c r="N231">
+        <v>1.615</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>5.75</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
         <v>2.25</v>
       </c>
-      <c r="L231">
-        <v>3</v>
-      </c>
-      <c r="M231">
-        <v>3</v>
-      </c>
-      <c r="N231">
-        <v>2.4</v>
-      </c>
-      <c r="O231">
-        <v>3.1</v>
-      </c>
-      <c r="P231">
-        <v>3.2</v>
-      </c>
-      <c r="Q231">
-        <v>-0.25</v>
-      </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>1.75</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21555,7 +21555,7 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
         <v>42</v>
@@ -21647,7 +21647,7 @@
         <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22270,7 +22270,7 @@
         <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990792</v>
+        <v>6990794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,46 +22356,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N246">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P246">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22407,25 +22407,25 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,10 +22445,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22460,34 +22460,34 @@
         <v>50</v>
       </c>
       <c r="K247">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U247">
         <v>1.85</v>
@@ -22496,7 +22496,7 @@
         <v>1.95</v>
       </c>
       <c r="W247">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22505,10 +22505,10 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB247">
         <v>-1</v>
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6990794</v>
+        <v>6990788</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,49 +22534,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K248">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L248">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248">
+        <v>3</v>
+      </c>
+      <c r="P248">
+        <v>2.5</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
         <v>1.75</v>
       </c>
-      <c r="O248">
-        <v>3.5</v>
-      </c>
-      <c r="P248">
-        <v>5</v>
-      </c>
-      <c r="Q248">
-        <v>-0.5</v>
-      </c>
-      <c r="R248">
-        <v>1.75</v>
-      </c>
-      <c r="S248">
-        <v>2.05</v>
-      </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U248">
         <v>1.85</v>
@@ -22585,25 +22585,25 @@
         <v>1.95</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA248">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22623,7 +22623,7 @@
         <v>45189.75</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
         <v>34</v>
@@ -22804,7 +22804,7 @@
         <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23338,7 +23338,7 @@
         <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23691,7 +23691,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G261" t="s">
         <v>41</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24047,7 +24047,7 @@
         <v>45202.75</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
         <v>35</v>
@@ -24406,7 +24406,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24581,7 +24581,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G271" t="s">
         <v>31</v>
@@ -24670,7 +24670,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
         <v>29</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990826</v>
+        <v>6990820</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G276" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L276">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M276">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N276">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P276">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q276">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC276">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6990825</v>
+        <v>6990821</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F277" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G277" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K277">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L277">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="N277">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O277">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P277">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q277">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W277">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB277">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6990820</v>
+        <v>6990819</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278" t="s">
+        <v>49</v>
+      </c>
+      <c r="K278">
+        <v>3.6</v>
+      </c>
+      <c r="L278">
+        <v>3.25</v>
+      </c>
+      <c r="M278">
+        <v>1.909</v>
+      </c>
+      <c r="N278">
+        <v>5.25</v>
+      </c>
+      <c r="O278">
+        <v>4</v>
+      </c>
+      <c r="P278">
+        <v>1.615</v>
+      </c>
+      <c r="Q278">
         <v>1</v>
       </c>
-      <c r="J278" t="s">
-        <v>50</v>
-      </c>
-      <c r="K278">
-        <v>1.833</v>
-      </c>
-      <c r="L278">
-        <v>3.4</v>
-      </c>
-      <c r="M278">
-        <v>3.75</v>
-      </c>
-      <c r="N278">
-        <v>2</v>
-      </c>
-      <c r="O278">
-        <v>3.6</v>
-      </c>
-      <c r="P278">
-        <v>3.6</v>
-      </c>
-      <c r="Q278">
-        <v>-0.5</v>
-      </c>
       <c r="R278">
+        <v>1.725</v>
+      </c>
+      <c r="S278">
         <v>1.975</v>
-      </c>
-      <c r="S278">
-        <v>1.825</v>
       </c>
       <c r="T278">
         <v>2.5</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990823</v>
+        <v>6990825</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,73 +25293,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K279">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L279">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M279">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N279">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="O279">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P279">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R279">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S279">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V279">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990822</v>
+        <v>6990823</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,73 +25382,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
         <v>51</v>
       </c>
       <c r="K280">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L280">
         <v>3.4</v>
       </c>
       <c r="M280">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N280">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O280">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P280">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q280">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R280">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S280">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T280">
         <v>2.5</v>
       </c>
       <c r="U280">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V280">
+        <v>1.975</v>
+      </c>
+      <c r="W280">
+        <v>-1</v>
+      </c>
+      <c r="X280">
+        <v>-1</v>
+      </c>
+      <c r="Y280">
         <v>1.875</v>
       </c>
-      <c r="W280">
-        <v>-1</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>0.7270000000000001</v>
-      </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB280">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC280">
         <v>-1</v>
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6990819</v>
+        <v>6990826</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G281" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L281">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M281">
+        <v>2.875</v>
+      </c>
+      <c r="N281">
+        <v>4.75</v>
+      </c>
+      <c r="O281">
+        <v>3.1</v>
+      </c>
+      <c r="P281">
         <v>1.909</v>
       </c>
-      <c r="N281">
-        <v>5.25</v>
-      </c>
-      <c r="O281">
-        <v>4</v>
-      </c>
-      <c r="P281">
-        <v>1.615</v>
-      </c>
       <c r="Q281">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R281">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z281">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990821</v>
+        <v>6990824</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,10 +25560,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25575,46 +25575,46 @@
         <v>49</v>
       </c>
       <c r="K282">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L282">
+        <v>2.9</v>
+      </c>
+      <c r="M282">
+        <v>3.5</v>
+      </c>
+      <c r="N282">
+        <v>2.1</v>
+      </c>
+      <c r="O282">
         <v>3</v>
       </c>
-      <c r="M282">
-        <v>3.25</v>
-      </c>
-      <c r="N282">
-        <v>2.2</v>
-      </c>
-      <c r="O282">
-        <v>3.1</v>
-      </c>
       <c r="P282">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S282">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6990824</v>
+        <v>6990822</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,76 +25649,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L283">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M283">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N283">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O283">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P283">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
+        <v>2.025</v>
+      </c>
+      <c r="S283">
         <v>1.775</v>
       </c>
-      <c r="S283">
-        <v>2.025</v>
-      </c>
       <c r="T283">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB283">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC283">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25919,7 +25919,7 @@
         <v>29</v>
       </c>
       <c r="G286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26272,7 +26272,7 @@
         <v>45222.8125</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
         <v>30</v>
@@ -26628,7 +26628,7 @@
         <v>45226.72916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
         <v>41</v>
@@ -27076,7 +27076,7 @@
         <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27432,7 +27432,7 @@
         <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -27518,7 +27518,7 @@
         <v>45241.75</v>
       </c>
       <c r="F304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G304" t="s">
         <v>29</v>
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630524</v>
+        <v>7630523</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,61 +28497,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G315" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
         <v>49</v>
       </c>
       <c r="K315">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L315">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M315">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N315">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O315">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q315">
         <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S315">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T315">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
+        <v>1.975</v>
+      </c>
+      <c r="V315">
         <v>1.825</v>
       </c>
-      <c r="V315">
-        <v>1.975</v>
-      </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y315">
         <v>-1</v>
@@ -28560,13 +28560,13 @@
         <v>-1</v>
       </c>
       <c r="AA315">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB315">
+        <v>-1</v>
+      </c>
+      <c r="AC315">
         <v>0.825</v>
-      </c>
-      <c r="AC315">
-        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,61 +28586,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G316" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>49</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L316">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M316">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N316">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P316">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q316">
         <v>-0.5</v>
       </c>
       <c r="R316">
+        <v>1.9</v>
+      </c>
+      <c r="S316">
+        <v>1.9</v>
+      </c>
+      <c r="T316">
+        <v>2</v>
+      </c>
+      <c r="U316">
+        <v>1.825</v>
+      </c>
+      <c r="V316">
         <v>1.975</v>
       </c>
-      <c r="S316">
-        <v>1.825</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>1.975</v>
-      </c>
-      <c r="V316">
-        <v>1.825</v>
-      </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y316">
         <v>-1</v>
@@ -28649,13 +28649,13 @@
         <v>-1</v>
       </c>
       <c r="AA316">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB316">
         <v>0.825</v>
       </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G318" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K318">
+        <v>3.2</v>
+      </c>
+      <c r="L318">
+        <v>3.1</v>
+      </c>
+      <c r="M318">
         <v>2.2</v>
       </c>
-      <c r="L318">
-        <v>3</v>
-      </c>
-      <c r="M318">
-        <v>3.2</v>
-      </c>
       <c r="N318">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
+        <v>1.9</v>
+      </c>
+      <c r="S318">
+        <v>1.9</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>1.775</v>
+      </c>
+      <c r="V318">
         <v>2.025</v>
       </c>
-      <c r="S318">
-        <v>1.775</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.975</v>
-      </c>
-      <c r="V318">
-        <v>1.825</v>
-      </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G319" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K319">
+        <v>2.2</v>
+      </c>
+      <c r="L319">
+        <v>3</v>
+      </c>
+      <c r="M319">
         <v>3.2</v>
       </c>
-      <c r="L319">
-        <v>3.1</v>
-      </c>
-      <c r="M319">
+      <c r="N319">
+        <v>2.375</v>
+      </c>
+      <c r="O319">
+        <v>3.2</v>
+      </c>
+      <c r="P319">
+        <v>3.2</v>
+      </c>
+      <c r="Q319">
+        <v>-0.25</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.775</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.975</v>
+      </c>
+      <c r="V319">
+        <v>1.825</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
         <v>2.2</v>
       </c>
-      <c r="N319">
-        <v>3.3</v>
-      </c>
-      <c r="O319">
-        <v>3.25</v>
-      </c>
-      <c r="P319">
-        <v>2.2</v>
-      </c>
-      <c r="Q319">
-        <v>0.25</v>
-      </c>
-      <c r="R319">
-        <v>1.9</v>
-      </c>
-      <c r="S319">
-        <v>1.9</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.775</v>
-      </c>
-      <c r="V319">
-        <v>2.025</v>
-      </c>
-      <c r="W319">
-        <v>-1</v>
-      </c>
-      <c r="X319">
-        <v>-1</v>
-      </c>
       <c r="Y319">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA319">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC319">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H322">
         <v>4</v>
@@ -29390,7 +29390,7 @@
         <v>34</v>
       </c>
       <c r="G325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -29746,7 +29746,7 @@
         <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,73 +29832,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F330" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G330" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K330">
+        <v>3.6</v>
+      </c>
+      <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>2.1</v>
+      </c>
+      <c r="O330">
+        <v>3.5</v>
+      </c>
+      <c r="P330">
+        <v>3.4</v>
+      </c>
+      <c r="Q330">
+        <v>-0.25</v>
+      </c>
+      <c r="R330">
+        <v>1.825</v>
+      </c>
+      <c r="S330">
+        <v>1.975</v>
+      </c>
+      <c r="T330">
         <v>2.5</v>
       </c>
-      <c r="L330">
-        <v>3.2</v>
-      </c>
-      <c r="M330">
+      <c r="U330">
+        <v>1.8</v>
+      </c>
+      <c r="V330">
+        <v>2</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
         <v>2.5</v>
       </c>
-      <c r="N330">
-        <v>3</v>
-      </c>
-      <c r="O330">
-        <v>3.1</v>
-      </c>
-      <c r="P330">
-        <v>2.15</v>
-      </c>
-      <c r="Q330">
-        <v>0.25</v>
-      </c>
-      <c r="R330">
-        <v>1.85</v>
-      </c>
-      <c r="S330">
-        <v>1.95</v>
-      </c>
-      <c r="T330">
-        <v>2</v>
-      </c>
-      <c r="U330">
-        <v>1.75</v>
-      </c>
-      <c r="V330">
-        <v>2.05</v>
-      </c>
-      <c r="W330">
-        <v>-1</v>
-      </c>
-      <c r="X330">
-        <v>-1</v>
-      </c>
       <c r="Y330">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA330">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB330">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,73 +29921,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G331" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K331">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L331">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M331">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N331">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O331">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P331">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S331">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U331">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V331">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z331">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB331">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>51</v>
+      </c>
+      <c r="K333">
+        <v>2.7</v>
+      </c>
+      <c r="L333">
         <v>3</v>
       </c>
-      <c r="I333">
-        <v>2</v>
-      </c>
-      <c r="J333" t="s">
-        <v>50</v>
-      </c>
-      <c r="K333">
+      <c r="M333">
+        <v>2.45</v>
+      </c>
+      <c r="N333">
+        <v>3</v>
+      </c>
+      <c r="O333">
+        <v>3.1</v>
+      </c>
+      <c r="P333">
+        <v>2.4</v>
+      </c>
+      <c r="Q333">
+        <v>0.25</v>
+      </c>
+      <c r="R333">
         <v>1.75</v>
       </c>
-      <c r="L333">
-        <v>3.4</v>
-      </c>
-      <c r="M333">
-        <v>4</v>
-      </c>
-      <c r="N333">
-        <v>1.727</v>
-      </c>
-      <c r="O333">
-        <v>3.8</v>
-      </c>
-      <c r="P333">
-        <v>4.75</v>
-      </c>
-      <c r="Q333">
-        <v>-0.75</v>
-      </c>
-      <c r="R333">
-        <v>1.925</v>
-      </c>
       <c r="S333">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U333">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V333">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W333">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z333">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB333">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F334" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K334">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L334">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M334">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N334">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O334">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P334">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q334">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S334">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA334">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC334">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30371,6 +30371,15 @@
       <c r="G336" t="s">
         <v>38</v>
       </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>51</v>
+      </c>
       <c r="K336">
         <v>1.8</v>
       </c>
@@ -30381,49 +30390,55 @@
         <v>4.5</v>
       </c>
       <c r="N336">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O336">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P336">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q336">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
+        <v>1.85</v>
+      </c>
+      <c r="S336">
+        <v>1.95</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
         <v>1.975</v>
       </c>
-      <c r="S336">
+      <c r="V336">
         <v>1.825</v>
       </c>
-      <c r="T336">
-        <v>2</v>
-      </c>
-      <c r="U336">
-        <v>2.025</v>
-      </c>
-      <c r="V336">
-        <v>1.775</v>
-      </c>
       <c r="W336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB336">
+        <v>-1</v>
+      </c>
+      <c r="AC336">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -30445,6 +30460,15 @@
       <c r="G337" t="s">
         <v>39</v>
       </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>50</v>
+      </c>
       <c r="K337">
         <v>1.3</v>
       </c>
@@ -30455,16 +30479,16 @@
         <v>8</v>
       </c>
       <c r="N337">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O337">
         <v>4.2</v>
       </c>
       <c r="P337">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q337">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R337">
         <v>1.975</v>
@@ -30476,28 +30500,34 @@
         <v>2.5</v>
       </c>
       <c r="U337">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V337">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W337">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
         <v>0</v>
       </c>
       <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -30517,7 +30547,7 @@
         <v>42</v>
       </c>
       <c r="G338" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K338">
         <v>1.727</v>
@@ -30529,22 +30559,22 @@
         <v>4.5</v>
       </c>
       <c r="N338">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O338">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P338">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q338">
         <v>-0.75</v>
       </c>
       <c r="R338">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S338">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T338">
         <v>2.25</v>
@@ -30571,12 +30601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:29">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7630551</v>
+        <v>7630550</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30588,46 +30618,46 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F339" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G339" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K339">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L339">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M339">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N339">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="O339">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P339">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q339">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R339">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S339">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T339">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U339">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V339">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30645,12 +30675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:29">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7630550</v>
+        <v>7630551</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30662,46 +30692,46 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F340" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G340" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K340">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L340">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M340">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N340">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O340">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P340">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q340">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S340">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T340">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U340">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V340">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W340">
         <v>0</v>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Patriotas FC</t>
+    <t>Atletico Cali FC</t>
   </si>
   <si>
-    <t>Atletico Cali FC</t>
+    <t>Patriotas FC</t>
   </si>
   <si>
     <t>Cortulua</t>
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC340"/>
+  <dimension ref="A1:AC347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6147849</v>
+        <v>6147844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
         <v>3</v>
-      </c>
-      <c r="P4">
-        <v>3.6</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6147844</v>
+        <v>6147849</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
+        <v>3.4</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.3</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2331,10 +2331,10 @@
         <v>44977.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>44982.75</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>44984.70833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6147861</v>
+        <v>6147862</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>44989.75</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,7 +3628,7 @@
         <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.7250000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6147862</v>
+        <v>6147861</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,46 +3666,46 @@
         <v>44989.75</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2.25</v>
+      </c>
+      <c r="O36">
         <v>3.25</v>
       </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>1.666</v>
-      </c>
-      <c r="O36">
-        <v>3.4</v>
-      </c>
       <c r="P36">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3717,7 +3717,7 @@
         <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -3936,7 +3936,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6147873</v>
+        <v>6147870</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L40">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6147870</v>
+        <v>6147873</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>44993.92013888889</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4467,7 +4467,7 @@
         <v>44994.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147882</v>
+        <v>6147879</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,73 +4912,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N50">
+        <v>2.375</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>2.8</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.75</v>
+      </c>
+      <c r="S50">
         <v>2.05</v>
-      </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
-      <c r="P50">
-        <v>3.3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>1.825</v>
-      </c>
-      <c r="S50">
-        <v>1.975</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147880</v>
+        <v>6147882</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,40 +5001,40 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>50</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
         <v>3.1</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5043,16 +5043,16 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5067,10 +5067,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147879</v>
+        <v>6147877</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
+        <v>0.825</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
         <v>-0</v>
-      </c>
-      <c r="AB52">
-        <v>0.95</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6147877</v>
+        <v>6147880</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
+        <v>1.825</v>
+      </c>
+      <c r="S53">
         <v>1.975</v>
       </c>
-      <c r="S53">
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1.975</v>
+      </c>
+      <c r="V53">
         <v>1.825</v>
       </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.8</v>
-      </c>
-      <c r="V53">
-        <v>2</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
+        <v>-1</v>
+      </c>
+      <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.825</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5360,7 +5360,7 @@
         <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -5894,7 +5894,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>45006.8125</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>45009.83333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>43</v>
@@ -6692,7 +6692,7 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6784,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7582,10 +7582,10 @@
         <v>45019.83680555555</v>
       </c>
       <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
         <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8116,10 +8116,10 @@
         <v>45026.75</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -8917,7 +8917,7 @@
         <v>45032.71875</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9362,7 +9362,7 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9451,7 +9451,7 @@
         <v>45035.72916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9807,7 +9807,7 @@
         <v>45036.92013888889</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>30</v>
@@ -9899,7 +9899,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>45047.89583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11142,7 +11142,7 @@
         <v>45048.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6619169</v>
+        <v>6631252</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N124">
+        <v>2.7</v>
+      </c>
+      <c r="O124">
         <v>3</v>
       </c>
-      <c r="O124">
-        <v>3.25</v>
-      </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
+        <v>1.775</v>
+      </c>
+      <c r="V124">
         <v>2.025</v>
       </c>
-      <c r="V124">
-        <v>1.775</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.025</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619171</v>
+        <v>6619169</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>1.952</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
         <v>3.1</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
         <v>1.95</v>
       </c>
-      <c r="S125">
-        <v>1.85</v>
-      </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,10 +11676,10 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
         <v>36</v>
-      </c>
-      <c r="G126" t="s">
-        <v>37</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6619168</v>
+        <v>6147954</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,40 +11765,40 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>32</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N127">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11807,34 +11807,34 @@
         <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
+        <v>0.8</v>
+      </c>
+      <c r="AB127">
+        <v>0.4125</v>
+      </c>
+      <c r="AC127">
         <v>-0.5</v>
-      </c>
-      <c r="AA127">
-        <v>0.4</v>
-      </c>
-      <c r="AB127">
-        <v>0.875</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6631252</v>
+        <v>6619168</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X128">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6147954</v>
+        <v>6619171</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,49 +11943,49 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.8</v>
+        <v>1.952</v>
       </c>
       <c r="L129">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M129">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O129">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
         <v>1.825</v>
@@ -11997,22 +11997,22 @@
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y129">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12299,10 +12299,10 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>45071.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6681950</v>
+        <v>6681951</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,58 +12744,58 @@
         <v>45073.75</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>50</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="W138">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,13 +12804,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6681951</v>
+        <v>6681950</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,58 +12833,58 @@
         <v>45073.75</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>50</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12893,13 +12893,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12925,7 +12925,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45078.75</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
         <v>1.875</v>
       </c>
-      <c r="S144">
-        <v>1.925</v>
-      </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K145">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
         <v>1.925</v>
       </c>
-      <c r="S145">
-        <v>1.875</v>
-      </c>
       <c r="T145">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45087.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K150">
+        <v>1.615</v>
+      </c>
+      <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
         <v>1.533</v>
       </c>
-      <c r="L150">
-        <v>3.8</v>
-      </c>
-      <c r="M150">
+      <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
         <v>5.75</v>
       </c>
-      <c r="N150">
-        <v>1.363</v>
-      </c>
-      <c r="O150">
-        <v>4.2</v>
-      </c>
-      <c r="P150">
-        <v>7.5</v>
-      </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.8</v>
+      </c>
+      <c r="AB150">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
-      <c r="AB150">
-        <v>-0.5</v>
-      </c>
       <c r="AC150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45087.75</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N151">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>41</v>
@@ -14260,7 +14260,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14613,10 +14613,10 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,49 +14702,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
         <v>1.9</v>
@@ -14756,22 +14756,22 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y160">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
         <v>1.8</v>
       </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>1.9</v>
@@ -14845,22 +14845,22 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>35</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N165">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
         <v>1.95</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.85</v>
       </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>2</v>
-      </c>
-      <c r="V165">
-        <v>1.8</v>
-      </c>
       <c r="W165">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K166">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L166">
         <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N166">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,49 +15681,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>50</v>
       </c>
       <c r="K171">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N171">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15732,7 +15732,7 @@
         <v>1.775</v>
       </c>
       <c r="W171">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,7 +15741,7 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6990717</v>
+        <v>6990715</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,49 +15859,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L173">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N173">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P173">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15910,7 +15910,7 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15919,7 +15919,7 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16126,7 +16126,7 @@
         <v>45145.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16574,7 +16574,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990725</v>
+        <v>6990726</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,49 +16660,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L182">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P182">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
         <v>1.8</v>
@@ -16711,19 +16711,19 @@
         <v>2</v>
       </c>
       <c r="W182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z182">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,49 +16749,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>1.8</v>
@@ -16800,19 +16800,19 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -16841,7 +16841,7 @@
         <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17283,7 +17283,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>34</v>
@@ -17372,7 +17372,7 @@
         <v>45157.72916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17998,7 +17998,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18176,7 +18176,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18796,7 +18796,7 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>45</v>
@@ -19063,7 +19063,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19511,7 +19511,7 @@
         <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19864,7 +19864,7 @@
         <v>45173.75</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45174.83680555555</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20490,7 +20490,7 @@
         <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21021,10 +21021,10 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
+        <v>32</v>
+      </c>
+      <c r="G231" t="s">
         <v>31</v>
-      </c>
-      <c r="G231" t="s">
-        <v>32</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21469,7 +21469,7 @@
         <v>45</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21555,7 +21555,7 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
         <v>42</v>
@@ -22089,7 +22089,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
         <v>38</v>
@@ -22270,7 +22270,7 @@
         <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990794</v>
+        <v>6990792</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,46 +22356,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O246">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R246">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22407,25 +22407,25 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA246">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB246">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6990792</v>
+        <v>6990794</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,46 +22445,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N247">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P247">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T247">
         <v>2.25</v>
@@ -22496,25 +22496,25 @@
         <v>1.95</v>
       </c>
       <c r="W247">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22804,7 +22804,7 @@
         <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23249,7 +23249,7 @@
         <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H256">
         <v>4</v>
@@ -23513,7 +23513,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>43</v>
@@ -23691,7 +23691,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
         <v>41</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24228,7 +24228,7 @@
         <v>41</v>
       </c>
       <c r="G267" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,13 +24581,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G271" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -24596,25 +24596,25 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L271">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N271">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O271">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P271">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R271">
         <v>2</v>
@@ -24623,16 +24623,16 @@
         <v>1.8</v>
       </c>
       <c r="T271">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24647,7 +24647,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,13 +24670,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24685,25 +24685,25 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L272">
+        <v>3.2</v>
+      </c>
+      <c r="M272">
+        <v>3.25</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
         <v>3.5</v>
       </c>
-      <c r="M272">
-        <v>4.25</v>
-      </c>
-      <c r="N272">
-        <v>1.75</v>
-      </c>
-      <c r="O272">
-        <v>3.6</v>
-      </c>
       <c r="P272">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q272">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -24712,16 +24712,16 @@
         <v>1.8</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U272">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V272">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W272">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,7 +24736,7 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990820</v>
+        <v>6990822</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,73 +25026,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H276">
         <v>2</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K276">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L276">
         <v>3.4</v>
       </c>
       <c r="M276">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N276">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O276">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P276">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T276">
         <v>2.5</v>
       </c>
       <c r="U276">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V276">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z276">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB276">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6990821</v>
+        <v>6990824</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,10 +25115,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F277" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G277" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -25130,46 +25130,46 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L277">
+        <v>2.9</v>
+      </c>
+      <c r="M277">
+        <v>3.5</v>
+      </c>
+      <c r="N277">
+        <v>2.1</v>
+      </c>
+      <c r="O277">
         <v>3</v>
       </c>
-      <c r="M277">
-        <v>3.25</v>
-      </c>
-      <c r="N277">
-        <v>2.2</v>
-      </c>
-      <c r="O277">
-        <v>3.1</v>
-      </c>
       <c r="P277">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y277">
         <v>-1</v>
@@ -25178,13 +25178,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC277">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25204,7 +25204,7 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G278" t="s">
         <v>43</v>
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990825</v>
+        <v>6990820</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,58 +25293,58 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
         <v>50</v>
       </c>
       <c r="K279">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L279">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N279">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O279">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P279">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q279">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S279">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W279">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="X279">
         <v>-1</v>
@@ -25353,13 +25353,13 @@
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990823</v>
+        <v>6990825</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,73 +25382,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K280">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M280">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N280">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="O280">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P280">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R280">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S280">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T280">
         <v>2.5</v>
       </c>
       <c r="U280">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V280">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC280">
         <v>-1</v>
@@ -25474,7 +25474,7 @@
         <v>45</v>
       </c>
       <c r="G281" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990824</v>
+        <v>6990821</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,10 +25560,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25575,46 +25575,46 @@
         <v>49</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L282">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M282">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N282">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O282">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P282">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB282">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6990822</v>
+        <v>6990823</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,73 +25649,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>51</v>
       </c>
       <c r="K283">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L283">
         <v>3.4</v>
       </c>
       <c r="M283">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N283">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O283">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P283">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R283">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S283">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
+        <v>1.975</v>
+      </c>
+      <c r="W283">
+        <v>-1</v>
+      </c>
+      <c r="X283">
+        <v>-1</v>
+      </c>
+      <c r="Y283">
         <v>1.875</v>
       </c>
-      <c r="W283">
-        <v>-1</v>
-      </c>
-      <c r="X283">
-        <v>-1</v>
-      </c>
-      <c r="Y283">
-        <v>0.7270000000000001</v>
-      </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB283">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25919,7 +25919,7 @@
         <v>29</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26272,7 +26272,7 @@
         <v>45222.8125</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G290" t="s">
         <v>30</v>
@@ -26628,7 +26628,7 @@
         <v>45226.72916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
         <v>41</v>
@@ -27076,7 +27076,7 @@
         <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27432,7 +27432,7 @@
         <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7452586</v>
+        <v>7452587</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,49 +27518,49 @@
         <v>45241.75</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G304" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K304">
         <v>1.833</v>
       </c>
       <c r="L304">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M304">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N304">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O304">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P304">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q304">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R304">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
         <v>1.875</v>
@@ -27569,19 +27569,19 @@
         <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X304">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB304">
         <v>-1</v>
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7452587</v>
+        <v>7452586</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,49 +27607,49 @@
         <v>45241.75</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305">
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K305">
         <v>1.833</v>
       </c>
       <c r="L305">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M305">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N305">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O305">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P305">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q305">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S305">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
         <v>1.875</v>
@@ -27658,19 +27658,19 @@
         <v>1.925</v>
       </c>
       <c r="W305">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB305">
         <v>-1</v>
@@ -28052,7 +28052,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G310" t="s">
         <v>43</v>
@@ -28144,7 +28144,7 @@
         <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28497,7 +28497,7 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
         <v>34</v>
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G318" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K318">
+        <v>2.2</v>
+      </c>
+      <c r="L318">
+        <v>3</v>
+      </c>
+      <c r="M318">
         <v>3.2</v>
       </c>
-      <c r="L318">
-        <v>3.1</v>
-      </c>
-      <c r="M318">
+      <c r="N318">
+        <v>2.375</v>
+      </c>
+      <c r="O318">
+        <v>3.2</v>
+      </c>
+      <c r="P318">
+        <v>3.2</v>
+      </c>
+      <c r="Q318">
+        <v>-0.25</v>
+      </c>
+      <c r="R318">
+        <v>2.025</v>
+      </c>
+      <c r="S318">
+        <v>1.775</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>1.975</v>
+      </c>
+      <c r="V318">
+        <v>1.825</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
         <v>2.2</v>
       </c>
-      <c r="N318">
-        <v>3.3</v>
-      </c>
-      <c r="O318">
-        <v>3.25</v>
-      </c>
-      <c r="P318">
-        <v>2.2</v>
-      </c>
-      <c r="Q318">
-        <v>0.25</v>
-      </c>
-      <c r="R318">
-        <v>1.9</v>
-      </c>
-      <c r="S318">
-        <v>1.9</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.775</v>
-      </c>
-      <c r="V318">
-        <v>2.025</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
       <c r="Y318">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC318">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K319">
+        <v>3.2</v>
+      </c>
+      <c r="L319">
+        <v>3.1</v>
+      </c>
+      <c r="M319">
         <v>2.2</v>
       </c>
-      <c r="L319">
-        <v>3</v>
-      </c>
-      <c r="M319">
-        <v>3.2</v>
-      </c>
       <c r="N319">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P319">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q319">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.775</v>
+      </c>
+      <c r="V319">
         <v>2.025</v>
       </c>
-      <c r="S319">
-        <v>1.775</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.975</v>
-      </c>
-      <c r="V319">
-        <v>1.825</v>
-      </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,73 +29120,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G322" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H322">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L322">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N322">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P322">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V322">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W322">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z322">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB322">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,73 +29209,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K323">
+        <v>3.25</v>
+      </c>
+      <c r="L323">
+        <v>3</v>
+      </c>
+      <c r="M323">
+        <v>2.3</v>
+      </c>
+      <c r="N323">
         <v>2.1</v>
       </c>
-      <c r="L323">
+      <c r="O323">
         <v>3.2</v>
       </c>
-      <c r="M323">
-        <v>3.6</v>
-      </c>
-      <c r="N323">
-        <v>1.95</v>
-      </c>
-      <c r="O323">
-        <v>3.3</v>
-      </c>
       <c r="P323">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S323">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V323">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA323">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29390,7 +29390,7 @@
         <v>34</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -29746,7 +29746,7 @@
         <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,73 +29832,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F330" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K330">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M330">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N330">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P330">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,73 +29921,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G331" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K331">
+        <v>3.6</v>
+      </c>
+      <c r="L331">
+        <v>3.5</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>2.1</v>
+      </c>
+      <c r="O331">
+        <v>3.5</v>
+      </c>
+      <c r="P331">
+        <v>3.4</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.825</v>
+      </c>
+      <c r="S331">
+        <v>1.975</v>
+      </c>
+      <c r="T331">
         <v>2.5</v>
       </c>
-      <c r="L331">
-        <v>3.2</v>
-      </c>
-      <c r="M331">
+      <c r="U331">
+        <v>1.8</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>-1</v>
+      </c>
+      <c r="X331">
         <v>2.5</v>
       </c>
-      <c r="N331">
-        <v>3</v>
-      </c>
-      <c r="O331">
-        <v>3.1</v>
-      </c>
-      <c r="P331">
-        <v>2.15</v>
-      </c>
-      <c r="Q331">
-        <v>0.25</v>
-      </c>
-      <c r="R331">
-        <v>1.85</v>
-      </c>
-      <c r="S331">
-        <v>1.95</v>
-      </c>
-      <c r="T331">
-        <v>2</v>
-      </c>
-      <c r="U331">
-        <v>1.75</v>
-      </c>
-      <c r="V331">
-        <v>2.05</v>
-      </c>
-      <c r="W331">
-        <v>-1</v>
-      </c>
-      <c r="X331">
-        <v>-1</v>
-      </c>
       <c r="Y331">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB331">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30532,7 +30532,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7630548</v>
+        <v>7630549</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30541,64 +30541,79 @@
         <v>28</v>
       </c>
       <c r="E338" s="2">
-        <v>45344.83333333334</v>
+        <v>45342.83333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G338" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>3</v>
+      </c>
+      <c r="J338" t="s">
+        <v>51</v>
       </c>
       <c r="K338">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L338">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N338">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O338">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P338">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q338">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R338">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S338">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T338">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U338">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V338">
+        <v>2.05</v>
+      </c>
+      <c r="W338">
+        <v>-1</v>
+      </c>
+      <c r="X338">
+        <v>-1</v>
+      </c>
+      <c r="Y338">
         <v>1.8</v>
       </c>
-      <c r="W338">
-        <v>0</v>
-      </c>
-      <c r="X338">
-        <v>0</v>
-      </c>
-      <c r="Y338">
-        <v>0</v>
-      </c>
       <c r="Z338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB338">
+        <v>0.75</v>
+      </c>
+      <c r="AC338">
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30606,7 +30621,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7630550</v>
+        <v>7630545</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30615,64 +30630,79 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45345.72916666666</v>
+        <v>45342.90277777778</v>
       </c>
       <c r="F339" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G339" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339" t="s">
+        <v>50</v>
       </c>
       <c r="K339">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L339">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M339">
         <v>5</v>
       </c>
       <c r="N339">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O339">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P339">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q339">
         <v>-1</v>
       </c>
       <c r="R339">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S339">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T339">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U339">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V339">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W339">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>0</v>
       </c>
       <c r="AA339">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+      <c r="AC339">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30680,72 +30710,605 @@
         <v>338</v>
       </c>
       <c r="B340">
+        <v>7630547</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45343.75</v>
+      </c>
+      <c r="F340" t="s">
+        <v>46</v>
+      </c>
+      <c r="G340" t="s">
+        <v>34</v>
+      </c>
+      <c r="H340">
+        <v>2</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340" t="s">
+        <v>49</v>
+      </c>
+      <c r="K340">
+        <v>2.75</v>
+      </c>
+      <c r="L340">
+        <v>3.2</v>
+      </c>
+      <c r="M340">
+        <v>2.3</v>
+      </c>
+      <c r="N340">
+        <v>2.2</v>
+      </c>
+      <c r="O340">
+        <v>3.2</v>
+      </c>
+      <c r="P340">
+        <v>2.9</v>
+      </c>
+      <c r="Q340">
+        <v>-0.25</v>
+      </c>
+      <c r="R340">
+        <v>1.975</v>
+      </c>
+      <c r="S340">
+        <v>1.825</v>
+      </c>
+      <c r="T340">
+        <v>2.25</v>
+      </c>
+      <c r="U340">
+        <v>1.825</v>
+      </c>
+      <c r="V340">
+        <v>1.975</v>
+      </c>
+      <c r="W340">
+        <v>-1</v>
+      </c>
+      <c r="X340">
+        <v>2.2</v>
+      </c>
+      <c r="Y340">
+        <v>-1</v>
+      </c>
+      <c r="Z340">
+        <v>-0.5</v>
+      </c>
+      <c r="AA340">
+        <v>0.4125</v>
+      </c>
+      <c r="AB340">
+        <v>0.825</v>
+      </c>
+      <c r="AC340">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>7630548</v>
+      </c>
+      <c r="C341" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45344.83333333334</v>
+      </c>
+      <c r="F341" t="s">
+        <v>42</v>
+      </c>
+      <c r="G341" t="s">
+        <v>37</v>
+      </c>
+      <c r="K341">
+        <v>1.727</v>
+      </c>
+      <c r="L341">
+        <v>3.2</v>
+      </c>
+      <c r="M341">
+        <v>4.5</v>
+      </c>
+      <c r="N341">
+        <v>1.615</v>
+      </c>
+      <c r="O341">
+        <v>3.6</v>
+      </c>
+      <c r="P341">
+        <v>6</v>
+      </c>
+      <c r="Q341">
+        <v>-0.75</v>
+      </c>
+      <c r="R341">
+        <v>1.825</v>
+      </c>
+      <c r="S341">
+        <v>1.975</v>
+      </c>
+      <c r="T341">
+        <v>2.25</v>
+      </c>
+      <c r="U341">
+        <v>2</v>
+      </c>
+      <c r="V341">
+        <v>1.8</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>7630550</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45345.72916666666</v>
+      </c>
+      <c r="F342" t="s">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>44</v>
+      </c>
+      <c r="K342">
+        <v>1.615</v>
+      </c>
+      <c r="L342">
+        <v>3.5</v>
+      </c>
+      <c r="M342">
+        <v>5</v>
+      </c>
+      <c r="N342">
+        <v>1.533</v>
+      </c>
+      <c r="O342">
+        <v>4</v>
+      </c>
+      <c r="P342">
+        <v>6.5</v>
+      </c>
+      <c r="Q342">
+        <v>-1</v>
+      </c>
+      <c r="R342">
+        <v>1.9</v>
+      </c>
+      <c r="S342">
+        <v>1.9</v>
+      </c>
+      <c r="T342">
+        <v>2.25</v>
+      </c>
+      <c r="U342">
+        <v>1.9</v>
+      </c>
+      <c r="V342">
+        <v>1.9</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
         <v>7630551</v>
       </c>
-      <c r="C340" t="s">
-        <v>28</v>
-      </c>
-      <c r="D340" t="s">
-        <v>28</v>
-      </c>
-      <c r="E340" s="2">
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
         <v>45345.72916666666</v>
       </c>
-      <c r="F340" t="s">
-        <v>32</v>
-      </c>
-      <c r="G340" t="s">
+      <c r="F343" t="s">
+        <v>31</v>
+      </c>
+      <c r="G343" t="s">
         <v>41</v>
       </c>
-      <c r="K340">
+      <c r="K343">
         <v>4</v>
       </c>
-      <c r="L340">
+      <c r="L343">
         <v>3</v>
       </c>
-      <c r="M340">
+      <c r="M343">
         <v>1.909</v>
       </c>
-      <c r="N340">
+      <c r="N343">
+        <v>4</v>
+      </c>
+      <c r="O343">
+        <v>3.1</v>
+      </c>
+      <c r="P343">
+        <v>2.05</v>
+      </c>
+      <c r="Q343">
+        <v>0.25</v>
+      </c>
+      <c r="R343">
+        <v>2.05</v>
+      </c>
+      <c r="S343">
+        <v>1.75</v>
+      </c>
+      <c r="T343">
+        <v>2</v>
+      </c>
+      <c r="U343">
+        <v>1.775</v>
+      </c>
+      <c r="V343">
+        <v>2.025</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>7630557</v>
+      </c>
+      <c r="C344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45346.72916666666</v>
+      </c>
+      <c r="F344" t="s">
+        <v>38</v>
+      </c>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="K344">
+        <v>4</v>
+      </c>
+      <c r="L344">
+        <v>3.2</v>
+      </c>
+      <c r="M344">
+        <v>1.8</v>
+      </c>
+      <c r="N344">
         <v>3.75</v>
       </c>
-      <c r="O340">
-        <v>3</v>
-      </c>
-      <c r="P340">
-        <v>2</v>
-      </c>
-      <c r="Q340">
-        <v>0.25</v>
-      </c>
-      <c r="R340">
+      <c r="O344">
+        <v>3.1</v>
+      </c>
+      <c r="P344">
+        <v>1.909</v>
+      </c>
+      <c r="Q344">
+        <v>0.5</v>
+      </c>
+      <c r="R344">
+        <v>1.825</v>
+      </c>
+      <c r="S344">
+        <v>1.975</v>
+      </c>
+      <c r="T344">
+        <v>2</v>
+      </c>
+      <c r="U344">
+        <v>1.775</v>
+      </c>
+      <c r="V344">
+        <v>2.025</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>7630553</v>
+      </c>
+      <c r="C345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45348.70833333334</v>
+      </c>
+      <c r="F345" t="s">
+        <v>45</v>
+      </c>
+      <c r="G345" t="s">
+        <v>46</v>
+      </c>
+      <c r="K345">
+        <v>2.1</v>
+      </c>
+      <c r="L345">
+        <v>3.1</v>
+      </c>
+      <c r="M345">
+        <v>3.2</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345">
+        <v>3.1</v>
+      </c>
+      <c r="P345">
+        <v>3.4</v>
+      </c>
+      <c r="Q345">
+        <v>-0.25</v>
+      </c>
+      <c r="R345">
+        <v>1.75</v>
+      </c>
+      <c r="S345">
         <v>2.05</v>
       </c>
-      <c r="S340">
-        <v>1.75</v>
-      </c>
-      <c r="T340">
-        <v>2</v>
-      </c>
-      <c r="U340">
+      <c r="T345">
+        <v>2.25</v>
+      </c>
+      <c r="U345">
+        <v>1.95</v>
+      </c>
+      <c r="V345">
+        <v>1.85</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>7630556</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45348.72916666666</v>
+      </c>
+      <c r="F346" t="s">
+        <v>34</v>
+      </c>
+      <c r="G346" t="s">
+        <v>40</v>
+      </c>
+      <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.6</v>
+      </c>
+      <c r="M346">
+        <v>4</v>
+      </c>
+      <c r="N346">
+        <v>1.666</v>
+      </c>
+      <c r="O346">
+        <v>3.6</v>
+      </c>
+      <c r="P346">
+        <v>4.2</v>
+      </c>
+      <c r="Q346">
+        <v>-0.75</v>
+      </c>
+      <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.9</v>
+      </c>
+      <c r="T346">
+        <v>2.5</v>
+      </c>
+      <c r="U346">
+        <v>1.95</v>
+      </c>
+      <c r="V346">
+        <v>1.85</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>7630555</v>
+      </c>
+      <c r="C347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45348.75</v>
+      </c>
+      <c r="F347" t="s">
+        <v>39</v>
+      </c>
+      <c r="G347" t="s">
+        <v>29</v>
+      </c>
+      <c r="K347">
+        <v>1.909</v>
+      </c>
+      <c r="L347">
+        <v>3.5</v>
+      </c>
+      <c r="M347">
+        <v>3.3</v>
+      </c>
+      <c r="N347">
+        <v>2</v>
+      </c>
+      <c r="O347">
+        <v>3.4</v>
+      </c>
+      <c r="P347">
+        <v>3.1</v>
+      </c>
+      <c r="Q347">
+        <v>-0.25</v>
+      </c>
+      <c r="R347">
         <v>1.775</v>
       </c>
-      <c r="V340">
+      <c r="S347">
         <v>2.025</v>
       </c>
-      <c r="W340">
-        <v>0</v>
-      </c>
-      <c r="X340">
-        <v>0</v>
-      </c>
-      <c r="Y340">
-        <v>0</v>
-      </c>
-      <c r="Z340">
-        <v>0</v>
-      </c>
-      <c r="AA340">
+      <c r="T347">
+        <v>2.25</v>
+      </c>
+      <c r="U347">
+        <v>1.8</v>
+      </c>
+      <c r="V347">
+        <v>2</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -109,13 +109,13 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
+    <t>Cortulua</t>
+  </si>
+  <si>
     <t>Atletico Cali FC</t>
   </si>
   <si>
     <t>Patriotas FC</t>
-  </si>
-  <si>
-    <t>Cortulua</t>
   </si>
   <si>
     <t>Leones</t>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6147844</v>
+        <v>6147846</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.65</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="AA4">
-        <v>0.3875</v>
-      </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6147849</v>
+        <v>6147844</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O5">
+        <v>3.1</v>
+      </c>
+      <c r="P5">
         <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6147846</v>
+        <v>6147849</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1011,43 +1011,43 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1056,16 +1056,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.6000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>44975.75</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -2067,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6147143</v>
+        <v>6147141</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,13 +2153,13 @@
         <v>44976.75</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2174,55 +2174,55 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
+        <v>-0.25</v>
+      </c>
+      <c r="R19">
+        <v>2.025</v>
+      </c>
+      <c r="S19">
+        <v>1.775</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>1.3</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>1.025</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
         <v>-0.5</v>
       </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.909</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.925</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6147141</v>
+        <v>6147143</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>44976.75</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2263,37 +2263,37 @@
         <v>3</v>
       </c>
       <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
         <v>3.1</v>
       </c>
-      <c r="N20">
-        <v>2.3</v>
-      </c>
-      <c r="O20">
-        <v>2.9</v>
-      </c>
       <c r="P20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2331,7 +2331,7 @@
         <v>44977.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2601,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2865,7 +2865,7 @@
         <v>44982.75</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -3132,7 +3132,7 @@
         <v>44984.70833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3666,7 +3666,7 @@
         <v>44989.75</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3936,7 +3936,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6147870</v>
+        <v>6147873</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6147873</v>
+        <v>6147870</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4203,7 +4203,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>44993.92013888889</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4467,7 +4467,7 @@
         <v>44994.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
@@ -4823,7 +4823,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147879</v>
+        <v>6147877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N50">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
+        <v>0.825</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
         <v>-0</v>
-      </c>
-      <c r="AB50">
-        <v>0.95</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147882</v>
+        <v>6147879</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,73 +5001,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N51">
+        <v>2.375</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>2.8</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1.75</v>
+      </c>
+      <c r="S51">
         <v>2.05</v>
-      </c>
-      <c r="O51">
-        <v>3.1</v>
-      </c>
-      <c r="P51">
-        <v>3.3</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147877</v>
+        <v>6147882</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O52">
         <v>3.1</v>
       </c>
       <c r="P52">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
         <v>1.975</v>
       </c>
-      <c r="S52">
-        <v>1.825</v>
-      </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5360,7 +5360,7 @@
         <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6069,10 +6069,10 @@
         <v>45006.8125</v>
       </c>
       <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
         <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>45009.83333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>43</v>
@@ -6514,7 +6514,7 @@
         <v>45010.75</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6147893</v>
+        <v>6147898</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,40 +6603,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>51</v>
-      </c>
-      <c r="K69">
-        <v>1.5</v>
-      </c>
-      <c r="L69">
-        <v>4</v>
-      </c>
       <c r="M69">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R69">
         <v>1.775</v>
@@ -6645,34 +6645,34 @@
         <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6147898</v>
+        <v>6147893</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,40 +6692,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6734,34 +6734,34 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7051,7 +7051,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>45019.83680555555</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>45025.9375</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8116,7 +8116,7 @@
         <v>45026.75</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8653,7 +8653,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8917,7 +8917,7 @@
         <v>45032.71875</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N99">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>2.3</v>
       </c>
-      <c r="L100">
-        <v>2.9</v>
-      </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
       <c r="N100">
+        <v>2.875</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>2.4</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.7</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.25</v>
       </c>
-      <c r="O100">
-        <v>2.75</v>
-      </c>
-      <c r="P100">
-        <v>3.3</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>45035.72916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9629,7 +9629,7 @@
         <v>45035.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9807,7 +9807,7 @@
         <v>45036.92013888889</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
         <v>30</v>
@@ -9899,7 +9899,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10433,7 +10433,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -11053,10 +11053,10 @@
         <v>45047.89583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>45048.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6619173</v>
+        <v>6147954</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M123">
+        <v>2.6</v>
+      </c>
+      <c r="N123">
         <v>3.75</v>
       </c>
-      <c r="N123">
+      <c r="O123">
+        <v>2.8</v>
+      </c>
+      <c r="P123">
+        <v>2.05</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
         <v>1.75</v>
       </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
-      <c r="P123">
-        <v>4</v>
-      </c>
-      <c r="Q123">
-        <v>-0.75</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
-      <c r="V123">
-        <v>1.8</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6631252</v>
+        <v>6619169</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
+        <v>2.025</v>
+      </c>
+      <c r="V124">
         <v>1.775</v>
       </c>
-      <c r="V124">
-        <v>2.025</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619169</v>
+        <v>6619173</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,73 +11587,73 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>1.85</v>
+      </c>
+      <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>3.75</v>
+      </c>
+      <c r="N125">
+        <v>1.75</v>
+      </c>
+      <c r="O125">
+        <v>3.5</v>
+      </c>
+      <c r="P125">
+        <v>4</v>
+      </c>
+      <c r="Q125">
+        <v>-0.75</v>
+      </c>
+      <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.825</v>
+      </c>
+      <c r="AB125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125" t="s">
-        <v>51</v>
-      </c>
-      <c r="K125">
-        <v>3.25</v>
-      </c>
-      <c r="L125">
-        <v>3.1</v>
-      </c>
-      <c r="M125">
-        <v>2.1</v>
-      </c>
-      <c r="N125">
-        <v>3</v>
-      </c>
-      <c r="O125">
-        <v>3.25</v>
-      </c>
-      <c r="P125">
-        <v>2.15</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.85</v>
-      </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>2.025</v>
-      </c>
-      <c r="V125">
-        <v>1.775</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>1.15</v>
-      </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.95</v>
-      </c>
-      <c r="AB125">
-        <v>1.025</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6619170</v>
+        <v>6619168</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,13 +11676,13 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11691,43 +11691,43 @@
         <v>50</v>
       </c>
       <c r="K126">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11736,13 +11736,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6147954</v>
+        <v>6619170</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L127">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N127">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O127">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6619168</v>
+        <v>6619171</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>1.952</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6619171</v>
+        <v>6631252</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>45067.70833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12302,7 +12302,7 @@
         <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12655,10 +12655,10 @@
         <v>45071.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12925,7 +12925,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>45075.89583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>36</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45078.75</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
         <v>1.925</v>
       </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
       <c r="T144">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P145">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.925</v>
+      </c>
+      <c r="S145">
         <v>1.875</v>
       </c>
-      <c r="S145">
-        <v>1.925</v>
-      </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13634,10 +13634,10 @@
         <v>45083.83333333334</v>
       </c>
       <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13901,7 +13901,7 @@
         <v>45087.75</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,40 +13990,40 @@
         <v>45088.75</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L152">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O152">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R152">
         <v>1.825</v>
@@ -14035,31 +14035,31 @@
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,40 +14079,40 @@
         <v>45088.75</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N153">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P153">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
         <v>1.825</v>
@@ -14124,31 +14124,31 @@
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
         <v>41</v>
@@ -14260,7 +14260,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6838617</v>
+        <v>6838615</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,40 +14524,40 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N158">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
         <v>2</v>
@@ -14578,22 +14578,22 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6838615</v>
+        <v>6838617</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14613,40 +14613,40 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N159">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R159">
         <v>2</v>
@@ -14667,22 +14667,22 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y159">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,49 +14702,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N160">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
         <v>1.8</v>
       </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.9</v>
@@ -14756,22 +14756,22 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N161">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
         <v>1.9</v>
@@ -14845,22 +14845,22 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y161">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>35</v>
@@ -15058,7 +15058,7 @@
         <v>45135.92013888889</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>41</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
         <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P166">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
         <v>1.95</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.8</v>
-      </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6990717</v>
+        <v>6990716</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L171">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="N171">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O171">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
         <v>1.975</v>
       </c>
-      <c r="S171">
-        <v>1.825</v>
-      </c>
       <c r="T171">
         <v>2</v>
       </c>
       <c r="U171">
+        <v>1.775</v>
+      </c>
+      <c r="V171">
         <v>2.025</v>
       </c>
-      <c r="V171">
-        <v>1.775</v>
-      </c>
       <c r="W171">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
       <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>1.025</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6990716</v>
+        <v>6990715</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L172">
         <v>3.25</v>
       </c>
       <c r="M172">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
+        <v>2.025</v>
+      </c>
+      <c r="V172">
         <v>1.775</v>
       </c>
-      <c r="V172">
-        <v>2.025</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,49 +15859,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M173">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15910,7 +15910,7 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15919,7 +15919,7 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16126,7 +16126,7 @@
         <v>45145.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16218,7 +16218,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,10 +16571,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16586,31 +16586,31 @@
         <v>51</v>
       </c>
       <c r="K181">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M181">
+        <v>6.5</v>
+      </c>
+      <c r="N181">
+        <v>1.363</v>
+      </c>
+      <c r="O181">
         <v>4.333</v>
       </c>
-      <c r="N181">
-        <v>1.65</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T181">
         <v>2.5</v>
@@ -16628,13 +16628,13 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB181">
         <v>0.8</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,49 +16660,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N182">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U182">
         <v>1.8</v>
@@ -16711,19 +16711,19 @@
         <v>2</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,49 +16749,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
+        <v>1.7</v>
+      </c>
+      <c r="L183">
+        <v>3.4</v>
+      </c>
+      <c r="M183">
+        <v>4.333</v>
+      </c>
+      <c r="N183">
+        <v>1.65</v>
+      </c>
+      <c r="O183">
+        <v>3.6</v>
+      </c>
+      <c r="P183">
+        <v>4.333</v>
+      </c>
+      <c r="Q183">
+        <v>-0.75</v>
+      </c>
+      <c r="R183">
         <v>1.85</v>
       </c>
-      <c r="L183">
-        <v>3.25</v>
-      </c>
-      <c r="M183">
-        <v>3.75</v>
-      </c>
-      <c r="N183">
-        <v>1.85</v>
-      </c>
-      <c r="O183">
-        <v>3.25</v>
-      </c>
-      <c r="P183">
-        <v>3.75</v>
-      </c>
-      <c r="Q183">
-        <v>-0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.9</v>
-      </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
         <v>1.8</v>
@@ -16800,19 +16800,19 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -16841,7 +16841,7 @@
         <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17283,7 +17283,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>34</v>
@@ -17372,7 +17372,7 @@
         <v>45157.72916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17817,7 +17817,7 @@
         <v>45160.75</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -17998,7 +17998,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18176,7 +18176,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18796,7 +18796,7 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
         <v>45</v>
@@ -18977,7 +18977,7 @@
         <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19063,7 +19063,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19508,10 +19508,10 @@
         <v>45171.75</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19864,7 +19864,7 @@
         <v>45173.75</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -20042,7 +20042,7 @@
         <v>45174.83680555555</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20401,7 +20401,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20490,7 +20490,7 @@
         <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20665,7 +20665,7 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N231">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P231">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K232">
+        <v>1.5</v>
+      </c>
+      <c r="L232">
+        <v>4.333</v>
+      </c>
+      <c r="M232">
+        <v>6.5</v>
+      </c>
+      <c r="N232">
+        <v>1.615</v>
+      </c>
+      <c r="O232">
+        <v>3.8</v>
+      </c>
+      <c r="P232">
+        <v>5.75</v>
+      </c>
+      <c r="Q232">
+        <v>-1</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
+        <v>1.8</v>
+      </c>
+      <c r="T232">
         <v>2.25</v>
       </c>
-      <c r="L232">
-        <v>3</v>
-      </c>
-      <c r="M232">
-        <v>3</v>
-      </c>
-      <c r="N232">
-        <v>2.4</v>
-      </c>
-      <c r="O232">
-        <v>3.1</v>
-      </c>
-      <c r="P232">
-        <v>3.2</v>
-      </c>
-      <c r="Q232">
-        <v>-0.25</v>
-      </c>
-      <c r="R232">
-        <v>2.05</v>
-      </c>
-      <c r="S232">
-        <v>1.75</v>
-      </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X232">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,76 +21466,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N236">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21543,7 +21543,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21555,76 +21555,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
         <v>49</v>
       </c>
       <c r="K237">
+        <v>2.375</v>
+      </c>
+      <c r="L237">
+        <v>3.1</v>
+      </c>
+      <c r="M237">
+        <v>2.75</v>
+      </c>
+      <c r="N237">
+        <v>3.3</v>
+      </c>
+      <c r="O237">
         <v>2.875</v>
       </c>
-      <c r="L237">
-        <v>2.9</v>
-      </c>
-      <c r="M237">
-        <v>2.3</v>
-      </c>
-      <c r="N237">
-        <v>2.625</v>
-      </c>
-      <c r="O237">
-        <v>3.4</v>
-      </c>
       <c r="P237">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA237">
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
         <v>-0</v>
-      </c>
-      <c r="AB237">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21647,7 +21647,7 @@
         <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22089,7 +22089,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G243" t="s">
         <v>38</v>
@@ -22270,7 +22270,7 @@
         <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,10 +22356,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22371,34 +22371,34 @@
         <v>50</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N246">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P246">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U246">
         <v>1.85</v>
@@ -22407,7 +22407,7 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22416,10 +22416,10 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
         <v>-1</v>
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6990794</v>
+        <v>6990792</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,46 +22445,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K247">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R247">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S247">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
         <v>2.25</v>
@@ -22496,25 +22496,25 @@
         <v>1.95</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA247">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6990788</v>
+        <v>6990794</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,49 +22534,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N248">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
+        <v>1.75</v>
+      </c>
+      <c r="S248">
         <v>2.05</v>
       </c>
-      <c r="S248">
-        <v>1.75</v>
-      </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
         <v>1.85</v>
@@ -22585,25 +22585,25 @@
         <v>1.95</v>
       </c>
       <c r="W248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z248">
+        <v>-1</v>
+      </c>
+      <c r="AA248">
         <v>1.05</v>
       </c>
-      <c r="AA248">
-        <v>-1</v>
-      </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22623,7 +22623,7 @@
         <v>45189.75</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
         <v>34</v>
@@ -22804,7 +22804,7 @@
         <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -23249,7 +23249,7 @@
         <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H256">
         <v>4</v>
@@ -23338,7 +23338,7 @@
         <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23513,7 +23513,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G259" t="s">
         <v>43</v>
@@ -23691,7 +23691,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G261" t="s">
         <v>41</v>
@@ -24047,7 +24047,7 @@
         <v>45202.75</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G265" t="s">
         <v>35</v>
@@ -24228,7 +24228,7 @@
         <v>41</v>
       </c>
       <c r="G267" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,13 +24581,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G271" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -24596,25 +24596,25 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L271">
+        <v>3.2</v>
+      </c>
+      <c r="M271">
+        <v>3.25</v>
+      </c>
+      <c r="N271">
+        <v>4.75</v>
+      </c>
+      <c r="O271">
         <v>3.5</v>
       </c>
-      <c r="M271">
-        <v>4.25</v>
-      </c>
-      <c r="N271">
-        <v>1.75</v>
-      </c>
-      <c r="O271">
-        <v>3.6</v>
-      </c>
       <c r="P271">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
         <v>2</v>
@@ -24623,16 +24623,16 @@
         <v>1.8</v>
       </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W271">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24647,7 +24647,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,13 +24670,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24685,25 +24685,25 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L272">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M272">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N272">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O272">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P272">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q272">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -24712,16 +24712,16 @@
         <v>1.8</v>
       </c>
       <c r="T272">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V272">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,7 +24736,7 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990822</v>
+        <v>6990826</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,55 +25026,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G276" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
         <v>51</v>
       </c>
       <c r="K276">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L276">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M276">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N276">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O276">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R276">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>-1</v>
@@ -25083,19 +25083,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6990824</v>
+        <v>6990825</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L277">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M277">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N277">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O277">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P277">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q277">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R277">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S277">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T277">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X277">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA277">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC277">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6990819</v>
+        <v>6990824</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G278" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
         <v>49</v>
       </c>
       <c r="K278">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L278">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M278">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N278">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P278">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="Q278">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S278">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC278">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990820</v>
+        <v>6990819</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,76 +25293,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>49</v>
+      </c>
+      <c r="K279">
+        <v>3.6</v>
+      </c>
+      <c r="L279">
+        <v>3.25</v>
+      </c>
+      <c r="M279">
+        <v>1.909</v>
+      </c>
+      <c r="N279">
+        <v>5.25</v>
+      </c>
+      <c r="O279">
+        <v>4</v>
+      </c>
+      <c r="P279">
+        <v>1.615</v>
+      </c>
+      <c r="Q279">
         <v>1</v>
       </c>
-      <c r="J279" t="s">
-        <v>50</v>
-      </c>
-      <c r="K279">
-        <v>1.833</v>
-      </c>
-      <c r="L279">
-        <v>3.4</v>
-      </c>
-      <c r="M279">
-        <v>3.75</v>
-      </c>
-      <c r="N279">
-        <v>2</v>
-      </c>
-      <c r="O279">
-        <v>3.6</v>
-      </c>
-      <c r="P279">
-        <v>3.6</v>
-      </c>
-      <c r="Q279">
-        <v>-0.5</v>
-      </c>
       <c r="R279">
+        <v>1.725</v>
+      </c>
+      <c r="S279">
         <v>1.975</v>
-      </c>
-      <c r="S279">
-        <v>1.825</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V279">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990825</v>
+        <v>6990821</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,76 +25382,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G280" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K280">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L280">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M280">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="N280">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O280">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q280">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S280">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T280">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V280">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB280">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6990826</v>
+        <v>6990822</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,56 +25471,56 @@
         <v>45210.71875</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J281" t="s">
         <v>51</v>
       </c>
       <c r="K281">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L281">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N281">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O281">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P281">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q281">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R281">
+        <v>2.025</v>
+      </c>
+      <c r="S281">
+        <v>1.775</v>
+      </c>
+      <c r="T281">
+        <v>2.5</v>
+      </c>
+      <c r="U281">
+        <v>1.925</v>
+      </c>
+      <c r="V281">
         <v>1.875</v>
       </c>
-      <c r="S281">
-        <v>1.925</v>
-      </c>
-      <c r="T281">
-        <v>2.25</v>
-      </c>
-      <c r="U281">
-        <v>1.9</v>
-      </c>
-      <c r="V281">
-        <v>1.9</v>
-      </c>
       <c r="W281">
         <v>-1</v>
       </c>
@@ -25528,19 +25528,19 @@
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z281">
         <v>-1</v>
       </c>
       <c r="AA281">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB281">
         <v>0.925</v>
       </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
       <c r="AC281">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990821</v>
+        <v>6990820</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K282">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L282">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N282">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O282">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P282">
         <v>3.6</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R282">
+        <v>1.975</v>
+      </c>
+      <c r="S282">
+        <v>1.825</v>
+      </c>
+      <c r="T282">
+        <v>2.5</v>
+      </c>
+      <c r="U282">
+        <v>2</v>
+      </c>
+      <c r="V282">
         <v>1.8</v>
       </c>
-      <c r="S282">
-        <v>2</v>
-      </c>
-      <c r="T282">
-        <v>2.25</v>
-      </c>
-      <c r="U282">
-        <v>1.85</v>
-      </c>
-      <c r="V282">
-        <v>1.95</v>
-      </c>
       <c r="W282">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X282">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA282">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC282">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25919,7 +25919,7 @@
         <v>29</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26272,7 +26272,7 @@
         <v>45222.8125</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
         <v>30</v>
@@ -26628,7 +26628,7 @@
         <v>45226.72916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
         <v>41</v>
@@ -27076,7 +27076,7 @@
         <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27432,7 +27432,7 @@
         <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -27607,7 +27607,7 @@
         <v>45241.75</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G305" t="s">
         <v>29</v>
@@ -28052,7 +28052,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G310" t="s">
         <v>43</v>
@@ -28144,7 +28144,7 @@
         <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7630525</v>
+        <v>7630524</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,76 +28408,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G314" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H314">
         <v>2</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K314">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M314">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N314">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O314">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P314">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S314">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T314">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U314">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB314">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC314">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630524</v>
+        <v>7630525</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H316">
         <v>2</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K316">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L316">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M316">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N316">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P316">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q316">
+        <v>-0.75</v>
+      </c>
+      <c r="R316">
+        <v>1.8</v>
+      </c>
+      <c r="S316">
+        <v>2</v>
+      </c>
+      <c r="T316">
+        <v>2.25</v>
+      </c>
+      <c r="U316">
+        <v>1.85</v>
+      </c>
+      <c r="V316">
+        <v>1.95</v>
+      </c>
+      <c r="W316">
+        <v>0.615</v>
+      </c>
+      <c r="X316">
+        <v>-1</v>
+      </c>
+      <c r="Y316">
+        <v>-1</v>
+      </c>
+      <c r="Z316">
+        <v>0.8</v>
+      </c>
+      <c r="AA316">
+        <v>-1</v>
+      </c>
+      <c r="AB316">
         <v>-0.5</v>
       </c>
-      <c r="R316">
-        <v>1.9</v>
-      </c>
-      <c r="S316">
-        <v>1.9</v>
-      </c>
-      <c r="T316">
-        <v>2</v>
-      </c>
-      <c r="U316">
-        <v>1.825</v>
-      </c>
-      <c r="V316">
-        <v>1.975</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
-      <c r="X316">
-        <v>2.4</v>
-      </c>
-      <c r="Y316">
-        <v>-1</v>
-      </c>
-      <c r="Z316">
-        <v>-1</v>
-      </c>
-      <c r="AA316">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB316">
-        <v>0.825</v>
-      </c>
       <c r="AC316">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28853,7 +28853,7 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G319" t="s">
         <v>30</v>
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,73 +29120,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K322">
+        <v>3.25</v>
+      </c>
+      <c r="L322">
+        <v>3</v>
+      </c>
+      <c r="M322">
+        <v>2.3</v>
+      </c>
+      <c r="N322">
         <v>2.1</v>
       </c>
-      <c r="L322">
+      <c r="O322">
         <v>3.2</v>
       </c>
-      <c r="M322">
-        <v>3.6</v>
-      </c>
-      <c r="N322">
-        <v>1.95</v>
-      </c>
-      <c r="O322">
-        <v>3.3</v>
-      </c>
       <c r="P322">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R322">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S322">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V322">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA322">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,73 +29209,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K323">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L323">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N323">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O323">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S323">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T323">
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V323">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W323">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z323">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB323">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29390,7 +29390,7 @@
         <v>34</v>
       </c>
       <c r="G325" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29746,7 +29746,7 @@
         <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,73 +29832,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F330" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G330" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K330">
+        <v>3.6</v>
+      </c>
+      <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>2.1</v>
+      </c>
+      <c r="O330">
+        <v>3.5</v>
+      </c>
+      <c r="P330">
+        <v>3.4</v>
+      </c>
+      <c r="Q330">
+        <v>-0.25</v>
+      </c>
+      <c r="R330">
+        <v>1.825</v>
+      </c>
+      <c r="S330">
+        <v>1.975</v>
+      </c>
+      <c r="T330">
         <v>2.5</v>
       </c>
-      <c r="L330">
-        <v>3.2</v>
-      </c>
-      <c r="M330">
+      <c r="U330">
+        <v>1.8</v>
+      </c>
+      <c r="V330">
+        <v>2</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
         <v>2.5</v>
       </c>
-      <c r="N330">
-        <v>3</v>
-      </c>
-      <c r="O330">
-        <v>3.1</v>
-      </c>
-      <c r="P330">
-        <v>2.15</v>
-      </c>
-      <c r="Q330">
-        <v>0.25</v>
-      </c>
-      <c r="R330">
-        <v>1.85</v>
-      </c>
-      <c r="S330">
-        <v>1.95</v>
-      </c>
-      <c r="T330">
-        <v>2</v>
-      </c>
-      <c r="U330">
-        <v>1.75</v>
-      </c>
-      <c r="V330">
-        <v>2.05</v>
-      </c>
-      <c r="W330">
-        <v>-1</v>
-      </c>
-      <c r="X330">
-        <v>-1</v>
-      </c>
       <c r="Y330">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA330">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB330">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,73 +29921,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G331" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K331">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L331">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M331">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N331">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O331">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P331">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S331">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U331">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V331">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z331">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB331">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G333" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I333">
         <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L333">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N333">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O333">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P333">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S333">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T333">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V333">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA333">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB333">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F334" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G334" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334" t="s">
+        <v>51</v>
+      </c>
+      <c r="K334">
+        <v>2.7</v>
+      </c>
+      <c r="L334">
         <v>3</v>
       </c>
-      <c r="I334">
-        <v>2</v>
-      </c>
-      <c r="J334" t="s">
-        <v>50</v>
-      </c>
-      <c r="K334">
+      <c r="M334">
+        <v>2.45</v>
+      </c>
+      <c r="N334">
+        <v>3</v>
+      </c>
+      <c r="O334">
+        <v>3.1</v>
+      </c>
+      <c r="P334">
+        <v>2.4</v>
+      </c>
+      <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
         <v>1.75</v>
       </c>
-      <c r="L334">
-        <v>3.4</v>
-      </c>
-      <c r="M334">
-        <v>4</v>
-      </c>
-      <c r="N334">
-        <v>1.727</v>
-      </c>
-      <c r="O334">
-        <v>3.8</v>
-      </c>
-      <c r="P334">
-        <v>4.75</v>
-      </c>
-      <c r="Q334">
-        <v>-0.75</v>
-      </c>
-      <c r="R334">
-        <v>1.925</v>
-      </c>
       <c r="S334">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z334">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB334">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30816,6 +30816,15 @@
       <c r="G341" t="s">
         <v>37</v>
       </c>
+      <c r="H341">
+        <v>4</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>50</v>
+      </c>
       <c r="K341">
         <v>1.727</v>
       </c>
@@ -30826,46 +30835,52 @@
         <v>4.5</v>
       </c>
       <c r="N341">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="O341">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P341">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q341">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R341">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S341">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T341">
         <v>2.25</v>
       </c>
       <c r="U341">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V341">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W341">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA341">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB341">
+        <v>0.825</v>
+      </c>
+      <c r="AC341">
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30873,7 +30888,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7630550</v>
+        <v>7630551</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30885,46 +30900,46 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F342" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G342" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K342">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L342">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M342">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N342">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O342">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P342">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q342">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R342">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S342">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T342">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U342">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30947,7 +30962,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7630551</v>
+        <v>7630550</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30959,46 +30974,46 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F343" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G343" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K343">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M343">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N343">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P343">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="Q343">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R343">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S343">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T343">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V343">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -31048,31 +31063,31 @@
         <v>1.8</v>
       </c>
       <c r="N344">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P344">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q344">
         <v>0.5</v>
       </c>
       <c r="R344">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T344">
         <v>2</v>
       </c>
       <c r="U344">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V344">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W344">
         <v>0</v>
@@ -31125,19 +31140,19 @@
         <v>2</v>
       </c>
       <c r="O345">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P345">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q345">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R345">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S345">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T345">
         <v>2.25</v>
@@ -31199,19 +31214,19 @@
         <v>1.666</v>
       </c>
       <c r="O346">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P346">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q346">
         <v>-0.75</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S346">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T346">
         <v>2.5</v>
@@ -31270,13 +31285,13 @@
         <v>3.3</v>
       </c>
       <c r="N347">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O347">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q347">
         <v>-0.25</v>
@@ -31291,10 +31306,10 @@
         <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V347">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W347">
         <v>0</v>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Cortulua</t>
+    <t>Atletico Cali FC</t>
   </si>
   <si>
-    <t>Atletico Cali FC</t>
+    <t>Cortulua</t>
   </si>
   <si>
     <t>Patriotas FC</t>
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6147846</v>
+        <v>6147844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,67 +827,67 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.65</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.6000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
+        <v>0.3875</v>
+      </c>
+      <c r="AB4">
         <v>-0.5</v>
       </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6147844</v>
+        <v>6147846</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,67 +916,67 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.65</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AA5">
         <v>-0.5</v>
       </c>
-      <c r="AA5">
-        <v>0.3875</v>
-      </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>44975.75</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -2067,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>44984.70833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6147862</v>
+        <v>6147861</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>44989.75</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L35">
+        <v>3.3</v>
+      </c>
+      <c r="M35">
+        <v>3.75</v>
+      </c>
+      <c r="N35">
+        <v>2.25</v>
+      </c>
+      <c r="O35">
         <v>3.25</v>
       </c>
-      <c r="M35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>1.666</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
       <c r="P35">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,7 +3628,7 @@
         <v>1.825</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6147861</v>
+        <v>6147862</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,46 +3666,46 @@
         <v>44989.75</v>
       </c>
       <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3717,7 +3717,7 @@
         <v>1.825</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.7250000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -4022,7 +4022,7 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4203,7 +4203,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>44993.92013888889</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147877</v>
+        <v>6147882</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
         <v>3.1</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
+        <v>1.825</v>
+      </c>
+      <c r="S50">
         <v>1.975</v>
       </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147879</v>
+        <v>6147880</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147882</v>
+        <v>6147879</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,73 +5090,73 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N52">
+        <v>2.375</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>2.8</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.75</v>
+      </c>
+      <c r="S52">
         <v>2.05</v>
-      </c>
-      <c r="O52">
-        <v>3.1</v>
-      </c>
-      <c r="P52">
-        <v>3.3</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.825</v>
-      </c>
-      <c r="S52">
-        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6147880</v>
+        <v>6147877</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N53">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
+        <v>1.975</v>
+      </c>
+      <c r="S53">
         <v>1.825</v>
       </c>
-      <c r="S53">
-        <v>1.975</v>
-      </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
         <v>0.825</v>
       </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -6069,10 +6069,10 @@
         <v>45006.8125</v>
       </c>
       <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
         <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>45010.75</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6147898</v>
+        <v>6147893</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,40 +6603,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R69">
         <v>1.775</v>
@@ -6645,34 +6645,34 @@
         <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6147893</v>
+        <v>6147898</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,40 +6692,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>51</v>
-      </c>
-      <c r="K70">
-        <v>1.5</v>
-      </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
       <c r="M70">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6734,34 +6734,34 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7582,7 +7582,7 @@
         <v>45019.83680555555</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7938,7 +7938,7 @@
         <v>45025.9375</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8119,7 +8119,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -8917,7 +8917,7 @@
         <v>45032.71875</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9273,7 +9273,7 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>41</v>
@@ -9451,7 +9451,7 @@
         <v>45035.72916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9629,7 +9629,7 @@
         <v>45035.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10433,7 +10433,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>45048.70833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6147954</v>
+        <v>6619170</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L123">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O123">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6619169</v>
+        <v>6147954</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,13 +11498,13 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -11513,40 +11513,40 @@
         <v>51</v>
       </c>
       <c r="K124">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11555,19 +11555,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619173</v>
+        <v>6619171</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,61 +11587,61 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>1.85</v>
+        <v>1.952</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
         <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q125">
         <v>-0.75</v>
       </c>
       <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
         <v>1.975</v>
       </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
         <v>-1</v>
@@ -11650,13 +11650,13 @@
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6619168</v>
+        <v>6619173</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,73 +11676,73 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>49</v>
+      </c>
+      <c r="K126">
+        <v>1.85</v>
+      </c>
+      <c r="L126">
+        <v>3.4</v>
+      </c>
+      <c r="M126">
+        <v>3.75</v>
+      </c>
+      <c r="N126">
+        <v>1.75</v>
+      </c>
+      <c r="O126">
+        <v>3.5</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>-0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>1.8</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>2.5</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.825</v>
+      </c>
+      <c r="AB126">
         <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>50</v>
-      </c>
-      <c r="K126">
-        <v>1.4</v>
-      </c>
-      <c r="L126">
-        <v>4</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
-      <c r="N126">
-        <v>1.444</v>
-      </c>
-      <c r="O126">
-        <v>4</v>
-      </c>
-      <c r="P126">
-        <v>6.5</v>
-      </c>
-      <c r="Q126">
-        <v>-1.25</v>
-      </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
-      <c r="S126">
-        <v>1.8</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.875</v>
-      </c>
-      <c r="V126">
-        <v>1.925</v>
-      </c>
-      <c r="W126">
-        <v>0.444</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>-0.5</v>
-      </c>
-      <c r="AA126">
-        <v>0.4</v>
-      </c>
-      <c r="AB126">
-        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6619170</v>
+        <v>6631252</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,40 +11765,40 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>49</v>
+      </c>
+      <c r="K127">
+        <v>1.727</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>4.75</v>
+      </c>
+      <c r="N127">
+        <v>2.7</v>
+      </c>
+      <c r="O127">
         <v>3</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>50</v>
-      </c>
-      <c r="K127">
-        <v>1.833</v>
-      </c>
-      <c r="L127">
-        <v>3.1</v>
-      </c>
-      <c r="M127">
-        <v>4.2</v>
-      </c>
-      <c r="N127">
-        <v>1.727</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
       <c r="P127">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R127">
         <v>1.975</v>
@@ -11807,34 +11807,34 @@
         <v>1.825</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6619171</v>
+        <v>6619169</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>1.952</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
         <v>3.1</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6631252</v>
+        <v>6619168</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" t="s">
         <v>31</v>
       </c>
-      <c r="G129" t="s">
-        <v>44</v>
-      </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X129">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>45067.70833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12299,7 +12299,7 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12658,7 +12658,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -13011,10 +13011,10 @@
         <v>45075.89583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45078.75</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
         <v>1.875</v>
       </c>
-      <c r="S144">
-        <v>1.925</v>
-      </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K145">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
         <v>1.925</v>
       </c>
-      <c r="S145">
-        <v>1.875</v>
-      </c>
       <c r="T145">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>45083.83333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>33</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45087.75</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N150">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45087.75</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
+        <v>1.615</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
         <v>1.533</v>
       </c>
-      <c r="L151">
-        <v>3.8</v>
-      </c>
-      <c r="M151">
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
         <v>5.75</v>
       </c>
-      <c r="N151">
-        <v>1.363</v>
-      </c>
-      <c r="O151">
-        <v>4.2</v>
-      </c>
-      <c r="P151">
-        <v>7.5</v>
-      </c>
       <c r="Q151">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.8</v>
+      </c>
+      <c r="AB151">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA151">
-        <v>-1</v>
-      </c>
-      <c r="AB151">
-        <v>-0.5</v>
-      </c>
       <c r="AC151">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,40 +13990,40 @@
         <v>45088.75</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N152">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
         <v>1.825</v>
@@ -14035,31 +14035,31 @@
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,40 +14079,40 @@
         <v>45088.75</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R153">
         <v>1.825</v>
@@ -14124,31 +14124,31 @@
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14524,10 +14524,10 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14794,7 +14794,7 @@
         <v>45</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>45135.92013888889</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>41</v>
@@ -15150,7 +15150,7 @@
         <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15236,7 +15236,7 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15859,7 +15859,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="S174">
-        <v>1.85</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
+        <v>-0.5</v>
+      </c>
+      <c r="AB174">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q175">
         <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16126,7 +16126,7 @@
         <v>45145.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16218,7 +16218,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,49 +16571,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M181">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N181">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O181">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U181">
         <v>1.8</v>
@@ -16622,19 +16622,19 @@
         <v>2</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>0.8</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,49 +16660,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" t="s">
         <v>31</v>
       </c>
-      <c r="G182" t="s">
-        <v>40</v>
-      </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K182">
+        <v>1.7</v>
+      </c>
+      <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
+        <v>4.333</v>
+      </c>
+      <c r="N182">
+        <v>1.65</v>
+      </c>
+      <c r="O182">
+        <v>3.6</v>
+      </c>
+      <c r="P182">
+        <v>4.333</v>
+      </c>
+      <c r="Q182">
+        <v>-0.75</v>
+      </c>
+      <c r="R182">
         <v>1.85</v>
       </c>
-      <c r="L182">
-        <v>3.25</v>
-      </c>
-      <c r="M182">
-        <v>3.75</v>
-      </c>
-      <c r="N182">
-        <v>1.85</v>
-      </c>
-      <c r="O182">
-        <v>3.25</v>
-      </c>
-      <c r="P182">
-        <v>3.75</v>
-      </c>
-      <c r="Q182">
-        <v>-0.5</v>
-      </c>
-      <c r="R182">
-        <v>1.9</v>
-      </c>
       <c r="S182">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
         <v>1.8</v>
@@ -16711,19 +16711,19 @@
         <v>2</v>
       </c>
       <c r="W182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z182">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,10 +16749,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16764,31 +16764,31 @@
         <v>51</v>
       </c>
       <c r="K183">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M183">
+        <v>6.5</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
         <v>4.333</v>
       </c>
-      <c r="N183">
-        <v>1.65</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T183">
         <v>2.5</v>
@@ -16806,13 +16806,13 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,10 +17105,10 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17372,7 +17372,7 @@
         <v>45157.72916666666</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -17817,7 +17817,7 @@
         <v>45160.75</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
         <v>29</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17998,7 +17998,7 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18072,7 +18072,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18084,76 +18084,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
         <v>3</v>
       </c>
       <c r="M198">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N198">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O198">
+        <v>2.9</v>
+      </c>
+      <c r="P198">
         <v>3.1</v>
       </c>
-      <c r="P198">
-        <v>2.8</v>
-      </c>
       <c r="Q198">
         <v>0</v>
       </c>
       <c r="R198">
+        <v>1.775</v>
+      </c>
+      <c r="S198">
+        <v>2.025</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
         <v>1.85</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="T198">
-        <v>2</v>
-      </c>
-      <c r="U198">
-        <v>1.925</v>
-      </c>
-      <c r="V198">
-        <v>1.875</v>
-      </c>
       <c r="W198">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,76 +18173,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L199">
         <v>3</v>
       </c>
       <c r="M199">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N199">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O199">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X199">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
         <v>-0</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18796,7 +18796,7 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>45</v>
@@ -18977,7 +18977,7 @@
         <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19508,10 +19508,10 @@
         <v>45171.75</v>
       </c>
       <c r="F214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" t="s">
         <v>31</v>
-      </c>
-      <c r="G214" t="s">
-        <v>32</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45172.75</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K215">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O215">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
+        <v>1.75</v>
+      </c>
+      <c r="S215">
         <v>1.95</v>
       </c>
-      <c r="S215">
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
         <v>1.85</v>
       </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>1.975</v>
-      </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.75</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K216">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
+        <v>5.25</v>
+      </c>
+      <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
         <v>4</v>
       </c>
-      <c r="N216">
-        <v>1.8</v>
-      </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
       <c r="P216">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45174.83680555555</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20401,7 +20401,7 @@
         <v>41</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20665,7 +20665,7 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4.333</v>
+      </c>
+      <c r="M231">
+        <v>6.5</v>
+      </c>
+      <c r="N231">
+        <v>1.615</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>5.75</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
         <v>2.25</v>
       </c>
-      <c r="L231">
-        <v>3</v>
-      </c>
-      <c r="M231">
-        <v>3</v>
-      </c>
-      <c r="N231">
-        <v>2.4</v>
-      </c>
-      <c r="O231">
-        <v>3.1</v>
-      </c>
-      <c r="P231">
-        <v>3.2</v>
-      </c>
-      <c r="Q231">
-        <v>-0.25</v>
-      </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>1.75</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,76 +21466,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>49</v>
       </c>
       <c r="K236">
+        <v>2.375</v>
+      </c>
+      <c r="L236">
+        <v>3.1</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
+        <v>3.3</v>
+      </c>
+      <c r="O236">
         <v>2.875</v>
       </c>
-      <c r="L236">
-        <v>2.9</v>
-      </c>
-      <c r="M236">
-        <v>2.3</v>
-      </c>
-      <c r="N236">
-        <v>2.625</v>
-      </c>
-      <c r="O236">
-        <v>3.4</v>
-      </c>
       <c r="P236">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA236">
+        <v>-0.5</v>
+      </c>
+      <c r="AB236">
+        <v>0</v>
+      </c>
+      <c r="AC236">
         <v>-0</v>
-      </c>
-      <c r="AB236">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21543,7 +21543,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21555,76 +21555,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L237">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M237">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N237">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O237">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V237">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21647,7 +21647,7 @@
         <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -22270,7 +22270,7 @@
         <v>29</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22534,7 +22534,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G248" t="s">
         <v>40</v>
@@ -22623,7 +22623,7 @@
         <v>45189.75</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
         <v>34</v>
@@ -22804,7 +22804,7 @@
         <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23338,7 +23338,7 @@
         <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23691,7 +23691,7 @@
         <v>45199.72916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
         <v>41</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24047,7 +24047,7 @@
         <v>45202.75</v>
       </c>
       <c r="F265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G265" t="s">
         <v>35</v>
@@ -24406,7 +24406,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24581,7 +24581,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
         <v>33</v>
@@ -24670,7 +24670,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G272" t="s">
         <v>29</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990826</v>
+        <v>6990821</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G276" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K276">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L276">
         <v>3</v>
       </c>
       <c r="M276">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N276">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O276">
         <v>3.1</v>
       </c>
       <c r="P276">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q276">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T276">
         <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y276">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6990825</v>
+        <v>6990826</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,40 +25115,40 @@
         <v>45210.71875</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G277" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K277">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="L277">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N277">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O277">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P277">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q277">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R277">
         <v>1.875</v>
@@ -25157,34 +25157,34 @@
         <v>1.925</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z277">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB277">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6990824</v>
+        <v>6990825</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K278">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L278">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M278">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N278">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O278">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P278">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R278">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S278">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T278">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V278">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X278">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA278">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC278">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990819</v>
+        <v>6990824</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,76 +25293,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G279" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
         <v>49</v>
       </c>
       <c r="K279">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M279">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N279">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P279">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="Q279">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S279">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T279">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC279">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990821</v>
+        <v>6990820</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,76 +25382,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G280" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K280">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N280">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P280">
         <v>3.6</v>
       </c>
       <c r="Q280">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R280">
+        <v>1.975</v>
+      </c>
+      <c r="S280">
+        <v>1.825</v>
+      </c>
+      <c r="T280">
+        <v>2.5</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
+      <c r="V280">
         <v>1.8</v>
       </c>
-      <c r="S280">
-        <v>2</v>
-      </c>
-      <c r="T280">
-        <v>2.25</v>
-      </c>
-      <c r="U280">
-        <v>1.85</v>
-      </c>
-      <c r="V280">
-        <v>1.95</v>
-      </c>
       <c r="W280">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X280">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA280">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC280">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990820</v>
+        <v>6990819</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>49</v>
+      </c>
+      <c r="K282">
+        <v>3.6</v>
+      </c>
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>1.909</v>
+      </c>
+      <c r="N282">
+        <v>5.25</v>
+      </c>
+      <c r="O282">
+        <v>4</v>
+      </c>
+      <c r="P282">
+        <v>1.615</v>
+      </c>
+      <c r="Q282">
         <v>1</v>
       </c>
-      <c r="J282" t="s">
-        <v>50</v>
-      </c>
-      <c r="K282">
-        <v>1.833</v>
-      </c>
-      <c r="L282">
-        <v>3.4</v>
-      </c>
-      <c r="M282">
-        <v>3.75</v>
-      </c>
-      <c r="N282">
-        <v>2</v>
-      </c>
-      <c r="O282">
-        <v>3.6</v>
-      </c>
-      <c r="P282">
-        <v>3.6</v>
-      </c>
-      <c r="Q282">
-        <v>-0.5</v>
-      </c>
       <c r="R282">
+        <v>1.725</v>
+      </c>
+      <c r="S282">
         <v>1.975</v>
-      </c>
-      <c r="S282">
-        <v>1.825</v>
       </c>
       <c r="T282">
         <v>2.5</v>
       </c>
       <c r="U282">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25919,7 +25919,7 @@
         <v>29</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H286">
         <v>2</v>
@@ -26272,7 +26272,7 @@
         <v>45222.8125</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G290" t="s">
         <v>30</v>
@@ -26628,7 +26628,7 @@
         <v>45226.72916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
         <v>41</v>
@@ -27076,7 +27076,7 @@
         <v>41</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27432,7 +27432,7 @@
         <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -27607,7 +27607,7 @@
         <v>45241.75</v>
       </c>
       <c r="F305" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
         <v>29</v>
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630523</v>
+        <v>7630525</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,76 +28497,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G315" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315">
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K315">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L315">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M315">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O315">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P315">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q315">
+        <v>-0.75</v>
+      </c>
+      <c r="R315">
+        <v>1.8</v>
+      </c>
+      <c r="S315">
+        <v>2</v>
+      </c>
+      <c r="T315">
+        <v>2.25</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>1.95</v>
+      </c>
+      <c r="W315">
+        <v>0.615</v>
+      </c>
+      <c r="X315">
+        <v>-1</v>
+      </c>
+      <c r="Y315">
+        <v>-1</v>
+      </c>
+      <c r="Z315">
+        <v>0.8</v>
+      </c>
+      <c r="AA315">
+        <v>-1</v>
+      </c>
+      <c r="AB315">
         <v>-0.5</v>
       </c>
-      <c r="R315">
-        <v>1.975</v>
-      </c>
-      <c r="S315">
-        <v>1.825</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.975</v>
-      </c>
-      <c r="V315">
-        <v>1.825</v>
-      </c>
-      <c r="W315">
-        <v>-1</v>
-      </c>
-      <c r="X315">
-        <v>2.6</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>-1</v>
-      </c>
-      <c r="AA315">
-        <v>0.825</v>
-      </c>
-      <c r="AB315">
-        <v>-1</v>
-      </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K316">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M316">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O316">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P316">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K318">
+        <v>3.2</v>
+      </c>
+      <c r="L318">
+        <v>3.1</v>
+      </c>
+      <c r="M318">
         <v>2.2</v>
       </c>
-      <c r="L318">
-        <v>3</v>
-      </c>
-      <c r="M318">
-        <v>3.2</v>
-      </c>
       <c r="N318">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
+        <v>1.9</v>
+      </c>
+      <c r="S318">
+        <v>1.9</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>1.775</v>
+      </c>
+      <c r="V318">
         <v>2.025</v>
       </c>
-      <c r="S318">
-        <v>1.775</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.975</v>
-      </c>
-      <c r="V318">
-        <v>1.825</v>
-      </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G319" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K319">
+        <v>2.2</v>
+      </c>
+      <c r="L319">
+        <v>3</v>
+      </c>
+      <c r="M319">
         <v>3.2</v>
       </c>
-      <c r="L319">
-        <v>3.1</v>
-      </c>
-      <c r="M319">
+      <c r="N319">
+        <v>2.375</v>
+      </c>
+      <c r="O319">
+        <v>3.2</v>
+      </c>
+      <c r="P319">
+        <v>3.2</v>
+      </c>
+      <c r="Q319">
+        <v>-0.25</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.775</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.975</v>
+      </c>
+      <c r="V319">
+        <v>1.825</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
         <v>2.2</v>
       </c>
-      <c r="N319">
-        <v>3.3</v>
-      </c>
-      <c r="O319">
-        <v>3.25</v>
-      </c>
-      <c r="P319">
-        <v>2.2</v>
-      </c>
-      <c r="Q319">
-        <v>0.25</v>
-      </c>
-      <c r="R319">
-        <v>1.9</v>
-      </c>
-      <c r="S319">
-        <v>1.9</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.775</v>
-      </c>
-      <c r="V319">
-        <v>2.025</v>
-      </c>
-      <c r="W319">
-        <v>-1</v>
-      </c>
-      <c r="X319">
-        <v>-1</v>
-      </c>
       <c r="Y319">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA319">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC319">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,73 +29120,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H322">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L322">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N322">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P322">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V322">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W322">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z322">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB322">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,73 +29209,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K323">
+        <v>3.25</v>
+      </c>
+      <c r="L323">
+        <v>3</v>
+      </c>
+      <c r="M323">
+        <v>2.3</v>
+      </c>
+      <c r="N323">
         <v>2.1</v>
       </c>
-      <c r="L323">
+      <c r="O323">
         <v>3.2</v>
       </c>
-      <c r="M323">
-        <v>3.6</v>
-      </c>
-      <c r="N323">
-        <v>1.95</v>
-      </c>
-      <c r="O323">
-        <v>3.3</v>
-      </c>
       <c r="P323">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S323">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V323">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA323">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29390,7 +29390,7 @@
         <v>34</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -29746,7 +29746,7 @@
         <v>44</v>
       </c>
       <c r="G329" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>51</v>
+      </c>
+      <c r="K333">
+        <v>2.7</v>
+      </c>
+      <c r="L333">
         <v>3</v>
       </c>
-      <c r="I333">
-        <v>2</v>
-      </c>
-      <c r="J333" t="s">
-        <v>50</v>
-      </c>
-      <c r="K333">
+      <c r="M333">
+        <v>2.45</v>
+      </c>
+      <c r="N333">
+        <v>3</v>
+      </c>
+      <c r="O333">
+        <v>3.1</v>
+      </c>
+      <c r="P333">
+        <v>2.4</v>
+      </c>
+      <c r="Q333">
+        <v>0.25</v>
+      </c>
+      <c r="R333">
         <v>1.75</v>
       </c>
-      <c r="L333">
-        <v>3.4</v>
-      </c>
-      <c r="M333">
-        <v>4</v>
-      </c>
-      <c r="N333">
-        <v>1.727</v>
-      </c>
-      <c r="O333">
-        <v>3.8</v>
-      </c>
-      <c r="P333">
-        <v>4.75</v>
-      </c>
-      <c r="Q333">
-        <v>-0.75</v>
-      </c>
-      <c r="R333">
-        <v>1.925</v>
-      </c>
       <c r="S333">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U333">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V333">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W333">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z333">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB333">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F334" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K334">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L334">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M334">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N334">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O334">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P334">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q334">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S334">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA334">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC334">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30814,7 +30814,7 @@
         <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H341">
         <v>4</v>
@@ -30900,11 +30900,20 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G342" t="s">
         <v>41</v>
       </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>3</v>
+      </c>
+      <c r="J342" t="s">
+        <v>51</v>
+      </c>
       <c r="K342">
         <v>4</v>
       </c>
@@ -30915,46 +30924,52 @@
         <v>1.909</v>
       </c>
       <c r="N342">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O342">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P342">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q342">
         <v>0.25</v>
       </c>
       <c r="R342">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S342">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T342">
         <v>2</v>
       </c>
       <c r="U342">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V342">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB342">
+        <v>0.8</v>
+      </c>
+      <c r="AC342">
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30979,6 +30994,15 @@
       <c r="G343" t="s">
         <v>44</v>
       </c>
+      <c r="H343">
+        <v>3</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343" t="s">
+        <v>50</v>
+      </c>
       <c r="K343">
         <v>1.615</v>
       </c>
@@ -30989,13 +31013,13 @@
         <v>5</v>
       </c>
       <c r="N343">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O343">
         <v>4.5</v>
       </c>
       <c r="P343">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q343">
         <v>-1.25</v>
@@ -31016,19 +31040,25 @@
         <v>1.8</v>
       </c>
       <c r="W343">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA343">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB343">
+        <v>1</v>
+      </c>
+      <c r="AC343">
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6147141</v>
+        <v>6147143</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,13 +2153,13 @@
         <v>44976.75</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2174,37 +2174,37 @@
         <v>3</v>
       </c>
       <c r="M19">
+        <v>3.2</v>
+      </c>
+      <c r="N19">
+        <v>1.909</v>
+      </c>
+      <c r="O19">
         <v>3.1</v>
       </c>
-      <c r="N19">
-        <v>2.3</v>
-      </c>
-      <c r="O19">
-        <v>2.9</v>
-      </c>
       <c r="P19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2213,16 +2213,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6147143</v>
+        <v>6147141</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>44976.75</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2263,55 +2263,55 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.775</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.8</v>
+      </c>
+      <c r="W20">
+        <v>1.3</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>1.025</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.8</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>0.909</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.925</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2334,7 +2334,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3580,7 +3580,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6147873</v>
+        <v>6147870</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L40">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6147870</v>
+        <v>6147873</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -5182,7 +5182,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8119,7 +8119,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
         <v>2.3</v>
       </c>
-      <c r="L99">
-        <v>2.9</v>
-      </c>
-      <c r="M99">
-        <v>3.1</v>
-      </c>
       <c r="N99">
+        <v>2.875</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>2.4</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.7</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
         <v>2.25</v>
       </c>
-      <c r="O99">
-        <v>2.75</v>
-      </c>
-      <c r="P99">
-        <v>3.3</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P100">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y100">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11409,10 +11409,10 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
         <v>36</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -12299,7 +12299,7 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13815,7 +13815,7 @@
         <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -14524,7 +14524,7 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>31</v>
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,49 +14702,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
         <v>1.9</v>
@@ -14756,22 +14756,22 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y160">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,49 +14791,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
         <v>1.8</v>
       </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
         <v>1.9</v>
@@ -14845,22 +14845,22 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N165">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
         <v>1.95</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.85</v>
       </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>2</v>
-      </c>
-      <c r="V165">
-        <v>1.8</v>
-      </c>
       <c r="W165">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K166">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L166">
         <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N166">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6990716</v>
+        <v>6990715</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L171">
         <v>3.25</v>
       </c>
       <c r="M171">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
         <v>1.775</v>
       </c>
-      <c r="V171">
-        <v>2.025</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6990715</v>
+        <v>6990716</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>51</v>
+      </c>
+      <c r="K172">
         <v>4</v>
-      </c>
-      <c r="I172">
-        <v>3</v>
-      </c>
-      <c r="J172" t="s">
-        <v>50</v>
-      </c>
-      <c r="K172">
-        <v>1.833</v>
       </c>
       <c r="L172">
         <v>3.25</v>
       </c>
       <c r="M172">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="N172">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.775</v>
+      </c>
+      <c r="V172">
         <v>2.025</v>
       </c>
-      <c r="S172">
-        <v>1.775</v>
-      </c>
-      <c r="T172">
-        <v>2.25</v>
-      </c>
-      <c r="U172">
-        <v>2.025</v>
-      </c>
-      <c r="V172">
-        <v>1.775</v>
-      </c>
       <c r="W172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>1.025</v>
-      </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>1.025</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q175">
         <v>-0.75</v>
       </c>
       <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>1.95</v>
       </c>
-      <c r="S175">
-        <v>1.85</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
-      </c>
-      <c r="V175">
-        <v>1.8</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X175">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA175">
+        <v>-0.5</v>
+      </c>
+      <c r="AB175">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
       <c r="AC175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,49 +16571,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
+        <v>1.7</v>
+      </c>
+      <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>4.333</v>
+      </c>
+      <c r="N181">
+        <v>1.65</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>4.333</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
         <v>1.85</v>
       </c>
-      <c r="L181">
-        <v>3.25</v>
-      </c>
-      <c r="M181">
-        <v>3.75</v>
-      </c>
-      <c r="N181">
-        <v>1.85</v>
-      </c>
-      <c r="O181">
-        <v>3.25</v>
-      </c>
-      <c r="P181">
-        <v>3.75</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.9</v>
-      </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
         <v>1.8</v>
@@ -16622,19 +16622,19 @@
         <v>2</v>
       </c>
       <c r="W181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
         <v>0.8</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,10 +16660,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16675,31 +16675,31 @@
         <v>51</v>
       </c>
       <c r="K182">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M182">
+        <v>6.5</v>
+      </c>
+      <c r="N182">
+        <v>1.363</v>
+      </c>
+      <c r="O182">
         <v>4.333</v>
       </c>
-      <c r="N182">
-        <v>1.65</v>
-      </c>
-      <c r="O182">
-        <v>3.6</v>
-      </c>
       <c r="P182">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T182">
         <v>2.5</v>
@@ -16717,13 +16717,13 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,49 +16749,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>1.8</v>
@@ -16800,19 +16800,19 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18072,7 +18072,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18084,76 +18084,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L198">
         <v>3</v>
       </c>
       <c r="M198">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O198">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
         <v>0</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X198">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
         <v>-0</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,76 +18173,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
         <v>3</v>
       </c>
       <c r="M199">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N199">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O199">
+        <v>2.9</v>
+      </c>
+      <c r="P199">
         <v>3.1</v>
       </c>
-      <c r="P199">
-        <v>2.8</v>
-      </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
         <v>1.85</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>1.875</v>
-      </c>
       <c r="W199">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,76 +18707,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>51</v>
       </c>
       <c r="K205">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+      <c r="N205">
+        <v>2.375</v>
+      </c>
+      <c r="O205">
         <v>3.2</v>
       </c>
-      <c r="M205">
+      <c r="P205">
+        <v>3.2</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>1.8</v>
+      </c>
+      <c r="V205">
+        <v>2</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
         <v>2.2</v>
       </c>
-      <c r="N205">
-        <v>2.4</v>
-      </c>
-      <c r="O205">
-        <v>3.25</v>
-      </c>
-      <c r="P205">
-        <v>3</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>1.7</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>2.025</v>
-      </c>
-      <c r="V205">
-        <v>1.775</v>
-      </c>
-      <c r="W205">
-        <v>-1</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>2</v>
-      </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,55 +18796,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L206">
+        <v>3.2</v>
+      </c>
+      <c r="M206">
+        <v>2.2</v>
+      </c>
+      <c r="N206">
+        <v>2.4</v>
+      </c>
+      <c r="O206">
+        <v>3.25</v>
+      </c>
+      <c r="P206">
         <v>3</v>
       </c>
-      <c r="M206">
-        <v>3</v>
-      </c>
-      <c r="N206">
-        <v>2.375</v>
-      </c>
-      <c r="O206">
-        <v>3.2</v>
-      </c>
-      <c r="P206">
-        <v>3.2</v>
-      </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18853,19 +18853,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,25 +20131,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>51</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L221">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
         <v>3.2</v>
@@ -20158,28 +20158,28 @@
         <v>2.55</v>
       </c>
       <c r="O221">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20188,19 +20188,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,25 +20220,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>51</v>
       </c>
       <c r="K222">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M222">
         <v>3.2</v>
@@ -20247,28 +20247,28 @@
         <v>2.55</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P222">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20277,19 +20277,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N231">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P231">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K232">
+        <v>1.5</v>
+      </c>
+      <c r="L232">
+        <v>4.333</v>
+      </c>
+      <c r="M232">
+        <v>6.5</v>
+      </c>
+      <c r="N232">
+        <v>1.615</v>
+      </c>
+      <c r="O232">
+        <v>3.8</v>
+      </c>
+      <c r="P232">
+        <v>5.75</v>
+      </c>
+      <c r="Q232">
+        <v>-1</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
+        <v>1.8</v>
+      </c>
+      <c r="T232">
         <v>2.25</v>
       </c>
-      <c r="L232">
-        <v>3</v>
-      </c>
-      <c r="M232">
-        <v>3</v>
-      </c>
-      <c r="N232">
-        <v>2.4</v>
-      </c>
-      <c r="O232">
-        <v>3.1</v>
-      </c>
-      <c r="P232">
-        <v>3.2</v>
-      </c>
-      <c r="Q232">
-        <v>-0.25</v>
-      </c>
-      <c r="R232">
-        <v>2.05</v>
-      </c>
-      <c r="S232">
-        <v>1.75</v>
-      </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X232">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990788</v>
+        <v>6990794</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,49 +22356,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K246">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M246">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N246">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O246">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P246">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
+        <v>1.75</v>
+      </c>
+      <c r="S246">
         <v>2.05</v>
       </c>
-      <c r="S246">
-        <v>1.75</v>
-      </c>
       <c r="T246">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U246">
         <v>1.85</v>
@@ -22407,25 +22407,25 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z246">
+        <v>-1</v>
+      </c>
+      <c r="AA246">
         <v>1.05</v>
       </c>
-      <c r="AA246">
-        <v>-1</v>
-      </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6990794</v>
+        <v>6990788</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,49 +22534,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K248">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L248">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248">
+        <v>3</v>
+      </c>
+      <c r="P248">
+        <v>2.5</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
         <v>1.75</v>
       </c>
-      <c r="O248">
-        <v>3.5</v>
-      </c>
-      <c r="P248">
-        <v>5</v>
-      </c>
-      <c r="Q248">
-        <v>-0.5</v>
-      </c>
-      <c r="R248">
-        <v>1.75</v>
-      </c>
-      <c r="S248">
-        <v>2.05</v>
-      </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U248">
         <v>1.85</v>
@@ -22585,25 +22585,25 @@
         <v>1.95</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA248">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,13 +24581,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -24596,25 +24596,25 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L271">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N271">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O271">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P271">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R271">
         <v>2</v>
@@ -24623,16 +24623,16 @@
         <v>1.8</v>
       </c>
       <c r="T271">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24647,7 +24647,7 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,13 +24670,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24685,25 +24685,25 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L272">
+        <v>3.2</v>
+      </c>
+      <c r="M272">
+        <v>3.25</v>
+      </c>
+      <c r="N272">
+        <v>4.75</v>
+      </c>
+      <c r="O272">
         <v>3.5</v>
       </c>
-      <c r="M272">
-        <v>4.25</v>
-      </c>
-      <c r="N272">
-        <v>1.75</v>
-      </c>
-      <c r="O272">
-        <v>3.6</v>
-      </c>
       <c r="P272">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q272">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -24712,16 +24712,16 @@
         <v>1.8</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U272">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V272">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W272">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24736,7 +24736,7 @@
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990821</v>
+        <v>6990819</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G276" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L276">
+        <v>3.25</v>
+      </c>
+      <c r="M276">
+        <v>1.909</v>
+      </c>
+      <c r="N276">
+        <v>5.25</v>
+      </c>
+      <c r="O276">
+        <v>4</v>
+      </c>
+      <c r="P276">
+        <v>1.615</v>
+      </c>
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>1.725</v>
+      </c>
+      <c r="S276">
+        <v>1.975</v>
+      </c>
+      <c r="T276">
+        <v>2.5</v>
+      </c>
+      <c r="U276">
+        <v>1.975</v>
+      </c>
+      <c r="V276">
+        <v>1.825</v>
+      </c>
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
         <v>3</v>
       </c>
-      <c r="M276">
-        <v>3.25</v>
-      </c>
-      <c r="N276">
-        <v>2.2</v>
-      </c>
-      <c r="O276">
-        <v>3.1</v>
-      </c>
-      <c r="P276">
-        <v>3.6</v>
-      </c>
-      <c r="Q276">
-        <v>-0.25</v>
-      </c>
-      <c r="R276">
-        <v>1.8</v>
-      </c>
-      <c r="S276">
-        <v>2</v>
-      </c>
-      <c r="T276">
-        <v>2.25</v>
-      </c>
-      <c r="U276">
-        <v>1.85</v>
-      </c>
-      <c r="V276">
-        <v>1.95</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>2.1</v>
-      </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6990826</v>
+        <v>6990822</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,56 +25115,56 @@
         <v>45210.71875</v>
       </c>
       <c r="F277" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J277" t="s">
         <v>51</v>
       </c>
       <c r="K277">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M277">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N277">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O277">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P277">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q277">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R277">
+        <v>2.025</v>
+      </c>
+      <c r="S277">
+        <v>1.775</v>
+      </c>
+      <c r="T277">
+        <v>2.5</v>
+      </c>
+      <c r="U277">
+        <v>1.925</v>
+      </c>
+      <c r="V277">
         <v>1.875</v>
       </c>
-      <c r="S277">
-        <v>1.925</v>
-      </c>
-      <c r="T277">
-        <v>2.25</v>
-      </c>
-      <c r="U277">
-        <v>1.9</v>
-      </c>
-      <c r="V277">
-        <v>1.9</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
@@ -25172,19 +25172,19 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB277">
         <v>0.925</v>
       </c>
-      <c r="AB277">
-        <v>-1</v>
-      </c>
       <c r="AC277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6990825</v>
+        <v>6990820</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,58 +25204,58 @@
         <v>45210.71875</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
         <v>50</v>
       </c>
       <c r="K278">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L278">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M278">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N278">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O278">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P278">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q278">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T278">
         <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W278">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="X278">
         <v>-1</v>
@@ -25264,13 +25264,13 @@
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990824</v>
+        <v>6990823</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,76 +25293,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G279" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K279">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L279">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
         <v>3.5</v>
       </c>
       <c r="N279">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O279">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P279">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S279">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V279">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC279">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990820</v>
+        <v>6990824</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,76 +25382,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K280">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M280">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N280">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O280">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P280">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q280">
+        <v>-0.25</v>
+      </c>
+      <c r="R280">
+        <v>1.775</v>
+      </c>
+      <c r="S280">
+        <v>2.025</v>
+      </c>
+      <c r="T280">
+        <v>2</v>
+      </c>
+      <c r="U280">
+        <v>1.9</v>
+      </c>
+      <c r="V280">
+        <v>1.9</v>
+      </c>
+      <c r="W280">
+        <v>-1</v>
+      </c>
+      <c r="X280">
+        <v>2</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
         <v>-0.5</v>
       </c>
-      <c r="R280">
-        <v>1.975</v>
-      </c>
-      <c r="S280">
-        <v>1.825</v>
-      </c>
-      <c r="T280">
-        <v>2.5</v>
-      </c>
-      <c r="U280">
-        <v>2</v>
-      </c>
-      <c r="V280">
-        <v>1.8</v>
-      </c>
-      <c r="W280">
-        <v>1</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6990822</v>
+        <v>6990825</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,73 +25471,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K281">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M281">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N281">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O281">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P281">
-        <v>1.727</v>
+        <v>10</v>
       </c>
       <c r="Q281">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R281">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
+        <v>1.875</v>
+      </c>
+      <c r="V281">
         <v>1.925</v>
       </c>
-      <c r="V281">
-        <v>1.875</v>
-      </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA281">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC281">
         <v>-1</v>
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990819</v>
+        <v>6990826</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H282">
         <v>0</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L282">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M282">
+        <v>2.875</v>
+      </c>
+      <c r="N282">
+        <v>4.75</v>
+      </c>
+      <c r="O282">
+        <v>3.1</v>
+      </c>
+      <c r="P282">
         <v>1.909</v>
       </c>
-      <c r="N282">
-        <v>5.25</v>
-      </c>
-      <c r="O282">
-        <v>4</v>
-      </c>
-      <c r="P282">
-        <v>1.615</v>
-      </c>
       <c r="Q282">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R282">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z282">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6990823</v>
+        <v>6990821</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,40 +25649,40 @@
         <v>45210.71875</v>
       </c>
       <c r="F283" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L283">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M283">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N283">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P283">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
         <v>1.8</v>
@@ -25691,34 +25691,34 @@
         <v>2</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U283">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y283">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA283">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB283">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,76 +28497,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315">
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K315">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M315">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N315">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O315">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S315">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630523</v>
+        <v>7630525</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L316">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M316">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N316">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O316">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P316">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q316">
+        <v>-0.75</v>
+      </c>
+      <c r="R316">
+        <v>1.8</v>
+      </c>
+      <c r="S316">
+        <v>2</v>
+      </c>
+      <c r="T316">
+        <v>2.25</v>
+      </c>
+      <c r="U316">
+        <v>1.85</v>
+      </c>
+      <c r="V316">
+        <v>1.95</v>
+      </c>
+      <c r="W316">
+        <v>0.615</v>
+      </c>
+      <c r="X316">
+        <v>-1</v>
+      </c>
+      <c r="Y316">
+        <v>-1</v>
+      </c>
+      <c r="Z316">
+        <v>0.8</v>
+      </c>
+      <c r="AA316">
+        <v>-1</v>
+      </c>
+      <c r="AB316">
         <v>-0.5</v>
       </c>
-      <c r="R316">
-        <v>1.975</v>
-      </c>
-      <c r="S316">
-        <v>1.825</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>1.975</v>
-      </c>
-      <c r="V316">
-        <v>1.825</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
-      <c r="X316">
-        <v>2.6</v>
-      </c>
-      <c r="Y316">
-        <v>-1</v>
-      </c>
-      <c r="Z316">
-        <v>-1</v>
-      </c>
-      <c r="AA316">
-        <v>0.825</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G318" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K318">
+        <v>2.2</v>
+      </c>
+      <c r="L318">
+        <v>3</v>
+      </c>
+      <c r="M318">
         <v>3.2</v>
       </c>
-      <c r="L318">
-        <v>3.1</v>
-      </c>
-      <c r="M318">
+      <c r="N318">
+        <v>2.375</v>
+      </c>
+      <c r="O318">
+        <v>3.2</v>
+      </c>
+      <c r="P318">
+        <v>3.2</v>
+      </c>
+      <c r="Q318">
+        <v>-0.25</v>
+      </c>
+      <c r="R318">
+        <v>2.025</v>
+      </c>
+      <c r="S318">
+        <v>1.775</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>1.975</v>
+      </c>
+      <c r="V318">
+        <v>1.825</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
         <v>2.2</v>
       </c>
-      <c r="N318">
-        <v>3.3</v>
-      </c>
-      <c r="O318">
-        <v>3.25</v>
-      </c>
-      <c r="P318">
-        <v>2.2</v>
-      </c>
-      <c r="Q318">
-        <v>0.25</v>
-      </c>
-      <c r="R318">
-        <v>1.9</v>
-      </c>
-      <c r="S318">
-        <v>1.9</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.775</v>
-      </c>
-      <c r="V318">
-        <v>2.025</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
       <c r="Y318">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC318">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K319">
+        <v>3.2</v>
+      </c>
+      <c r="L319">
+        <v>3.1</v>
+      </c>
+      <c r="M319">
         <v>2.2</v>
       </c>
-      <c r="L319">
-        <v>3</v>
-      </c>
-      <c r="M319">
-        <v>3.2</v>
-      </c>
       <c r="N319">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P319">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q319">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.775</v>
+      </c>
+      <c r="V319">
         <v>2.025</v>
       </c>
-      <c r="S319">
-        <v>1.775</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.975</v>
-      </c>
-      <c r="V319">
-        <v>1.825</v>
-      </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,73 +29120,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K322">
+        <v>3.25</v>
+      </c>
+      <c r="L322">
+        <v>3</v>
+      </c>
+      <c r="M322">
+        <v>2.3</v>
+      </c>
+      <c r="N322">
         <v>2.1</v>
       </c>
-      <c r="L322">
+      <c r="O322">
         <v>3.2</v>
       </c>
-      <c r="M322">
-        <v>3.6</v>
-      </c>
-      <c r="N322">
-        <v>1.95</v>
-      </c>
-      <c r="O322">
-        <v>3.3</v>
-      </c>
       <c r="P322">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R322">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S322">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V322">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA322">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,73 +29209,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K323">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L323">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N323">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O323">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S323">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T323">
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V323">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W323">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z323">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB323">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G333" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I333">
         <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K333">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L333">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M333">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N333">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O333">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P333">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S333">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T333">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V333">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA333">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB333">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F334" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G334" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334" t="s">
+        <v>51</v>
+      </c>
+      <c r="K334">
+        <v>2.7</v>
+      </c>
+      <c r="L334">
         <v>3</v>
       </c>
-      <c r="I334">
-        <v>2</v>
-      </c>
-      <c r="J334" t="s">
-        <v>50</v>
-      </c>
-      <c r="K334">
+      <c r="M334">
+        <v>2.45</v>
+      </c>
+      <c r="N334">
+        <v>3</v>
+      </c>
+      <c r="O334">
+        <v>3.1</v>
+      </c>
+      <c r="P334">
+        <v>2.4</v>
+      </c>
+      <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
         <v>1.75</v>
       </c>
-      <c r="L334">
-        <v>3.4</v>
-      </c>
-      <c r="M334">
-        <v>4</v>
-      </c>
-      <c r="N334">
-        <v>1.727</v>
-      </c>
-      <c r="O334">
-        <v>3.8</v>
-      </c>
-      <c r="P334">
-        <v>4.75</v>
-      </c>
-      <c r="Q334">
-        <v>-0.75</v>
-      </c>
-      <c r="R334">
-        <v>1.925</v>
-      </c>
       <c r="S334">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z334">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB334">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30814,7 +30814,7 @@
         <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H341">
         <v>4</v>
@@ -31093,31 +31093,31 @@
         <v>1.8</v>
       </c>
       <c r="N344">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O344">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q344">
         <v>0.5</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S344">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T344">
         <v>2</v>
       </c>
       <c r="U344">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V344">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
         <v>0</v>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Real San Andres</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6147133</v>
+        <v>6147132</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6147132</v>
+        <v>6147133</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,73 +1355,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6147143</v>
+        <v>6147141</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,13 +2153,13 @@
         <v>44976.75</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2174,55 +2174,55 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
+        <v>-0.25</v>
+      </c>
+      <c r="R19">
+        <v>2.025</v>
+      </c>
+      <c r="S19">
+        <v>1.775</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>1.3</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>1.025</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
         <v>-0.5</v>
       </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.909</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.925</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6147141</v>
+        <v>6147143</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>44976.75</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2263,37 +2263,37 @@
         <v>3</v>
       </c>
       <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>1.909</v>
+      </c>
+      <c r="O20">
         <v>3.1</v>
       </c>
-      <c r="N20">
-        <v>2.3</v>
-      </c>
-      <c r="O20">
-        <v>2.9</v>
-      </c>
       <c r="P20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2334,7 +2334,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6147147</v>
+        <v>6147856</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,58 +2776,58 @@
         <v>44982.75</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,16 +2836,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>-0.5</v>
       </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6147856</v>
+        <v>6147147</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,58 +2865,58 @@
         <v>44982.75</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
       </c>
       <c r="K27">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2925,16 +2925,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>44983.70833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -3046,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6147861</v>
+        <v>6147862</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>44989.75</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
       <c r="K35">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,7 +3628,7 @@
         <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.7250000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6147862</v>
+        <v>6147861</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,46 +3666,46 @@
         <v>44989.75</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2.25</v>
+      </c>
+      <c r="O36">
         <v>3.25</v>
       </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>1.666</v>
-      </c>
-      <c r="O36">
-        <v>3.4</v>
-      </c>
       <c r="P36">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3717,7 +3717,7 @@
         <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>44990.70833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -4111,7 +4111,7 @@
         <v>44993.70833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>42</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6147882</v>
+        <v>6147877</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
         <v>36</v>
       </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
         <v>3.1</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.975</v>
+      </c>
+      <c r="S50">
         <v>1.825</v>
       </c>
-      <c r="S50">
-        <v>1.975</v>
-      </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.825</v>
       </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
       <c r="AB50">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6147880</v>
+        <v>6147882</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,40 +5001,40 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>50</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
         <v>3.1</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5043,16 +5043,16 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5067,10 +5067,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6147879</v>
+        <v>6147880</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N52">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6147877</v>
+        <v>6147879</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>44997.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N53">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O53">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>45004.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -5624,7 +5624,7 @@
         <v>45004.70833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>44</v>
@@ -6161,7 +6161,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6147893</v>
+        <v>6147898</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,40 +6603,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>51</v>
-      </c>
-      <c r="K69">
-        <v>1.5</v>
-      </c>
-      <c r="L69">
-        <v>4</v>
-      </c>
       <c r="M69">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R69">
         <v>1.775</v>
@@ -6645,34 +6645,34 @@
         <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6147898</v>
+        <v>6147893</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,40 +6692,40 @@
         <v>45011.70833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6734,34 +6734,34 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>45018.70833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>42</v>
@@ -7760,7 +7760,7 @@
         <v>45025.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -8119,7 +8119,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>45032.70833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6147924</v>
+        <v>6147930</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N99">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6147930</v>
+        <v>6147924</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45035.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>2.3</v>
       </c>
-      <c r="L100">
-        <v>2.9</v>
-      </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
       <c r="N100">
+        <v>2.875</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>2.4</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.7</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
         <v>2.25</v>
       </c>
-      <c r="O100">
-        <v>2.75</v>
-      </c>
-      <c r="P100">
-        <v>3.3</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -9985,7 +9985,7 @@
         <v>45039.70833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10077,7 +10077,7 @@
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10878,7 +10878,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11231,7 +11231,7 @@
         <v>45052.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6619170</v>
+        <v>6147954</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45059.75</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M123">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N123">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P123">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
+        <v>1.75</v>
+      </c>
+      <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.85</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
       <c r="W123">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6147954</v>
+        <v>6619168</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,40 +11498,40 @@
         <v>45059.75</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="O124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11540,34 +11540,34 @@
         <v>1.8</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB124">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6619171</v>
+        <v>6619169</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45059.75</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>1.952</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
         <v>3.1</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
         <v>1.95</v>
       </c>
-      <c r="S125">
-        <v>1.85</v>
-      </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6619173</v>
+        <v>6619170</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,37 +11676,37 @@
         <v>45059.75</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
         <v>-0.75</v>
@@ -11718,31 +11718,31 @@
         <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X126">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6631252</v>
+        <v>6619171</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45059.75</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>49</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>1.952</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P127">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
+        <v>2</v>
+      </c>
+      <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="S127">
-        <v>1.825</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
-      <c r="U127">
-        <v>1.775</v>
-      </c>
-      <c r="V127">
-        <v>2.025</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
         <v>-0</v>
-      </c>
-      <c r="AB127">
-        <v>-1</v>
-      </c>
-      <c r="AC127">
-        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6619169</v>
+        <v>6619173</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,73 +11854,73 @@
         <v>45059.75</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>49</v>
+      </c>
+      <c r="K128">
+        <v>1.85</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>3.75</v>
+      </c>
+      <c r="N128">
+        <v>1.75</v>
+      </c>
+      <c r="O128">
+        <v>3.5</v>
+      </c>
+      <c r="P128">
+        <v>4</v>
+      </c>
+      <c r="Q128">
+        <v>-0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.825</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>1.8</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>2.5</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.825</v>
+      </c>
+      <c r="AB128">
         <v>1</v>
-      </c>
-      <c r="I128">
-        <v>2</v>
-      </c>
-      <c r="J128" t="s">
-        <v>51</v>
-      </c>
-      <c r="K128">
-        <v>3.25</v>
-      </c>
-      <c r="L128">
-        <v>3.1</v>
-      </c>
-      <c r="M128">
-        <v>2.1</v>
-      </c>
-      <c r="N128">
-        <v>3</v>
-      </c>
-      <c r="O128">
-        <v>3.25</v>
-      </c>
-      <c r="P128">
-        <v>2.15</v>
-      </c>
-      <c r="Q128">
-        <v>0.25</v>
-      </c>
-      <c r="R128">
-        <v>1.85</v>
-      </c>
-      <c r="S128">
-        <v>1.95</v>
-      </c>
-      <c r="T128">
-        <v>2.25</v>
-      </c>
-      <c r="U128">
-        <v>2.025</v>
-      </c>
-      <c r="V128">
-        <v>1.775</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>1.15</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>0.95</v>
-      </c>
-      <c r="AB128">
-        <v>1.025</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6619168</v>
+        <v>6631252</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45059.75</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>45067.72916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -12569,7 +12569,7 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>45078.75</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13723,7 +13723,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45087.75</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K150">
+        <v>1.615</v>
+      </c>
+      <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
         <v>1.533</v>
       </c>
-      <c r="L150">
-        <v>3.8</v>
-      </c>
-      <c r="M150">
+      <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
         <v>5.75</v>
       </c>
-      <c r="N150">
-        <v>1.363</v>
-      </c>
-      <c r="O150">
-        <v>4.2</v>
-      </c>
-      <c r="P150">
-        <v>7.5</v>
-      </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.8</v>
+      </c>
+      <c r="AB150">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
-      <c r="AB150">
-        <v>-0.5</v>
-      </c>
       <c r="AC150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45087.75</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N151">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14524,7 +14524,7 @@
         <v>45129.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>31</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
         <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P166">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
         <v>1.95</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.8</v>
-      </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6883106</v>
+        <v>6883103</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M167">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P167">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6883103</v>
+        <v>6883106</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N168">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6990716</v>
+        <v>6990717</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M172">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
         <v>1.825</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
+        <v>2.025</v>
+      </c>
+      <c r="V172">
         <v>1.775</v>
       </c>
-      <c r="V172">
-        <v>2.025</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6990717</v>
+        <v>6990716</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="N173">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173">
+        <v>1.775</v>
+      </c>
+      <c r="V173">
         <v>2.025</v>
       </c>
-      <c r="V173">
-        <v>1.775</v>
-      </c>
       <c r="W173">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
       <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>1.025</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="S174">
-        <v>1.85</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>2</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
+        <v>-0.5</v>
+      </c>
+      <c r="AB174">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N175">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q175">
         <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,49 +16660,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N182">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U182">
         <v>1.8</v>
@@ -16711,19 +16711,19 @@
         <v>2</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>0.8</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6990725</v>
+        <v>6990726</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,49 +16749,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
         <v>1.8</v>
@@ -16800,19 +16800,19 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB183">
         <v>0.8</v>
@@ -17019,7 +17019,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17909,7 +17909,7 @@
         <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18529,7 +18529,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,55 +18707,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
         <v>1</v>
-      </c>
-      <c r="I205">
-        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>51</v>
       </c>
       <c r="K205">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L205">
+        <v>3.2</v>
+      </c>
+      <c r="M205">
+        <v>2.2</v>
+      </c>
+      <c r="N205">
+        <v>2.4</v>
+      </c>
+      <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
         <v>3</v>
       </c>
-      <c r="M205">
-        <v>3</v>
-      </c>
-      <c r="N205">
-        <v>2.375</v>
-      </c>
-      <c r="O205">
-        <v>3.2</v>
-      </c>
-      <c r="P205">
-        <v>3.2</v>
-      </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T205">
         <v>2</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18764,19 +18764,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>2.375</v>
+      </c>
+      <c r="O206">
         <v>3.2</v>
       </c>
-      <c r="M206">
+      <c r="P206">
+        <v>3.2</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.8</v>
+      </c>
+      <c r="V206">
+        <v>2</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
         <v>2.2</v>
       </c>
-      <c r="N206">
-        <v>2.4</v>
-      </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
-      <c r="P206">
-        <v>3</v>
-      </c>
-      <c r="Q206">
-        <v>0</v>
-      </c>
-      <c r="R206">
-        <v>1.7</v>
-      </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>2</v>
-      </c>
-      <c r="U206">
-        <v>2.025</v>
-      </c>
-      <c r="V206">
-        <v>1.775</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>2</v>
-      </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19333,7 +19333,7 @@
         <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,76 +19597,76 @@
         <v>45172.75</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
+        <v>5.25</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
         <v>4</v>
       </c>
-      <c r="N215">
-        <v>1.8</v>
-      </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
       <c r="P215">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,76 +19686,76 @@
         <v>45172.75</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K216">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N216">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
+        <v>1.75</v>
+      </c>
+      <c r="S216">
         <v>1.95</v>
       </c>
-      <c r="S216">
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
         <v>1.85</v>
       </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
-      <c r="U216">
-        <v>1.975</v>
-      </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19956,7 +19956,7 @@
         <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4.333</v>
+      </c>
+      <c r="M231">
+        <v>6.5</v>
+      </c>
+      <c r="N231">
+        <v>1.615</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>5.75</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
         <v>2.25</v>
       </c>
-      <c r="L231">
-        <v>3</v>
-      </c>
-      <c r="M231">
-        <v>3</v>
-      </c>
-      <c r="N231">
-        <v>2.4</v>
-      </c>
-      <c r="O231">
-        <v>3.1</v>
-      </c>
-      <c r="P231">
-        <v>3.2</v>
-      </c>
-      <c r="Q231">
-        <v>-0.25</v>
-      </c>
-      <c r="R231">
-        <v>2.05</v>
-      </c>
-      <c r="S231">
-        <v>1.75</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21380,7 +21380,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,76 +21466,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N236">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21543,7 +21543,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21555,76 +21555,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
         <v>49</v>
       </c>
       <c r="K237">
+        <v>2.375</v>
+      </c>
+      <c r="L237">
+        <v>3.1</v>
+      </c>
+      <c r="M237">
+        <v>2.75</v>
+      </c>
+      <c r="N237">
+        <v>3.3</v>
+      </c>
+      <c r="O237">
         <v>2.875</v>
       </c>
-      <c r="L237">
-        <v>2.9</v>
-      </c>
-      <c r="M237">
-        <v>2.3</v>
-      </c>
-      <c r="N237">
-        <v>2.625</v>
-      </c>
-      <c r="O237">
-        <v>3.4</v>
-      </c>
       <c r="P237">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA237">
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
         <v>-0</v>
-      </c>
-      <c r="AB237">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6990794</v>
+        <v>6990792</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,46 +22356,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O246">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R246">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22407,25 +22407,25 @@
         <v>1.95</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA246">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB246">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,10 +22445,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22460,34 +22460,34 @@
         <v>50</v>
       </c>
       <c r="K247">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N247">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U247">
         <v>1.85</v>
@@ -22496,7 +22496,7 @@
         <v>1.95</v>
       </c>
       <c r="W247">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22505,10 +22505,10 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
         <v>-1</v>
@@ -22522,7 +22522,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6990788</v>
+        <v>6990794</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22534,49 +22534,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N248">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
+        <v>1.75</v>
+      </c>
+      <c r="S248">
         <v>2.05</v>
       </c>
-      <c r="S248">
-        <v>1.75</v>
-      </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
         <v>1.85</v>
@@ -22585,25 +22585,25 @@
         <v>1.95</v>
       </c>
       <c r="W248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z248">
+        <v>-1</v>
+      </c>
+      <c r="AA248">
         <v>1.05</v>
       </c>
-      <c r="AA248">
-        <v>-1</v>
-      </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22893,7 +22893,7 @@
         <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -23780,7 +23780,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24581,7 +24581,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6990819</v>
+        <v>6990826</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F276" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K276">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L276">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M276">
+        <v>2.875</v>
+      </c>
+      <c r="N276">
+        <v>4.75</v>
+      </c>
+      <c r="O276">
+        <v>3.1</v>
+      </c>
+      <c r="P276">
         <v>1.909</v>
       </c>
-      <c r="N276">
-        <v>5.25</v>
-      </c>
-      <c r="O276">
-        <v>4</v>
-      </c>
-      <c r="P276">
-        <v>1.615</v>
-      </c>
       <c r="Q276">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R276">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z276">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6990823</v>
+        <v>6990825</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,73 +25293,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F279" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K279">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L279">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M279">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N279">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="O279">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P279">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R279">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S279">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V279">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6990824</v>
+        <v>6990821</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,10 +25382,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G280" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -25397,46 +25397,46 @@
         <v>49</v>
       </c>
       <c r="K280">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L280">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M280">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N280">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O280">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S280">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T280">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
@@ -25445,13 +25445,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA280">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB280">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC280">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6990825</v>
+        <v>6990823</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,73 +25471,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L281">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N281">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O281">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P281">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q281">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S281">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
+        <v>1.825</v>
+      </c>
+      <c r="V281">
+        <v>1.975</v>
+      </c>
+      <c r="W281">
+        <v>-1</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
         <v>1.875</v>
       </c>
-      <c r="V281">
-        <v>1.925</v>
-      </c>
-      <c r="W281">
-        <v>0.3</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
       <c r="Z281">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB281">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC281">
         <v>-1</v>
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6990826</v>
+        <v>6990819</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H282">
         <v>0</v>
       </c>
       <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>49</v>
+      </c>
+      <c r="K282">
+        <v>3.6</v>
+      </c>
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>1.909</v>
+      </c>
+      <c r="N282">
+        <v>5.25</v>
+      </c>
+      <c r="O282">
+        <v>4</v>
+      </c>
+      <c r="P282">
+        <v>1.615</v>
+      </c>
+      <c r="Q282">
         <v>1</v>
       </c>
-      <c r="J282" t="s">
-        <v>51</v>
-      </c>
-      <c r="K282">
-        <v>2.375</v>
-      </c>
-      <c r="L282">
+      <c r="R282">
+        <v>1.725</v>
+      </c>
+      <c r="S282">
+        <v>1.975</v>
+      </c>
+      <c r="T282">
+        <v>2.5</v>
+      </c>
+      <c r="U282">
+        <v>1.975</v>
+      </c>
+      <c r="V282">
+        <v>1.825</v>
+      </c>
+      <c r="W282">
+        <v>-1</v>
+      </c>
+      <c r="X282">
         <v>3</v>
       </c>
-      <c r="M282">
-        <v>2.875</v>
-      </c>
-      <c r="N282">
-        <v>4.75</v>
-      </c>
-      <c r="O282">
-        <v>3.1</v>
-      </c>
-      <c r="P282">
-        <v>1.909</v>
-      </c>
-      <c r="Q282">
-        <v>0.5</v>
-      </c>
-      <c r="R282">
-        <v>1.875</v>
-      </c>
-      <c r="S282">
-        <v>1.925</v>
-      </c>
-      <c r="T282">
-        <v>2.25</v>
-      </c>
-      <c r="U282">
-        <v>1.9</v>
-      </c>
-      <c r="V282">
-        <v>1.9</v>
-      </c>
-      <c r="W282">
-        <v>-1</v>
-      </c>
-      <c r="X282">
-        <v>-1</v>
-      </c>
       <c r="Y282">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA282">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6990821</v>
+        <v>6990824</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,10 +25649,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25664,46 +25664,46 @@
         <v>49</v>
       </c>
       <c r="K283">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L283">
+        <v>2.9</v>
+      </c>
+      <c r="M283">
+        <v>3.5</v>
+      </c>
+      <c r="N283">
+        <v>2.1</v>
+      </c>
+      <c r="O283">
         <v>3</v>
       </c>
-      <c r="M283">
-        <v>3.25</v>
-      </c>
-      <c r="N283">
-        <v>2.2</v>
-      </c>
-      <c r="O283">
-        <v>3.1</v>
-      </c>
       <c r="P283">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S283">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -25712,13 +25712,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA283">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB283">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC283">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7630524</v>
+        <v>7630525</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,76 +28408,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F314" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H314">
         <v>2</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K314">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L314">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M314">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N314">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O314">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q314">
+        <v>-0.75</v>
+      </c>
+      <c r="R314">
+        <v>1.8</v>
+      </c>
+      <c r="S314">
+        <v>2</v>
+      </c>
+      <c r="T314">
+        <v>2.25</v>
+      </c>
+      <c r="U314">
+        <v>1.85</v>
+      </c>
+      <c r="V314">
+        <v>1.95</v>
+      </c>
+      <c r="W314">
+        <v>0.615</v>
+      </c>
+      <c r="X314">
+        <v>-1</v>
+      </c>
+      <c r="Y314">
+        <v>-1</v>
+      </c>
+      <c r="Z314">
+        <v>0.8</v>
+      </c>
+      <c r="AA314">
+        <v>-1</v>
+      </c>
+      <c r="AB314">
         <v>-0.5</v>
       </c>
-      <c r="R314">
-        <v>1.9</v>
-      </c>
-      <c r="S314">
-        <v>1.9</v>
-      </c>
-      <c r="T314">
-        <v>2</v>
-      </c>
-      <c r="U314">
-        <v>1.825</v>
-      </c>
-      <c r="V314">
-        <v>1.975</v>
-      </c>
-      <c r="W314">
-        <v>-1</v>
-      </c>
-      <c r="X314">
-        <v>2.4</v>
-      </c>
-      <c r="Y314">
-        <v>-1</v>
-      </c>
-      <c r="Z314">
-        <v>-1</v>
-      </c>
-      <c r="AA314">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB314">
-        <v>0.825</v>
-      </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,61 +28497,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G315" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>49</v>
       </c>
       <c r="K315">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L315">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M315">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O315">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P315">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q315">
         <v>-0.5</v>
       </c>
       <c r="R315">
+        <v>1.9</v>
+      </c>
+      <c r="S315">
+        <v>1.9</v>
+      </c>
+      <c r="T315">
+        <v>2</v>
+      </c>
+      <c r="U315">
+        <v>1.825</v>
+      </c>
+      <c r="V315">
         <v>1.975</v>
       </c>
-      <c r="S315">
-        <v>1.825</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.975</v>
-      </c>
-      <c r="V315">
-        <v>1.825</v>
-      </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y315">
         <v>-1</v>
@@ -28560,13 +28560,13 @@
         <v>-1</v>
       </c>
       <c r="AA315">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB315">
         <v>0.825</v>
       </c>
-      <c r="AB315">
-        <v>-1</v>
-      </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,76 +28586,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F316" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K316">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M316">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O316">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P316">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K318">
+        <v>3.2</v>
+      </c>
+      <c r="L318">
+        <v>3.1</v>
+      </c>
+      <c r="M318">
         <v>2.2</v>
       </c>
-      <c r="L318">
-        <v>3</v>
-      </c>
-      <c r="M318">
-        <v>3.2</v>
-      </c>
       <c r="N318">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
+        <v>1.9</v>
+      </c>
+      <c r="S318">
+        <v>1.9</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>1.775</v>
+      </c>
+      <c r="V318">
         <v>2.025</v>
       </c>
-      <c r="S318">
-        <v>1.775</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.975</v>
-      </c>
-      <c r="V318">
-        <v>1.825</v>
-      </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G319" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K319">
+        <v>2.2</v>
+      </c>
+      <c r="L319">
+        <v>3</v>
+      </c>
+      <c r="M319">
         <v>3.2</v>
       </c>
-      <c r="L319">
-        <v>3.1</v>
-      </c>
-      <c r="M319">
+      <c r="N319">
+        <v>2.375</v>
+      </c>
+      <c r="O319">
+        <v>3.2</v>
+      </c>
+      <c r="P319">
+        <v>3.2</v>
+      </c>
+      <c r="Q319">
+        <v>-0.25</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.775</v>
+      </c>
+      <c r="T319">
+        <v>2</v>
+      </c>
+      <c r="U319">
+        <v>1.975</v>
+      </c>
+      <c r="V319">
+        <v>1.825</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
         <v>2.2</v>
       </c>
-      <c r="N319">
-        <v>3.3</v>
-      </c>
-      <c r="O319">
-        <v>3.25</v>
-      </c>
-      <c r="P319">
-        <v>2.2</v>
-      </c>
-      <c r="Q319">
-        <v>0.25</v>
-      </c>
-      <c r="R319">
-        <v>1.9</v>
-      </c>
-      <c r="S319">
-        <v>1.9</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.775</v>
-      </c>
-      <c r="V319">
-        <v>2.025</v>
-      </c>
-      <c r="W319">
-        <v>-1</v>
-      </c>
-      <c r="X319">
-        <v>-1</v>
-      </c>
       <c r="Y319">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA319">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC319">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,73 +29120,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H322">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I322">
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L322">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N322">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P322">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V322">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W322">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z322">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB322">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,73 +29209,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I323">
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K323">
+        <v>3.25</v>
+      </c>
+      <c r="L323">
+        <v>3</v>
+      </c>
+      <c r="M323">
+        <v>2.3</v>
+      </c>
+      <c r="N323">
         <v>2.1</v>
       </c>
-      <c r="L323">
+      <c r="O323">
         <v>3.2</v>
       </c>
-      <c r="M323">
-        <v>3.6</v>
-      </c>
-      <c r="N323">
-        <v>1.95</v>
-      </c>
-      <c r="O323">
-        <v>3.3</v>
-      </c>
       <c r="P323">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S323">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V323">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA323">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29654,7 +29654,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G328" t="s">
         <v>40</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,73 +29832,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F330" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K330">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M330">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N330">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P330">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,73 +29921,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G331" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K331">
+        <v>3.6</v>
+      </c>
+      <c r="L331">
+        <v>3.5</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>2.1</v>
+      </c>
+      <c r="O331">
+        <v>3.5</v>
+      </c>
+      <c r="P331">
+        <v>3.4</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.825</v>
+      </c>
+      <c r="S331">
+        <v>1.975</v>
+      </c>
+      <c r="T331">
         <v>2.5</v>
       </c>
-      <c r="L331">
-        <v>3.2</v>
-      </c>
-      <c r="M331">
+      <c r="U331">
+        <v>1.8</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>-1</v>
+      </c>
+      <c r="X331">
         <v>2.5</v>
       </c>
-      <c r="N331">
-        <v>3</v>
-      </c>
-      <c r="O331">
-        <v>3.1</v>
-      </c>
-      <c r="P331">
-        <v>2.15</v>
-      </c>
-      <c r="Q331">
-        <v>0.25</v>
-      </c>
-      <c r="R331">
-        <v>1.85</v>
-      </c>
-      <c r="S331">
-        <v>1.95</v>
-      </c>
-      <c r="T331">
-        <v>2</v>
-      </c>
-      <c r="U331">
-        <v>1.75</v>
-      </c>
-      <c r="V331">
-        <v>2.05</v>
-      </c>
-      <c r="W331">
-        <v>-1</v>
-      </c>
-      <c r="X331">
-        <v>-1</v>
-      </c>
       <c r="Y331">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB331">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30087,7 +30087,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30099,76 +30099,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>51</v>
+      </c>
+      <c r="K333">
+        <v>2.7</v>
+      </c>
+      <c r="L333">
         <v>3</v>
       </c>
-      <c r="I333">
-        <v>2</v>
-      </c>
-      <c r="J333" t="s">
-        <v>50</v>
-      </c>
-      <c r="K333">
+      <c r="M333">
+        <v>2.45</v>
+      </c>
+      <c r="N333">
+        <v>3</v>
+      </c>
+      <c r="O333">
+        <v>3.1</v>
+      </c>
+      <c r="P333">
+        <v>2.4</v>
+      </c>
+      <c r="Q333">
+        <v>0.25</v>
+      </c>
+      <c r="R333">
         <v>1.75</v>
       </c>
-      <c r="L333">
-        <v>3.4</v>
-      </c>
-      <c r="M333">
-        <v>4</v>
-      </c>
-      <c r="N333">
-        <v>1.727</v>
-      </c>
-      <c r="O333">
-        <v>3.8</v>
-      </c>
-      <c r="P333">
-        <v>4.75</v>
-      </c>
-      <c r="Q333">
-        <v>-0.75</v>
-      </c>
-      <c r="R333">
-        <v>1.925</v>
-      </c>
       <c r="S333">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U333">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V333">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W333">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z333">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB333">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC333">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F334" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K334">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L334">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M334">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N334">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O334">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P334">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q334">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S334">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA334">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC334">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30814,7 +30814,7 @@
         <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H341">
         <v>4</v>
@@ -31083,6 +31083,15 @@
       <c r="G344" t="s">
         <v>30</v>
       </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344" t="s">
+        <v>51</v>
+      </c>
       <c r="K344">
         <v>4</v>
       </c>
@@ -31105,34 +31114,40 @@
         <v>0.5</v>
       </c>
       <c r="R344">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S344">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T344">
         <v>2</v>
       </c>
       <c r="U344">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+      <c r="AC344">
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31315,7 +31330,7 @@
         <v>3.3</v>
       </c>
       <c r="N347">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O347">
         <v>3.5</v>
@@ -31336,10 +31351,10 @@
         <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W347">
         <v>0</v>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -145,10 +145,10 @@
     <t>Atletico Cali FC</t>
   </si>
   <si>
-    <t>Barranquilla FC</t>
+    <t>Bogota FC</t>
   </si>
   <si>
-    <t>Bogota FC</t>
+    <t>Barranquilla FC</t>
   </si>
   <si>
     <t>Leones</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,76 +1174,76 @@
         <v>45087.75</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N8">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,76 +1263,76 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9">
+        <v>1.615</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
         <v>1.533</v>
       </c>
-      <c r="L9">
-        <v>3.8</v>
-      </c>
-      <c r="M9">
+      <c r="O9">
+        <v>3.6</v>
+      </c>
+      <c r="P9">
         <v>5.75</v>
       </c>
-      <c r="N9">
-        <v>1.363</v>
-      </c>
-      <c r="O9">
-        <v>4.2</v>
-      </c>
-      <c r="P9">
-        <v>7.5</v>
-      </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>0.8</v>
+      </c>
+      <c r="AB9">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2067,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
         <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>1.825</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
       <c r="W23">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>3.4</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6883103</v>
+        <v>6883106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,73 +2690,73 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O25">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X25">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6883106</v>
+        <v>6883103</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,73 +2779,73 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6990716</v>
+        <v>6990715</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
         <v>3.25</v>
       </c>
       <c r="M29">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
+        <v>2.025</v>
+      </c>
+      <c r="V29">
         <v>1.775</v>
       </c>
-      <c r="V29">
-        <v>2.025</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,49 +3132,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>51</v>
       </c>
       <c r="K30">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M30">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U30">
         <v>2.025</v>
@@ -3183,7 +3183,7 @@
         <v>1.775</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3192,7 +3192,7 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6990717</v>
+        <v>6990716</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="N31">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
       <c r="T31">
         <v>2</v>
       </c>
       <c r="U31">
+        <v>1.775</v>
+      </c>
+      <c r="V31">
         <v>2.025</v>
       </c>
-      <c r="V31">
-        <v>1.775</v>
-      </c>
       <c r="W31">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>1.025</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
         <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.85</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
-      <c r="V33">
-        <v>1.8</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA33">
+        <v>-0.5</v>
+      </c>
+      <c r="AB33">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3491,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,49 +3933,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>1.7</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>4.333</v>
+      </c>
+      <c r="N39">
+        <v>1.65</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>4.333</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.85</v>
       </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.85</v>
-      </c>
-      <c r="O39">
-        <v>3.25</v>
-      </c>
-      <c r="P39">
-        <v>3.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3984,19 +3984,19 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6990727</v>
+        <v>6990725</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,49 +4022,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N40">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>1.8</v>
@@ -4073,19 +4073,19 @@
         <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>0.8</v>
@@ -4114,7 +4114,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4556,7 +4556,7 @@
         <v>45156.83333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4915,7 +4915,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5182,7 +5182,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N56">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
+        <v>2.9</v>
+      </c>
+      <c r="P56">
         <v>3.1</v>
       </c>
-      <c r="P56">
-        <v>2.8</v>
-      </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
+        <v>1.775</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>3</v>
       </c>
       <c r="M57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X57">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
         <v>-0</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,76 +6069,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>50</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>2.375</v>
+      </c>
+      <c r="O63">
         <v>3.2</v>
       </c>
-      <c r="M63">
+      <c r="P63">
+        <v>3.2</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>1.8</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>2.2</v>
       </c>
-      <c r="N63">
-        <v>2.4</v>
-      </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
-      <c r="P63">
-        <v>3</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.7</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>2.025</v>
-      </c>
-      <c r="V63">
-        <v>1.775</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2</v>
-      </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,55 +6158,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L64">
+        <v>3.2</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
+        <v>2.4</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
         <v>3</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
-        <v>2.375</v>
-      </c>
-      <c r="O64">
-        <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>3.2</v>
-      </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6215,19 +6215,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,10 +6247,10 @@
         <v>45166.72916666666</v>
       </c>
       <c r="F65" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" t="s">
         <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -7229,7 +7229,7 @@
         <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7585,7 +7585,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>45177.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
         <v>35</v>
@@ -8294,7 +8294,7 @@
         <v>45179.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K90">
+        <v>1.5</v>
+      </c>
+      <c r="L90">
+        <v>4.333</v>
+      </c>
+      <c r="M90">
+        <v>6.5</v>
+      </c>
+      <c r="N90">
+        <v>1.615</v>
+      </c>
+      <c r="O90">
+        <v>3.8</v>
+      </c>
+      <c r="P90">
+        <v>5.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
         <v>2.25</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>3</v>
-      </c>
-      <c r="N90">
-        <v>2.4</v>
-      </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>3.2</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>2.05</v>
-      </c>
-      <c r="S90">
-        <v>1.75</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8561,7 +8561,7 @@
         <v>45180.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
+        <v>2.375</v>
+      </c>
+      <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
+        <v>2.75</v>
+      </c>
+      <c r="N94">
+        <v>3.3</v>
+      </c>
+      <c r="O94">
         <v>2.875</v>
       </c>
-      <c r="L94">
-        <v>2.9</v>
-      </c>
-      <c r="M94">
-        <v>2.3</v>
-      </c>
-      <c r="N94">
-        <v>2.625</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
         <v>-0</v>
-      </c>
-      <c r="AB94">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>49</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9098,7 +9098,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9365,7 +9365,7 @@
         <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>45188.84027777778</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6990794</v>
+        <v>6990788</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,49 +9718,49 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>2.5</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
         <v>1.75</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>5</v>
-      </c>
-      <c r="Q104">
-        <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.75</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>1.85</v>
@@ -9769,25 +9769,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990792</v>
+        <v>6990794</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,46 +9807,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
         <v>2.25</v>
@@ -9858,25 +9858,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,10 +9896,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9911,34 +9911,34 @@
         <v>51</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
         <v>1.85</v>
@@ -9947,7 +9947,7 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,10 +9956,10 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -10074,7 +10074,7 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -10522,7 +10522,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10789,7 +10789,7 @@
         <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10964,7 +10964,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11231,7 +11231,7 @@
         <v>45201.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11857,7 +11857,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11946,7 +11946,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990822</v>
+        <v>6990826</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,55 +12388,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N134">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12445,19 +12445,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990823</v>
+        <v>6990819</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>49</v>
+      </c>
+      <c r="K135">
+        <v>3.6</v>
+      </c>
+      <c r="L135">
+        <v>3.25</v>
+      </c>
+      <c r="M135">
+        <v>1.909</v>
+      </c>
+      <c r="N135">
+        <v>5.25</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>1.615</v>
+      </c>
+      <c r="Q135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>2</v>
-      </c>
-      <c r="J135" t="s">
-        <v>50</v>
-      </c>
-      <c r="K135">
-        <v>1.909</v>
-      </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>3.5</v>
-      </c>
-      <c r="N135">
-        <v>2.6</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
-      <c r="P135">
-        <v>2.875</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990826</v>
+        <v>6990825</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,40 +12566,40 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P136">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
         <v>1.875</v>
@@ -12608,34 +12608,34 @@
         <v>1.925</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6990820</v>
+        <v>6990823</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,73 +12655,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>1.875</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>1</v>
       </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
       <c r="AB137">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990819</v>
+        <v>6990820</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K138">
+        <v>1.833</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>3.75</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
         <v>3.6</v>
       </c>
-      <c r="L138">
-        <v>3.25</v>
-      </c>
-      <c r="M138">
-        <v>1.909</v>
-      </c>
-      <c r="N138">
-        <v>5.25</v>
-      </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
       <c r="P138">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990825</v>
+        <v>6990822</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,73 +13011,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141">
+        <v>1.615</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>3.6</v>
+      </c>
+      <c r="O141">
         <v>4</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" t="s">
-        <v>51</v>
-      </c>
-      <c r="K141">
-        <v>1.363</v>
-      </c>
-      <c r="L141">
-        <v>4.2</v>
-      </c>
-      <c r="M141">
-        <v>8</v>
-      </c>
-      <c r="N141">
-        <v>1.3</v>
-      </c>
-      <c r="O141">
-        <v>5.5</v>
-      </c>
       <c r="P141">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.925</v>
+      </c>
+      <c r="V141">
         <v>1.875</v>
       </c>
-      <c r="V141">
-        <v>1.925</v>
-      </c>
       <c r="W141">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13278,7 +13278,7 @@
         <v>45217.72916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13726,7 +13726,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -14079,7 +14079,7 @@
         <v>45226.75</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
         <v>34</v>
@@ -14171,7 +14171,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14702,7 +14702,7 @@
         <v>45235.89583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -14883,7 +14883,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15592,7 +15592,7 @@
         <v>45324.75</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -15770,7 +15770,7 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
         <v>38</v>
@@ -16396,7 +16396,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16574,7 +16574,7 @@
         <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -17105,7 +17105,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K188">
+        <v>3.6</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>2.1</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>3.4</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
         <v>2.5</v>
       </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>2.5</v>
       </c>
-      <c r="N188">
-        <v>3</v>
-      </c>
-      <c r="O188">
-        <v>3.1</v>
-      </c>
-      <c r="P188">
-        <v>2.15</v>
-      </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.75</v>
-      </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
       <c r="Y188">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB188">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,73 +17283,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17909,7 +17909,7 @@
         <v>47</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7630551</v>
+        <v>7630550</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,73 +18262,73 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
         <v>1.8</v>
       </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7630550</v>
+        <v>7630551</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,73 +18351,73 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
         <v>3</v>
       </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>1.909</v>
+      </c>
+      <c r="N201">
         <v>3.5</v>
       </c>
-      <c r="M201">
-        <v>5</v>
-      </c>
-      <c r="N201">
-        <v>1.444</v>
-      </c>
       <c r="O201">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18534,6 +18534,15 @@
       <c r="G203" t="s">
         <v>46</v>
       </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>51</v>
+      </c>
       <c r="K203">
         <v>2.1</v>
       </c>
@@ -18544,46 +18553,52 @@
         <v>3.2</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O203">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18608,6 +18623,15 @@
       <c r="G204" t="s">
         <v>38</v>
       </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204" t="s">
+        <v>50</v>
+      </c>
       <c r="K204">
         <v>1.727</v>
       </c>
@@ -18618,46 +18642,52 @@
         <v>4</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O204">
         <v>3.8</v>
       </c>
       <c r="P204">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB204">
+        <v>0.925</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18665,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7630555</v>
+        <v>7630558</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18674,49 +18704,49 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45348.75</v>
+        <v>45349.72916666666</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K205">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L205">
         <v>3.5</v>
       </c>
       <c r="M205">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N205">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18739,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7630558</v>
+        <v>7630634</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18748,34 +18778,34 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45349.72916666666</v>
+        <v>45350.83333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K206">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
         <v>3.5</v>
       </c>
       <c r="M206">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N206">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
         <v>3.5</v>
       </c>
       <c r="P206">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
         <v>1.8</v>
@@ -18787,11 +18817,11 @@
         <v>2.25</v>
       </c>
       <c r="U206">
+        <v>1.95</v>
+      </c>
+      <c r="V206">
         <v>1.85</v>
       </c>
-      <c r="V206">
-        <v>1.95</v>
-      </c>
       <c r="W206">
         <v>0</v>
       </c>
@@ -18805,80 +18835,6 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>7630634</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45350.83333333334</v>
-      </c>
-      <c r="F207" t="s">
-        <v>36</v>
-      </c>
-      <c r="G207" t="s">
-        <v>35</v>
-      </c>
-      <c r="K207">
-        <v>1.727</v>
-      </c>
-      <c r="L207">
-        <v>3.5</v>
-      </c>
-      <c r="M207">
-        <v>4.75</v>
-      </c>
-      <c r="N207">
-        <v>1.85</v>
-      </c>
-      <c r="O207">
-        <v>3.5</v>
-      </c>
-      <c r="P207">
-        <v>4.5</v>
-      </c>
-      <c r="Q207">
-        <v>-0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.85</v>
-      </c>
-      <c r="S207">
-        <v>1.95</v>
-      </c>
-      <c r="T207">
-        <v>2.25</v>
-      </c>
-      <c r="U207">
-        <v>1.975</v>
-      </c>
-      <c r="V207">
-        <v>1.825</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Real Cartagena</t>
+    <t>Llaneros</t>
   </si>
   <si>
-    <t>Llaneros</t>
+    <t>Real Cartagena</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -133,10 +133,10 @@
     <t>Tigres FC</t>
   </si>
   <si>
-    <t>Boca Juniors De Cali</t>
+    <t>Real San Andres</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Boca Juniors De Cali</t>
   </si>
   <si>
     <t>Real Soacha Cundinamarca</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,37 +1355,37 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1397,31 +1397,31 @@
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,37 +1444,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1486,31 +1486,31 @@
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>45100.91666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6838617</v>
+        <v>6838615</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,37 +1889,37 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -1940,22 +1940,22 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838615</v>
+        <v>6838617</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,37 +1978,37 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -2029,22 +2029,22 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2064,7 +2064,7 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -2334,7 +2334,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2601,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,49 +3043,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>51</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>2.025</v>
@@ -3094,7 +3094,7 @@
         <v>1.775</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3103,7 +3103,7 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6990717</v>
+        <v>6990716</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="N30">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>1.975</v>
       </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
+        <v>1.775</v>
+      </c>
+      <c r="V30">
         <v>2.025</v>
       </c>
-      <c r="V30">
-        <v>1.775</v>
-      </c>
       <c r="W30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>1.025</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6990716</v>
+        <v>6990715</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
+        <v>2.025</v>
+      </c>
+      <c r="V31">
         <v>1.775</v>
       </c>
-      <c r="V31">
-        <v>2.025</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3399,10 +3399,10 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,10 +3933,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3948,31 +3948,31 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M39">
+        <v>6.5</v>
+      </c>
+      <c r="N39">
+        <v>1.363</v>
+      </c>
+      <c r="O39">
         <v>4.333</v>
       </c>
-      <c r="N39">
-        <v>1.65</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.5</v>
@@ -3990,13 +3990,13 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990726</v>
+        <v>6990727</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,10 +4111,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4126,31 +4126,31 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
+        <v>3.6</v>
+      </c>
+      <c r="P41">
         <v>4.333</v>
       </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>2.5</v>
@@ -4168,13 +4168,13 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>6</v>
+        <v>3.333</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -4292,7 +4292,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>45153.90277777778</v>
       </c>
       <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s">
         <v>39</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4826,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4912,7 +4912,7 @@
         <v>45158.75</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>43</v>
@@ -5001,7 +5001,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5271,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>45161.89583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -5446,7 +5446,7 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>45170.75</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6695,7 +6695,7 @@
         <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>45172.75</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7137,7 +7137,7 @@
         <v>45172.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7318,7 +7318,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,25 +7493,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>50</v>
       </c>
       <c r="K79">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M79">
         <v>3.2</v>
@@ -7520,28 +7520,28 @@
         <v>2.55</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P79">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7550,19 +7550,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,25 +7582,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>50</v>
       </c>
       <c r="K80">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L80">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
         <v>3.2</v>
@@ -7609,28 +7609,28 @@
         <v>2.55</v>
       </c>
       <c r="O80">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P80">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7639,19 +7639,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>45175.875</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7941,7 +7941,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>45</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K89">
+        <v>1.5</v>
+      </c>
+      <c r="L89">
+        <v>4.333</v>
+      </c>
+      <c r="M89">
+        <v>6.5</v>
+      </c>
+      <c r="N89">
+        <v>1.615</v>
+      </c>
+      <c r="O89">
+        <v>3.8</v>
+      </c>
+      <c r="P89">
+        <v>5.75</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
         <v>2.25</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>2.4</v>
-      </c>
-      <c r="O89">
-        <v>3.1</v>
-      </c>
-      <c r="P89">
-        <v>3.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>2.05</v>
-      </c>
-      <c r="S89">
-        <v>1.75</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8650,7 +8650,7 @@
         <v>45181.75</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8742,7 +8742,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9095,7 +9095,7 @@
         <v>45184.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>44</v>
@@ -9187,7 +9187,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990794</v>
+        <v>6990792</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,46 +9807,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.25</v>
@@ -9858,25 +9858,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6990792</v>
+        <v>6990794</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,46 +9896,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
         <v>2.25</v>
@@ -9947,25 +9947,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10252,10 +10252,10 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>45192.84027777778</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10697,7 +10697,7 @@
         <v>45195.72916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -11056,7 +11056,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>45203.875</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -11765,7 +11765,7 @@
         <v>45205.75</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11958,25 +11958,25 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>3.25</v>
+      </c>
+      <c r="N129">
+        <v>4.75</v>
+      </c>
+      <c r="O129">
         <v>3.5</v>
       </c>
-      <c r="M129">
-        <v>4.25</v>
-      </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.6</v>
-      </c>
       <c r="P129">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
         <v>2</v>
@@ -11985,16 +11985,16 @@
         <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12009,7 +12009,7 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,13 +12032,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12047,25 +12047,25 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N130">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
         <v>2</v>
@@ -12074,16 +12074,16 @@
         <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12210,10 +12210,10 @@
         <v>45207.83333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990826</v>
+        <v>6990822</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,56 +12388,56 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N134">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.775</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.9</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12445,19 +12445,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB134">
         <v>0.925</v>
       </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990819</v>
+        <v>6990824</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M135">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N135">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990825</v>
+        <v>6990820</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,58 +12566,58 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>51</v>
       </c>
       <c r="K136">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O136">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12626,13 +12626,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6990823</v>
+        <v>6990819</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>49</v>
+      </c>
+      <c r="K137">
+        <v>3.6</v>
+      </c>
+      <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
+        <v>1.909</v>
+      </c>
+      <c r="N137">
+        <v>5.25</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>1.615</v>
+      </c>
+      <c r="Q137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>2</v>
-      </c>
-      <c r="J137" t="s">
-        <v>50</v>
-      </c>
-      <c r="K137">
-        <v>1.909</v>
-      </c>
-      <c r="L137">
-        <v>3.4</v>
-      </c>
-      <c r="M137">
-        <v>3.5</v>
-      </c>
-      <c r="N137">
-        <v>2.6</v>
-      </c>
-      <c r="O137">
-        <v>3.2</v>
-      </c>
-      <c r="P137">
-        <v>2.875</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.825</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y137">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.825</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990820</v>
+        <v>6990823</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>1.875</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
         <v>1</v>
       </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>-1</v>
-      </c>
-      <c r="Z138">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
       <c r="AB138">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990824</v>
+        <v>6990826</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,49 +12922,49 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12976,22 +12976,22 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990822</v>
+        <v>6990825</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,73 +13011,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P141">
-        <v>1.727</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.925</v>
       </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13100,7 +13100,7 @@
         <v>45215.72916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
@@ -13192,7 +13192,7 @@
         <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13545,10 +13545,10 @@
         <v>45221.83333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13723,7 +13723,7 @@
         <v>45222.89583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -13815,7 +13815,7 @@
         <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13901,7 +13901,7 @@
         <v>45225.82291666666</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13993,7 +13993,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14257,7 +14257,7 @@
         <v>45230.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
         <v>45</v>
@@ -14349,7 +14349,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14435,7 +14435,7 @@
         <v>45230.90277777778</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14524,10 +14524,10 @@
         <v>45234.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14705,7 +14705,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7452586</v>
+        <v>7452587</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,49 +14880,49 @@
         <v>45241.75</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K162">
         <v>1.833</v>
       </c>
       <c r="L162">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M162">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N162">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
         <v>1.875</v>
@@ -14931,19 +14931,19 @@
         <v>1.925</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB162">
         <v>-1</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7452587</v>
+        <v>7452586</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,49 +14969,49 @@
         <v>45241.75</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>1.833</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N163">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O163">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
         <v>1.875</v>
@@ -15020,19 +15020,19 @@
         <v>1.925</v>
       </c>
       <c r="W163">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -15061,7 +15061,7 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15147,7 +15147,7 @@
         <v>45241.84375</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>45</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7630524</v>
+        <v>7630523</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,61 +15770,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>49</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="V172">
-        <v>1.975</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -15833,13 +15833,13 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.825</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,61 +15859,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N173">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.9</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -15922,13 +15922,13 @@
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB173">
         <v>0.825</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15948,10 +15948,10 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16037,7 +16037,7 @@
         <v>45325.73958333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K176">
+        <v>3.2</v>
+      </c>
+      <c r="L176">
+        <v>3.1</v>
+      </c>
+      <c r="M176">
         <v>2.2</v>
       </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>3.2</v>
-      </c>
       <c r="N176">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>1.775</v>
+      </c>
+      <c r="V176">
         <v>2.025</v>
       </c>
-      <c r="S176">
-        <v>1.775</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
+        <v>2.2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
         <v>3.2</v>
       </c>
-      <c r="L177">
-        <v>3.1</v>
-      </c>
-      <c r="M177">
+      <c r="N177">
+        <v>2.375</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>3.2</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
+        <v>2.025</v>
+      </c>
+      <c r="S177">
+        <v>1.775</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
+        <v>1.825</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>2.2</v>
       </c>
-      <c r="N177">
-        <v>3.3</v>
-      </c>
-      <c r="O177">
-        <v>3.25</v>
-      </c>
-      <c r="P177">
-        <v>2.2</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>2.025</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -16571,7 +16571,7 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
         <v>43</v>
@@ -16841,7 +16841,7 @@
         <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16930,7 +16930,7 @@
         <v>48</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17016,7 +17016,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17372,7 +17372,7 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>46</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K191">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA191">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,76 +17550,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>50</v>
+      </c>
+      <c r="K192">
+        <v>2.7</v>
+      </c>
+      <c r="L192">
         <v>3</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
-      <c r="J192" t="s">
-        <v>51</v>
-      </c>
-      <c r="K192">
+      <c r="M192">
+        <v>2.45</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192">
+        <v>3.1</v>
+      </c>
+      <c r="P192">
+        <v>2.4</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
         <v>1.75</v>
       </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>4</v>
-      </c>
-      <c r="N192">
-        <v>1.727</v>
-      </c>
-      <c r="O192">
-        <v>3.8</v>
-      </c>
-      <c r="P192">
-        <v>4.75</v>
-      </c>
-      <c r="Q192">
-        <v>-0.75</v>
-      </c>
-      <c r="R192">
-        <v>1.925</v>
-      </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z192">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>45339.75</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
         <v>34</v>
@@ -17820,7 +17820,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18176,7 +18176,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7630550</v>
+        <v>7630551</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,73 +18262,73 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F200" t="s">
+        <v>42</v>
+      </c>
+      <c r="G200" t="s">
         <v>35</v>
       </c>
-      <c r="G200" t="s">
-        <v>43</v>
-      </c>
       <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
         <v>3</v>
       </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K200">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>1.909</v>
+      </c>
+      <c r="N200">
         <v>3.5</v>
       </c>
-      <c r="M200">
-        <v>5</v>
-      </c>
-      <c r="N200">
-        <v>1.444</v>
-      </c>
       <c r="O200">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7630551</v>
+        <v>7630550</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,73 +18351,73 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
         <v>1.8</v>
       </c>
-      <c r="V201">
-        <v>2</v>
-      </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7630558</v>
+        <v>7630555</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,64 +18704,79 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45349.72916666666</v>
+        <v>45348.75</v>
       </c>
       <c r="F205" t="s">
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L205">
         <v>3.5</v>
       </c>
       <c r="M205">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N205">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O205">
         <v>3.5</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18769,73 +18784,355 @@
         <v>204</v>
       </c>
       <c r="B206">
+        <v>7630552</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45349.70833333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" t="s">
+        <v>48</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>51</v>
+      </c>
+      <c r="K206">
+        <v>3.2</v>
+      </c>
+      <c r="L206">
+        <v>3.2</v>
+      </c>
+      <c r="M206">
+        <v>2.1</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206">
+        <v>3.25</v>
+      </c>
+      <c r="P206">
+        <v>2</v>
+      </c>
+      <c r="Q206">
+        <v>0.5</v>
+      </c>
+      <c r="R206">
+        <v>1.775</v>
+      </c>
+      <c r="S206">
+        <v>2.025</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>3</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7630558</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45349.72916666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G207" t="s">
+        <v>42</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>49</v>
+      </c>
+      <c r="K207">
+        <v>2.05</v>
+      </c>
+      <c r="L207">
+        <v>3.5</v>
+      </c>
+      <c r="M207">
+        <v>3.25</v>
+      </c>
+      <c r="N207">
+        <v>2.25</v>
+      </c>
+      <c r="O207">
+        <v>3.4</v>
+      </c>
+      <c r="P207">
+        <v>3.2</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>1.75</v>
+      </c>
+      <c r="S207">
+        <v>2.05</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
+        <v>1.85</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>2.4</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>-0</v>
+      </c>
+      <c r="AB207">
+        <v>-0.5</v>
+      </c>
+      <c r="AC207">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7630554</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45349.84027777778</v>
+      </c>
+      <c r="F208" t="s">
+        <v>47</v>
+      </c>
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>49</v>
+      </c>
+      <c r="K208">
+        <v>1.909</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>3.75</v>
+      </c>
+      <c r="N208">
+        <v>4.2</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>1.75</v>
+      </c>
+      <c r="Q208">
+        <v>0.75</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>1.9</v>
+      </c>
+      <c r="V208">
+        <v>1.9</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>3.2</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
         <v>7630634</v>
       </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45350.83333333334</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45350.85416666666</v>
+      </c>
+      <c r="F209" t="s">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
         <v>36</v>
       </c>
-      <c r="G206" t="s">
-        <v>35</v>
-      </c>
-      <c r="K206">
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>49</v>
+      </c>
+      <c r="K209">
         <v>1.727</v>
       </c>
-      <c r="L206">
+      <c r="L209">
         <v>3.5</v>
       </c>
-      <c r="M206">
+      <c r="M209">
         <v>4.75</v>
       </c>
-      <c r="N206">
-        <v>1.85</v>
-      </c>
-      <c r="O206">
-        <v>3.5</v>
-      </c>
-      <c r="P206">
-        <v>4.5</v>
-      </c>
-      <c r="Q206">
+      <c r="N209">
+        <v>1.909</v>
+      </c>
+      <c r="O209">
+        <v>3.4</v>
+      </c>
+      <c r="P209">
+        <v>4.2</v>
+      </c>
+      <c r="Q209">
         <v>-0.5</v>
       </c>
-      <c r="R206">
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+      <c r="V209">
         <v>1.8</v>
       </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.95</v>
-      </c>
-      <c r="V206">
-        <v>1.85</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
-        <v>0</v>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.4</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Colombia Primera B</t>
   </si>
   <si>
-    <t>Patriotas FC</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Patriotas FC</t>
   </si>
   <si>
     <t>Deportes Quindio</t>
@@ -121,10 +121,10 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Llaneros</t>
+    <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Real Cartagena</t>
+    <t>Llaneros</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -133,10 +133,10 @@
     <t>Tigres FC</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Boca Juniors De Cali</t>
   </si>
   <si>
-    <t>Boca Juniors De Cali</t>
+    <t>Real San Andres</t>
   </si>
   <si>
     <t>Real Soacha Cundinamarca</t>
@@ -163,10 +163,10 @@
     <t>Atletico Huila</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N2">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <v>-0.25</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
         <v>1.925</v>
       </c>
-      <c r="S2">
-        <v>1.875</v>
-      </c>
       <c r="T2">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>1.75</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>2.875</v>
@@ -1085,7 +1085,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>2.8</v>
@@ -1174,10 +1174,10 @@
         <v>45087.75</v>
       </c>
       <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>1.615</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,37 +1355,37 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1397,31 +1397,31 @@
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,37 +1444,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1486,31 +1486,31 @@
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1530,10 +1530,10 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1619,10 +1619,10 @@
         <v>45100.91666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>4.2</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>3.3</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6838615</v>
+        <v>6838617</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1901,25 +1901,25 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -1940,22 +1940,22 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838617</v>
+        <v>6838615</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1990,25 +1990,25 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -2029,22 +2029,22 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2064,7 +2064,7 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>1.571</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2331,10 +2331,10 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>1.7</v>
@@ -2423,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>1.833</v>
@@ -2601,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.55</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3221,7 +3221,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>1.85</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA32">
+        <v>-0.5</v>
+      </c>
+      <c r="AB32">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3500,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2.8</v>
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>2.4</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990726</v>
+        <v>6990727</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,10 +3933,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3945,34 +3945,34 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N39">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
         <v>4.333</v>
       </c>
-      <c r="P39">
-        <v>7</v>
-      </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
         <v>2.5</v>
@@ -3990,13 +3990,13 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>6</v>
+        <v>3.333</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,10 +4111,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4123,34 +4123,34 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M41">
+        <v>6.5</v>
+      </c>
+      <c r="N41">
+        <v>1.363</v>
+      </c>
+      <c r="O41">
         <v>4.333</v>
       </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>2.5</v>
@@ -4168,13 +4168,13 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -4203,7 +4203,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4292,7 +4292,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>3.1</v>
@@ -4378,11 +4378,11 @@
         <v>45153.90277777778</v>
       </c>
       <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
         <v>40</v>
       </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>2.4</v>
@@ -4467,7 +4467,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4479,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>2.6</v>
@@ -4645,7 +4645,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4826,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4912,7 +4912,7 @@
         <v>45158.75</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>43</v>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5001,7 +5001,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5102,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>1.75</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>1.5</v>
@@ -5271,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5357,7 +5357,7 @@
         <v>45161.89583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -5446,10 +5446,10 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>3.75</v>
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -5891,10 +5891,10 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.15</v>
@@ -5983,7 +5983,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,55 +6069,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L63">
+        <v>3.2</v>
+      </c>
+      <c r="M63">
+        <v>2.2</v>
+      </c>
+      <c r="N63">
+        <v>2.4</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
         <v>3</v>
       </c>
-      <c r="M63">
-        <v>3</v>
-      </c>
-      <c r="N63">
-        <v>2.375</v>
-      </c>
-      <c r="O63">
-        <v>3.2</v>
-      </c>
-      <c r="P63">
-        <v>3.2</v>
-      </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6126,19 +6126,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>2.375</v>
+      </c>
+      <c r="O64">
         <v>3.2</v>
       </c>
-      <c r="M64">
+      <c r="P64">
+        <v>3.2</v>
+      </c>
+      <c r="Q64">
+        <v>-0.25</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>1.8</v>
+      </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>2.2</v>
       </c>
-      <c r="N64">
-        <v>2.4</v>
-      </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.7</v>
-      </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>2.025</v>
-      </c>
-      <c r="V64">
-        <v>1.775</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>2</v>
-      </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6425,7 +6425,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6603,7 +6603,7 @@
         <v>45170.75</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6695,7 +6695,7 @@
         <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.6</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>1.571</v>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7048,7 +7048,7 @@
         <v>45172.75</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7137,7 +7137,7 @@
         <v>45172.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7226,7 +7226,7 @@
         <v>45173.75</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7318,7 +7318,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>1.533</v>
@@ -7407,7 +7407,7 @@
         <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,25 +7493,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L79">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
         <v>3.2</v>
@@ -7520,28 +7520,28 @@
         <v>2.55</v>
       </c>
       <c r="O79">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7550,19 +7550,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,25 +7582,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M80">
         <v>3.2</v>
@@ -7609,28 +7609,28 @@
         <v>2.55</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7639,19 +7639,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2.8</v>
@@ -7760,7 +7760,7 @@
         <v>45175.875</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7852,7 +7852,7 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8116,7 +8116,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
         <v>45</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>1.666</v>
@@ -8306,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8383,7 +8383,7 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
@@ -8472,10 +8472,10 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>3.2</v>
@@ -8650,7 +8650,7 @@
         <v>45181.75</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>1.5</v>
@@ -8742,7 +8742,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.7</v>
@@ -8831,7 +8831,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>2.375</v>
@@ -8929,7 +8929,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9095,7 +9095,7 @@
         <v>45184.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>44</v>
@@ -9187,7 +9187,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9276,7 +9276,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9451,7 +9451,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9543,7 +9543,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>1.909</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,10 +9718,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9733,34 +9733,34 @@
         <v>51</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
         <v>1.85</v>
@@ -9769,7 +9769,7 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,10 +9778,10 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,10 +9807,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9822,34 +9822,34 @@
         <v>51</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -9858,7 +9858,7 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9896,7 +9896,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9908,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.909</v>
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.833</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10175,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10252,10 +10252,10 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>45192.84027777778</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10442,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>3.2</v>
@@ -10611,7 +10611,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10697,7 +10697,7 @@
         <v>45195.72916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10875,7 +10875,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10887,7 +10887,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -11056,7 +11056,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11142,7 +11142,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.55</v>
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>1.444</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.1</v>
@@ -11587,10 +11587,10 @@
         <v>45203.875</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11765,7 +11765,7 @@
         <v>45205.75</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.75</v>
@@ -11946,7 +11946,7 @@
         <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -12032,7 +12032,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12133,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>1.666</v>
@@ -12210,10 +12210,10 @@
         <v>45207.83333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
         <v>36</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990822</v>
+        <v>6990826</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,55 +12388,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>49</v>
+      </c>
+      <c r="K134">
+        <v>2.375</v>
+      </c>
+      <c r="L134">
         <v>3</v>
       </c>
-      <c r="J134" t="s">
-        <v>50</v>
-      </c>
-      <c r="K134">
-        <v>1.615</v>
-      </c>
-      <c r="L134">
-        <v>3.4</v>
-      </c>
       <c r="M134">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N134">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12445,19 +12445,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12489,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>2.05</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990820</v>
+        <v>6990825</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,58 +12566,58 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>51</v>
       </c>
       <c r="K136">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12626,13 +12626,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>3.6</v>
@@ -12747,7 +12747,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12756,7 +12756,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.909</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990821</v>
+        <v>6990822</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990826</v>
+        <v>6990820</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990825</v>
+        <v>6990821</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="N141">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>45215.72916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13192,7 +13192,7 @@
         <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13545,10 +13545,10 @@
         <v>45221.83333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13723,7 +13723,7 @@
         <v>45222.89583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -13815,7 +13815,7 @@
         <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13901,7 +13901,7 @@
         <v>45225.82291666666</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -13993,7 +13993,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14002,7 +14002,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>3.2</v>
@@ -14257,7 +14257,7 @@
         <v>45230.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
         <v>45</v>
@@ -14269,7 +14269,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>5</v>
@@ -14349,7 +14349,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14435,7 +14435,7 @@
         <v>45230.90277777778</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14524,10 +14524,10 @@
         <v>45234.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14705,7 +14705,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>3.2</v>
@@ -14880,7 +14880,7 @@
         <v>45241.75</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>34</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
         <v>1.833</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7452585</v>
+        <v>7452584</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45241.84375</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="L164">
+        <v>3.75</v>
+      </c>
+      <c r="M164">
+        <v>1.666</v>
+      </c>
+      <c r="N164">
         <v>5.25</v>
       </c>
-      <c r="M164">
-        <v>9</v>
-      </c>
-      <c r="N164">
-        <v>1.2</v>
-      </c>
       <c r="O164">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P164">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="Q164">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7452584</v>
+        <v>7452585</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45241.84375</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M165">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N165">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P165">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="Q165">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R165">
+        <v>1.825</v>
+      </c>
+      <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>3.25</v>
+      </c>
+      <c r="U165">
         <v>1.925</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.875</v>
       </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>1.8</v>
-      </c>
-      <c r="V165">
-        <v>2</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X165">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15414,7 +15414,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15506,7 +15506,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>3</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,61 +15770,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N172">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
         <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.9</v>
+      </c>
+      <c r="S172">
+        <v>1.9</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.825</v>
+      </c>
+      <c r="V172">
         <v>1.975</v>
       </c>
-      <c r="S172">
-        <v>1.825</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -15833,13 +15833,13 @@
         <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB172">
         <v>0.825</v>
       </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7630524</v>
+        <v>7630525</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L173">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>1.95</v>
+      </c>
+      <c r="W173">
+        <v>0.615</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.8</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
         <v>-0.5</v>
       </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.9</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.4</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>-1</v>
-      </c>
-      <c r="AA173">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>0.825</v>
-      </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O174">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16037,7 +16037,7 @@
         <v>45325.73958333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,13 +16126,13 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -16141,61 +16141,61 @@
         <v>50</v>
       </c>
       <c r="K176">
+        <v>2.2</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
         <v>3.2</v>
       </c>
-      <c r="L176">
-        <v>3.1</v>
-      </c>
-      <c r="M176">
+      <c r="N176">
+        <v>2.375</v>
+      </c>
+      <c r="O176">
+        <v>3.2</v>
+      </c>
+      <c r="P176">
+        <v>3.2</v>
+      </c>
+      <c r="Q176">
+        <v>-0.25</v>
+      </c>
+      <c r="R176">
+        <v>2.025</v>
+      </c>
+      <c r="S176">
+        <v>1.775</v>
+      </c>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>2.2</v>
       </c>
-      <c r="N176">
-        <v>3.3</v>
-      </c>
-      <c r="O176">
-        <v>3.25</v>
-      </c>
-      <c r="P176">
-        <v>2.2</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.775</v>
-      </c>
-      <c r="V176">
-        <v>2.025</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,13 +16215,13 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16230,61 +16230,61 @@
         <v>49</v>
       </c>
       <c r="K177">
+        <v>3.2</v>
+      </c>
+      <c r="L177">
+        <v>3.1</v>
+      </c>
+      <c r="M177">
         <v>2.2</v>
       </c>
-      <c r="L177">
-        <v>3</v>
-      </c>
-      <c r="M177">
-        <v>3.2</v>
-      </c>
       <c r="N177">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
+        <v>1.9</v>
+      </c>
+      <c r="S177">
+        <v>1.9</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.775</v>
+      </c>
+      <c r="V177">
         <v>2.025</v>
       </c>
-      <c r="S177">
-        <v>1.775</v>
-      </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.975</v>
-      </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2.5</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,73 +16482,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O180">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z180">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,73 +16571,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F181" t="s">
+        <v>41</v>
+      </c>
+      <c r="G181" t="s">
         <v>40</v>
       </c>
-      <c r="G181" t="s">
-        <v>43</v>
-      </c>
       <c r="H181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
+        <v>3.25</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>2.3</v>
+      </c>
+      <c r="N181">
         <v>2.1</v>
       </c>
-      <c r="L181">
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>3.6</v>
-      </c>
-      <c r="N181">
-        <v>1.95</v>
-      </c>
-      <c r="O181">
-        <v>3.3</v>
-      </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16672,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.7</v>
@@ -16841,7 +16841,7 @@
         <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>2.2</v>
@@ -16930,7 +16930,7 @@
         <v>48</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17016,7 +17016,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17028,7 +17028,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>1.4</v>
@@ -17117,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K187">
         <v>2.05</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
         <v>49</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N188">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,73 +17283,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>50</v>
       </c>
       <c r="K189">
+        <v>3.6</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>2.1</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>3.4</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
+        <v>1.975</v>
+      </c>
+      <c r="T189">
         <v>2.5</v>
       </c>
-      <c r="L189">
-        <v>3.2</v>
-      </c>
-      <c r="M189">
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.5</v>
       </c>
-      <c r="N189">
-        <v>3</v>
-      </c>
-      <c r="O189">
-        <v>3.1</v>
-      </c>
-      <c r="P189">
-        <v>2.15</v>
-      </c>
-      <c r="Q189">
-        <v>0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.85</v>
-      </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
-      <c r="T189">
-        <v>2</v>
-      </c>
-      <c r="U189">
-        <v>1.75</v>
-      </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
       <c r="Y189">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
         <v>46</v>
@@ -17384,7 +17384,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>1.5</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>49</v>
+      </c>
+      <c r="K191">
+        <v>2.7</v>
+      </c>
+      <c r="L191">
         <v>3</v>
       </c>
-      <c r="I191">
-        <v>2</v>
-      </c>
-      <c r="J191" t="s">
-        <v>51</v>
-      </c>
-      <c r="K191">
+      <c r="M191">
+        <v>2.45</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191">
+        <v>3.1</v>
+      </c>
+      <c r="P191">
+        <v>2.4</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
         <v>1.75</v>
       </c>
-      <c r="L191">
-        <v>3.4</v>
-      </c>
-      <c r="M191">
-        <v>4</v>
-      </c>
-      <c r="N191">
-        <v>1.727</v>
-      </c>
-      <c r="O191">
-        <v>3.8</v>
-      </c>
-      <c r="P191">
-        <v>4.75</v>
-      </c>
-      <c r="Q191">
-        <v>-0.75</v>
-      </c>
-      <c r="R191">
-        <v>1.925</v>
-      </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z191">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,76 +17550,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA192">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>45339.75</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>34</v>
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K193">
         <v>2.55</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17820,7 +17820,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17918,7 +17918,7 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>1.533</v>
@@ -18096,7 +18096,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K198">
         <v>2.75</v>
@@ -18176,7 +18176,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18265,7 +18265,7 @@
         <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>4</v>
@@ -18351,7 +18351,7 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>43</v>
@@ -18452,7 +18452,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>4</v>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>1.727</v>
@@ -18707,7 +18707,7 @@
         <v>45348.75</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
         <v>44</v>
@@ -18885,7 +18885,7 @@
         <v>45349.72916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
         <v>42</v>
@@ -18897,7 +18897,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18986,7 +18986,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K208">
         <v>1.909</v>
@@ -19063,11 +19063,11 @@
         <v>45350.85416666666</v>
       </c>
       <c r="F209" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" t="s">
         <v>35</v>
       </c>
-      <c r="G209" t="s">
-        <v>36</v>
-      </c>
       <c r="H209">
         <v>0</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>1.727</v>
@@ -19133,6 +19133,450 @@
       </c>
       <c r="AC209">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7630560</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45353.70833333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>38</v>
+      </c>
+      <c r="G210" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210">
+        <v>2.375</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.625</v>
+      </c>
+      <c r="N210">
+        <v>2.45</v>
+      </c>
+      <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
+        <v>2.9</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>1.8</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>1.95</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7630563</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45353.72916666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>46</v>
+      </c>
+      <c r="G211" t="s">
+        <v>43</v>
+      </c>
+      <c r="K211">
+        <v>2.75</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>2.5</v>
+      </c>
+      <c r="N211">
+        <v>1.8</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>4.75</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>2</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>1.8</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7630564</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45353.83333333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" t="s">
+        <v>37</v>
+      </c>
+      <c r="K212">
+        <v>1.333</v>
+      </c>
+      <c r="L212">
+        <v>4.333</v>
+      </c>
+      <c r="M212">
+        <v>8</v>
+      </c>
+      <c r="N212">
+        <v>1.45</v>
+      </c>
+      <c r="O212">
+        <v>4.333</v>
+      </c>
+      <c r="P212">
+        <v>7</v>
+      </c>
+      <c r="Q212">
+        <v>-1.25</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.825</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7630565</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45354.72916666666</v>
+      </c>
+      <c r="F213" t="s">
+        <v>35</v>
+      </c>
+      <c r="G213" t="s">
+        <v>39</v>
+      </c>
+      <c r="K213">
+        <v>1.533</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+      <c r="N213">
+        <v>1.533</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>5.25</v>
+      </c>
+      <c r="Q213">
+        <v>-1</v>
+      </c>
+      <c r="R213">
+        <v>1.925</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.775</v>
+      </c>
+      <c r="V213">
+        <v>2.025</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7630561</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45355.83680555555</v>
+      </c>
+      <c r="F214" t="s">
+        <v>44</v>
+      </c>
+      <c r="G214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K214">
+        <v>1.8</v>
+      </c>
+      <c r="L214">
+        <v>3.3</v>
+      </c>
+      <c r="M214">
+        <v>4</v>
+      </c>
+      <c r="N214">
+        <v>1.7</v>
+      </c>
+      <c r="O214">
+        <v>3.4</v>
+      </c>
+      <c r="P214">
+        <v>4.5</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.925</v>
+      </c>
+      <c r="S214">
+        <v>1.875</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.925</v>
+      </c>
+      <c r="V214">
+        <v>1.875</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7630559</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45356.90277777778</v>
+      </c>
+      <c r="F215" t="s">
+        <v>45</v>
+      </c>
+      <c r="G215" t="s">
+        <v>36</v>
+      </c>
+      <c r="K215">
+        <v>2.9</v>
+      </c>
+      <c r="L215">
+        <v>3.1</v>
+      </c>
+      <c r="M215">
+        <v>2.3</v>
+      </c>
+      <c r="N215">
+        <v>3.1</v>
+      </c>
+      <c r="O215">
+        <v>3.1</v>
+      </c>
+      <c r="P215">
+        <v>2.2</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>1.775</v>
+      </c>
+      <c r="V215">
+        <v>2.025</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Real Cartagena</t>
+    <t>Llaneros</t>
   </si>
   <si>
-    <t>Llaneros</t>
+    <t>Real Cartagena</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,76 +1174,76 @@
         <v>45087.75</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
+        <v>1.615</v>
+      </c>
+      <c r="L8">
+        <v>3.6</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
         <v>1.533</v>
       </c>
-      <c r="L8">
-        <v>3.8</v>
-      </c>
-      <c r="M8">
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
         <v>5.75</v>
       </c>
-      <c r="N8">
-        <v>1.363</v>
-      </c>
-      <c r="O8">
-        <v>4.2</v>
-      </c>
-      <c r="P8">
-        <v>7.5</v>
-      </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.8</v>
+      </c>
+      <c r="AB8">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-0.5</v>
-      </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,76 +1263,76 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N9">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,37 +1355,37 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1397,31 +1397,31 @@
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,37 +1444,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1486,31 +1486,31 @@
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>45100.91666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -2064,7 +2064,7 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -2334,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L23">
         <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
         <v>3.4</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
+        <v>1.825</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
         <v>1.95</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
         <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.85</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
-      <c r="V33">
-        <v>1.8</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA33">
+        <v>-0.5</v>
+      </c>
+      <c r="AB33">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,10 +3933,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3948,31 +3948,31 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M39">
+        <v>6.5</v>
+      </c>
+      <c r="N39">
+        <v>1.363</v>
+      </c>
+      <c r="O39">
         <v>4.333</v>
       </c>
-      <c r="N39">
-        <v>1.65</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.5</v>
@@ -3990,13 +3990,13 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,49 +4022,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K40">
+        <v>1.7</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>4.333</v>
+      </c>
+      <c r="N40">
+        <v>1.65</v>
+      </c>
+      <c r="O40">
+        <v>3.6</v>
+      </c>
+      <c r="P40">
+        <v>4.333</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
         <v>1.85</v>
       </c>
-      <c r="L40">
-        <v>3.25</v>
-      </c>
-      <c r="M40">
-        <v>3.75</v>
-      </c>
-      <c r="N40">
-        <v>1.85</v>
-      </c>
-      <c r="O40">
-        <v>3.25</v>
-      </c>
-      <c r="P40">
-        <v>3.75</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
         <v>1.8</v>
@@ -4073,19 +4073,19 @@
         <v>2</v>
       </c>
       <c r="W40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,49 +4111,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>1.8</v>
@@ -4162,19 +4162,19 @@
         <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -4292,7 +4292,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>45158.75</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>43</v>
@@ -5001,7 +5001,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5357,7 +5357,7 @@
         <v>45161.89583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O56">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
         <v>-0</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L57">
         <v>3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N57">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O57">
+        <v>2.9</v>
+      </c>
+      <c r="P57">
         <v>3.1</v>
       </c>
-      <c r="P57">
-        <v>2.8</v>
-      </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
+        <v>1.775</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.925</v>
-      </c>
-      <c r="V57">
-        <v>1.875</v>
-      </c>
       <c r="W57">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6072,7 +6072,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45172.75</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K73">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
+        <v>5.25</v>
+      </c>
+      <c r="N73">
+        <v>1.571</v>
+      </c>
+      <c r="O73">
         <v>4</v>
       </c>
-      <c r="N73">
-        <v>1.8</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
       <c r="P73">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45172.75</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
+        <v>1.75</v>
+      </c>
+      <c r="S74">
         <v>1.95</v>
       </c>
-      <c r="S74">
+      <c r="T74">
+        <v>2.25</v>
+      </c>
+      <c r="U74">
         <v>1.85</v>
       </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>45172.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7760,7 +7760,7 @@
         <v>45175.875</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7941,7 +7941,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90">
+        <v>1.5</v>
+      </c>
+      <c r="L90">
+        <v>4.333</v>
+      </c>
+      <c r="M90">
+        <v>6.5</v>
+      </c>
+      <c r="N90">
+        <v>1.615</v>
+      </c>
+      <c r="O90">
+        <v>3.8</v>
+      </c>
+      <c r="P90">
+        <v>5.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
         <v>2.25</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>3</v>
-      </c>
-      <c r="N90">
-        <v>2.4</v>
-      </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>3.2</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>2.05</v>
-      </c>
-      <c r="S90">
-        <v>1.75</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8650,7 +8650,7 @@
         <v>45181.75</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -9095,7 +9095,7 @@
         <v>45184.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>44</v>
@@ -9276,7 +9276,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,10 +9718,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9733,34 +9733,34 @@
         <v>51</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>1.85</v>
@@ -9769,7 +9769,7 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,10 +9778,10 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,10 +9807,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9822,34 +9822,34 @@
         <v>51</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -9858,7 +9858,7 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -10252,7 +10252,7 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10341,7 +10341,7 @@
         <v>45192.84027777778</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -11056,7 +11056,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>45203.875</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11958,25 +11958,25 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
         <v>2</v>
@@ -11985,16 +11985,16 @@
         <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12009,7 +12009,7 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,13 +12032,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12047,25 +12047,25 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>3.25</v>
+      </c>
+      <c r="N130">
+        <v>4.75</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="M130">
-        <v>4.25</v>
-      </c>
-      <c r="N130">
-        <v>1.75</v>
-      </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
       <c r="P130">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>2</v>
@@ -12074,16 +12074,16 @@
         <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12210,10 +12210,10 @@
         <v>45207.83333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990826</v>
+        <v>6990821</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
         <v>3</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N134">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y134">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990824</v>
+        <v>6990820</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990825</v>
+        <v>6990822</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,73 +12566,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136">
+        <v>1.615</v>
+      </c>
+      <c r="L136">
+        <v>3.4</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
+        <v>3.6</v>
+      </c>
+      <c r="O136">
         <v>4</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
-        <v>51</v>
-      </c>
-      <c r="K136">
-        <v>1.363</v>
-      </c>
-      <c r="L136">
-        <v>4.2</v>
-      </c>
-      <c r="M136">
-        <v>8</v>
-      </c>
-      <c r="N136">
-        <v>1.3</v>
-      </c>
-      <c r="O136">
-        <v>5.5</v>
-      </c>
       <c r="P136">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12747,7 +12747,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990822</v>
+        <v>6990826</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,55 +12833,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12890,19 +12890,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990820</v>
+        <v>6990824</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.775</v>
+      </c>
+      <c r="S140">
+        <v>2.025</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>2</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>-0.5</v>
       </c>
-      <c r="R140">
-        <v>1.975</v>
-      </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>2</v>
-      </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
-      <c r="W140">
-        <v>1</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990821</v>
+        <v>6990825</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13192,7 +13192,7 @@
         <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13545,7 +13545,7 @@
         <v>45221.83333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -13723,7 +13723,7 @@
         <v>45222.89583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>44</v>
@@ -13901,7 +13901,7 @@
         <v>45225.82291666666</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13993,7 +13993,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14349,7 +14349,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14435,7 +14435,7 @@
         <v>45230.90277777778</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14527,7 +14527,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14705,7 +14705,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>45241.75</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>34</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7452584</v>
+        <v>7452585</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45241.84375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M164">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N164">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="O164">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P164">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R164">
+        <v>1.825</v>
+      </c>
+      <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
+        <v>3.25</v>
+      </c>
+      <c r="U164">
         <v>1.925</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.875</v>
       </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.8</v>
-      </c>
-      <c r="V164">
-        <v>2</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X164">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7452585</v>
+        <v>7452584</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45241.84375</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="L165">
+        <v>3.75</v>
+      </c>
+      <c r="M165">
+        <v>1.666</v>
+      </c>
+      <c r="N165">
         <v>5.25</v>
       </c>
-      <c r="M165">
-        <v>9</v>
-      </c>
-      <c r="N165">
-        <v>1.2</v>
-      </c>
       <c r="O165">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P165">
-        <v>15</v>
+        <v>1.571</v>
       </c>
       <c r="Q165">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7630524</v>
+        <v>7630525</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q172">
+        <v>-0.75</v>
+      </c>
+      <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
+        <v>0.615</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>0.8</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>-0.5</v>
       </c>
-      <c r="R172">
-        <v>1.9</v>
-      </c>
-      <c r="S172">
-        <v>1.9</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.825</v>
-      </c>
-      <c r="V172">
-        <v>1.975</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>2.4</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>-1</v>
-      </c>
-      <c r="AA172">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>0.825</v>
-      </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N173">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O173">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,61 +15948,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>50</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
         <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.9</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
         <v>1.975</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.975</v>
-      </c>
-      <c r="V174">
-        <v>1.825</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
         <v>-1</v>
@@ -16011,13 +16011,13 @@
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB174">
         <v>0.825</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16037,7 +16037,7 @@
         <v>45325.73958333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K176">
+        <v>3.2</v>
+      </c>
+      <c r="L176">
+        <v>3.1</v>
+      </c>
+      <c r="M176">
         <v>2.2</v>
       </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>3.2</v>
-      </c>
       <c r="N176">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>1.775</v>
+      </c>
+      <c r="V176">
         <v>2.025</v>
       </c>
-      <c r="S176">
-        <v>1.775</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K177">
+        <v>2.2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
         <v>3.2</v>
       </c>
-      <c r="L177">
-        <v>3.1</v>
-      </c>
-      <c r="M177">
+      <c r="N177">
+        <v>2.375</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>3.2</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
+        <v>2.025</v>
+      </c>
+      <c r="S177">
+        <v>1.775</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
+        <v>1.825</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>2.2</v>
       </c>
-      <c r="N177">
-        <v>3.3</v>
-      </c>
-      <c r="O177">
-        <v>3.25</v>
-      </c>
-      <c r="P177">
-        <v>2.2</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>2.025</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,73 +16482,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K180">
+        <v>3.25</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>2.3</v>
+      </c>
+      <c r="N180">
         <v>2.1</v>
       </c>
-      <c r="L180">
+      <c r="O180">
         <v>3.2</v>
       </c>
-      <c r="M180">
-        <v>3.6</v>
-      </c>
-      <c r="N180">
-        <v>1.95</v>
-      </c>
-      <c r="O180">
-        <v>3.3</v>
-      </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,73 +16571,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16841,7 +16841,7 @@
         <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16930,7 +16930,7 @@
         <v>48</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17372,7 +17372,7 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>46</v>
@@ -17639,7 +17639,7 @@
         <v>45339.75</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
         <v>34</v>
@@ -18265,7 +18265,7 @@
         <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18351,7 +18351,7 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
         <v>43</v>
@@ -19063,10 +19063,10 @@
         <v>45350.85416666666</v>
       </c>
       <c r="F209" t="s">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
         <v>36</v>
-      </c>
-      <c r="G209" t="s">
-        <v>35</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19157,6 +19157,15 @@
       <c r="G210" t="s">
         <v>41</v>
       </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>51</v>
+      </c>
       <c r="K210">
         <v>2.375</v>
       </c>
@@ -19179,34 +19188,40 @@
         <v>0</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T210">
         <v>2</v>
       </c>
       <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="V210">
-        <v>1.95</v>
-      </c>
       <c r="W210">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19231,6 +19246,15 @@
       <c r="G211" t="s">
         <v>43</v>
       </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>51</v>
+      </c>
       <c r="K211">
         <v>2.75</v>
       </c>
@@ -19241,46 +19265,52 @@
         <v>2.5</v>
       </c>
       <c r="N211">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19288,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7630564</v>
+        <v>7630565</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19297,49 +19327,49 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45353.83333333334</v>
+        <v>45354.72916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K212">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L212">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O212">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P212">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q212">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19362,7 +19392,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7630565</v>
+        <v>7630561</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19371,49 +19401,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45354.72916666666</v>
+        <v>45355.83680555555</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K213">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
+        <v>3.3</v>
+      </c>
+      <c r="M213">
         <v>4</v>
       </c>
-      <c r="M213">
+      <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
+        <v>3.6</v>
+      </c>
+      <c r="P213">
         <v>5</v>
       </c>
-      <c r="N213">
-        <v>1.533</v>
-      </c>
-      <c r="O213">
-        <v>4</v>
-      </c>
-      <c r="P213">
-        <v>5.25</v>
-      </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.775</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19436,7 +19466,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7630561</v>
+        <v>7630559</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19445,49 +19475,49 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45355.83680555555</v>
+        <v>45356.90277777778</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O214">
         <v>3.4</v>
       </c>
       <c r="P214">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19502,80 +19532,6 @@
         <v>0</v>
       </c>
       <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>7630559</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45356.90277777778</v>
-      </c>
-      <c r="F215" t="s">
-        <v>45</v>
-      </c>
-      <c r="G215" t="s">
-        <v>36</v>
-      </c>
-      <c r="K215">
-        <v>2.9</v>
-      </c>
-      <c r="L215">
-        <v>3.1</v>
-      </c>
-      <c r="M215">
-        <v>2.3</v>
-      </c>
-      <c r="N215">
-        <v>3.1</v>
-      </c>
-      <c r="O215">
-        <v>3.1</v>
-      </c>
-      <c r="P215">
-        <v>2.2</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.825</v>
-      </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.775</v>
-      </c>
-      <c r="V215">
-        <v>2.025</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Cucuta Deportivo</t>
   </si>
   <si>
-    <t>Llaneros</t>
+    <t>Real Cartagena</t>
   </si>
   <si>
-    <t>Real Cartagena</t>
+    <t>Llaneros</t>
   </si>
   <si>
     <t>Orsomarso</t>
@@ -145,10 +145,10 @@
     <t>Atletico Cali FC</t>
   </si>
   <si>
-    <t>Bogota FC</t>
+    <t>Barranquilla FC</t>
   </si>
   <si>
-    <t>Barranquilla FC</t>
+    <t>Bogota FC</t>
   </si>
   <si>
     <t>Leones</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,76 +1174,76 @@
         <v>45087.75</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N8">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,76 +1263,76 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
+        <v>1.615</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
         <v>1.533</v>
       </c>
-      <c r="L9">
-        <v>3.8</v>
-      </c>
-      <c r="M9">
+      <c r="O9">
+        <v>3.6</v>
+      </c>
+      <c r="P9">
         <v>5.75</v>
       </c>
-      <c r="N9">
-        <v>1.363</v>
-      </c>
-      <c r="O9">
-        <v>4.2</v>
-      </c>
-      <c r="P9">
-        <v>7.5</v>
-      </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>0.8</v>
+      </c>
+      <c r="AB9">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6695290</v>
+        <v>6695291</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,37 +1355,37 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
         <v>1.825</v>
@@ -1397,31 +1397,31 @@
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6695291</v>
+        <v>6695290</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,37 +1444,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1486,31 +1486,31 @@
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>45100.91666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -2064,10 +2064,10 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6883106</v>
+        <v>6883103</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,73 +2690,73 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P25">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6883103</v>
+        <v>6883106</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,73 +2779,73 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L26">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O26">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X26">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.925</v>
+      </c>
+      <c r="T32">
+        <v>2.75</v>
+      </c>
+      <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>1.85</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA32">
+        <v>-0.5</v>
+      </c>
+      <c r="AB32">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3491,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
@@ -4292,7 +4292,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>45156.83333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4912,10 +4912,10 @@
         <v>45158.75</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5001,7 +5001,7 @@
         <v>45158.79166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5182,7 +5182,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>45161.89583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N56">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
+        <v>2.9</v>
+      </c>
+      <c r="P56">
         <v>3.1</v>
       </c>
-      <c r="P56">
-        <v>2.8</v>
-      </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
+        <v>1.775</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>3</v>
       </c>
       <c r="M57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X57">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
         <v>-0</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5713,10 +5713,10 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,76 +6069,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>2.375</v>
+      </c>
+      <c r="O63">
         <v>3.2</v>
       </c>
-      <c r="M63">
+      <c r="P63">
+        <v>3.2</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>1.8</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>2.2</v>
       </c>
-      <c r="N63">
-        <v>2.4</v>
-      </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
-      <c r="P63">
-        <v>3</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.7</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>2.025</v>
-      </c>
-      <c r="V63">
-        <v>1.775</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2</v>
-      </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,55 +6158,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L64">
+        <v>3.2</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
+        <v>2.4</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
         <v>3</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
-        <v>2.375</v>
-      </c>
-      <c r="O64">
-        <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>3.2</v>
-      </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6215,19 +6215,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,10 +6247,10 @@
         <v>45166.72916666666</v>
       </c>
       <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
         <v>44</v>
-      </c>
-      <c r="G65" t="s">
-        <v>43</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6959,7 +6959,7 @@
         <v>45172.75</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -7137,7 +7137,7 @@
         <v>45172.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7229,7 +7229,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,25 +7493,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M79">
         <v>3.2</v>
@@ -7520,28 +7520,28 @@
         <v>2.55</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P79">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7550,19 +7550,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,25 +7582,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L80">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
         <v>3.2</v>
@@ -7609,28 +7609,28 @@
         <v>2.55</v>
       </c>
       <c r="O80">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P80">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7639,19 +7639,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>45175.875</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7938,10 +7938,10 @@
         <v>45177.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>45179.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89">
+        <v>1.5</v>
+      </c>
+      <c r="L89">
+        <v>4.333</v>
+      </c>
+      <c r="M89">
+        <v>6.5</v>
+      </c>
+      <c r="N89">
+        <v>1.615</v>
+      </c>
+      <c r="O89">
+        <v>3.8</v>
+      </c>
+      <c r="P89">
+        <v>5.75</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
         <v>2.25</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>2.4</v>
-      </c>
-      <c r="O89">
-        <v>3.1</v>
-      </c>
-      <c r="P89">
-        <v>3.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>2.05</v>
-      </c>
-      <c r="S89">
-        <v>1.75</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8561,7 +8561,7 @@
         <v>45180.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8650,7 +8650,7 @@
         <v>45181.75</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>50</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M94">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N94">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>50</v>
       </c>
       <c r="K95">
+        <v>2.375</v>
+      </c>
+      <c r="L95">
+        <v>3.1</v>
+      </c>
+      <c r="M95">
+        <v>2.75</v>
+      </c>
+      <c r="N95">
+        <v>3.3</v>
+      </c>
+      <c r="O95">
         <v>2.875</v>
       </c>
-      <c r="L95">
-        <v>2.9</v>
-      </c>
-      <c r="M95">
-        <v>2.3</v>
-      </c>
-      <c r="N95">
-        <v>2.625</v>
-      </c>
-      <c r="O95">
-        <v>3.4</v>
-      </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
         <v>-0</v>
-      </c>
-      <c r="AB95">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9095,10 +9095,10 @@
         <v>45184.79166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9276,7 +9276,7 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>45188.84027777778</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990792</v>
+        <v>6990794</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,46 +9807,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
         <v>2.25</v>
@@ -9858,25 +9858,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6990794</v>
+        <v>6990792</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,46 +9896,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.25</v>
@@ -9947,25 +9947,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10074,7 +10074,7 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -10252,7 +10252,7 @@
         <v>45192.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10341,7 +10341,7 @@
         <v>45192.84027777778</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10522,7 +10522,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10789,7 +10789,7 @@
         <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10964,7 +10964,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11056,7 +11056,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>45201.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11412,7 +11412,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>45203.875</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -11857,7 +11857,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11958,25 +11958,25 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>3.25</v>
+      </c>
+      <c r="N129">
+        <v>4.75</v>
+      </c>
+      <c r="O129">
         <v>3.5</v>
       </c>
-      <c r="M129">
-        <v>4.25</v>
-      </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.6</v>
-      </c>
       <c r="P129">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
         <v>2</v>
@@ -11985,16 +11985,16 @@
         <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12009,7 +12009,7 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,13 +12032,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12047,25 +12047,25 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N130">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
         <v>2</v>
@@ -12074,16 +12074,16 @@
         <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12210,10 +12210,10 @@
         <v>45207.83333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
         <v>36</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990821</v>
+        <v>6990825</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M134">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990820</v>
+        <v>6990821</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,73 +12480,73 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
         <v>3.6</v>
       </c>
       <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>2.1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.975</v>
-      </c>
-      <c r="S135">
-        <v>1.825</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>2</v>
-      </c>
-      <c r="V135">
-        <v>1.8</v>
-      </c>
-      <c r="W135">
-        <v>1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990822</v>
+        <v>6990824</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>50</v>
+      </c>
+      <c r="K136">
+        <v>2.05</v>
+      </c>
+      <c r="L136">
+        <v>2.9</v>
+      </c>
+      <c r="M136">
+        <v>3.5</v>
+      </c>
+      <c r="N136">
+        <v>2.1</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
-      <c r="J136" t="s">
-        <v>49</v>
-      </c>
-      <c r="K136">
-        <v>1.615</v>
-      </c>
-      <c r="L136">
-        <v>3.4</v>
-      </c>
-      <c r="M136">
-        <v>5</v>
-      </c>
-      <c r="N136">
-        <v>3.6</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
       <c r="P136">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
         <v>2.025</v>
       </c>
-      <c r="S136">
-        <v>1.775</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y136">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB136">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6990819</v>
+        <v>6990826</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M137">
+        <v>2.875</v>
+      </c>
+      <c r="N137">
+        <v>4.75</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
         <v>1.909</v>
       </c>
-      <c r="N137">
-        <v>5.25</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>1.615</v>
-      </c>
       <c r="Q137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z137">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990823</v>
+        <v>6990819</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>50</v>
+      </c>
+      <c r="K138">
+        <v>3.6</v>
+      </c>
+      <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>1.909</v>
+      </c>
+      <c r="N138">
+        <v>5.25</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>1.615</v>
+      </c>
+      <c r="Q138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
-      <c r="J138" t="s">
-        <v>49</v>
-      </c>
-      <c r="K138">
-        <v>1.909</v>
-      </c>
-      <c r="L138">
-        <v>3.4</v>
-      </c>
-      <c r="M138">
-        <v>3.5</v>
-      </c>
-      <c r="N138">
-        <v>2.6</v>
-      </c>
-      <c r="O138">
-        <v>3.2</v>
-      </c>
-      <c r="P138">
-        <v>2.875</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y138">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.825</v>
-      </c>
-      <c r="AC138">
-        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990826</v>
+        <v>6990822</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,56 +12833,56 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q139">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
+        <v>2.025</v>
+      </c>
+      <c r="S139">
+        <v>1.775</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.925</v>
+      </c>
+      <c r="V139">
         <v>1.875</v>
       </c>
-      <c r="S139">
-        <v>1.925</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
-      <c r="V139">
-        <v>1.9</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
@@ -12890,19 +12890,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB139">
         <v>0.925</v>
       </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990824</v>
+        <v>6990823</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140" t="s">
         <v>35</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
         <v>3.5</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990825</v>
+        <v>6990820</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,58 +13011,58 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>51</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N141">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13071,13 +13071,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13192,7 +13192,7 @@
         <v>45</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13278,7 +13278,7 @@
         <v>45217.72916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13370,7 +13370,7 @@
         <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13545,7 +13545,7 @@
         <v>45221.83333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -13723,10 +13723,10 @@
         <v>45222.89583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13901,7 +13901,7 @@
         <v>45225.82291666666</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13993,7 +13993,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14079,7 +14079,7 @@
         <v>45226.75</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
         <v>34</v>
@@ -14171,7 +14171,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14349,7 +14349,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14435,7 +14435,7 @@
         <v>45230.90277777778</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14527,7 +14527,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14702,10 +14702,10 @@
         <v>45235.89583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>45241.75</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>34</v>
@@ -14972,7 +14972,7 @@
         <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>45241.84375</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>45</v>
@@ -15592,7 +15592,7 @@
         <v>45324.75</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -15770,7 +15770,7 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>39</v>
@@ -15948,7 +15948,7 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16037,7 +16037,7 @@
         <v>45325.73958333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K176">
+        <v>2.2</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
         <v>3.2</v>
       </c>
-      <c r="L176">
-        <v>3.1</v>
-      </c>
-      <c r="M176">
+      <c r="N176">
+        <v>2.375</v>
+      </c>
+      <c r="O176">
+        <v>3.2</v>
+      </c>
+      <c r="P176">
+        <v>3.2</v>
+      </c>
+      <c r="Q176">
+        <v>-0.25</v>
+      </c>
+      <c r="R176">
+        <v>2.025</v>
+      </c>
+      <c r="S176">
+        <v>1.775</v>
+      </c>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>2.2</v>
       </c>
-      <c r="N176">
-        <v>3.3</v>
-      </c>
-      <c r="O176">
-        <v>3.25</v>
-      </c>
-      <c r="P176">
-        <v>2.2</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.775</v>
-      </c>
-      <c r="V176">
-        <v>2.025</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
+        <v>3.2</v>
+      </c>
+      <c r="L177">
+        <v>3.1</v>
+      </c>
+      <c r="M177">
         <v>2.2</v>
       </c>
-      <c r="L177">
-        <v>3</v>
-      </c>
-      <c r="M177">
-        <v>3.2</v>
-      </c>
       <c r="N177">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
+        <v>1.9</v>
+      </c>
+      <c r="S177">
+        <v>1.9</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.775</v>
+      </c>
+      <c r="V177">
         <v>2.025</v>
       </c>
-      <c r="S177">
-        <v>1.775</v>
-      </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.975</v>
-      </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16574,7 +16574,7 @@
         <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16841,7 +16841,7 @@
         <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16930,7 +16930,7 @@
         <v>48</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17105,7 +17105,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17283,7 +17283,7 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
         <v>45</v>
@@ -17372,7 +17372,7 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
         <v>46</v>
@@ -17639,7 +17639,7 @@
         <v>45339.75</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>34</v>
@@ -17909,7 +17909,7 @@
         <v>47</v>
       </c>
       <c r="G196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18265,7 +18265,7 @@
         <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18351,10 +18351,10 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18710,7 +18710,7 @@
         <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18796,7 +18796,7 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -19063,10 +19063,10 @@
         <v>45350.85416666666</v>
       </c>
       <c r="F209" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" t="s">
         <v>35</v>
-      </c>
-      <c r="G209" t="s">
-        <v>36</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7630565</v>
+        <v>7630564</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19327,64 +19327,79 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45354.72916666666</v>
+        <v>45353.83333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
       </c>
       <c r="K212">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N212">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19392,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7630561</v>
+        <v>7630566</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19401,64 +19416,79 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45355.83680555555</v>
+        <v>45354.72916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>49</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L213">
         <v>3.3</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB213">
+        <v>0.8</v>
+      </c>
+      <c r="AC213">
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19466,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7630559</v>
+        <v>7630565</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19475,34 +19505,43 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45356.90277777778</v>
+        <v>45354.72916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N214">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R214">
         <v>1.825</v>
@@ -19514,24 +19553,593 @@
         <v>2.25</v>
       </c>
       <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
+        <v>2</v>
+      </c>
+      <c r="W214">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.825</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>-0.5</v>
+      </c>
+      <c r="AC214">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7630562</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45355.75</v>
+      </c>
+      <c r="F215" t="s">
+        <v>34</v>
+      </c>
+      <c r="G215" t="s">
+        <v>47</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>50</v>
+      </c>
+      <c r="K215">
+        <v>1.8</v>
+      </c>
+      <c r="L215">
+        <v>3.2</v>
+      </c>
+      <c r="M215">
+        <v>4</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>4</v>
+      </c>
+      <c r="P215">
+        <v>5.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>1.9</v>
+      </c>
+      <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
+        <v>2</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>3</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7630561</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45355.83680555555</v>
+      </c>
+      <c r="F216" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" t="s">
+        <v>40</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>51</v>
+      </c>
+      <c r="K216">
+        <v>1.8</v>
+      </c>
+      <c r="L216">
+        <v>3.3</v>
+      </c>
+      <c r="M216">
+        <v>4</v>
+      </c>
+      <c r="N216">
+        <v>1.6</v>
+      </c>
+      <c r="O216">
+        <v>4</v>
+      </c>
+      <c r="P216">
+        <v>5.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>1.8</v>
+      </c>
+      <c r="V216">
+        <v>2</v>
+      </c>
+      <c r="W216">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>-0</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7630559</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45356.90277777778</v>
+      </c>
+      <c r="F217" t="s">
+        <v>45</v>
+      </c>
+      <c r="G217" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>49</v>
+      </c>
+      <c r="K217">
+        <v>2.9</v>
+      </c>
+      <c r="L217">
+        <v>3.1</v>
+      </c>
+      <c r="M217">
+        <v>2.3</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
+        <v>2.375</v>
+      </c>
+      <c r="Q217">
+        <v>0.25</v>
+      </c>
+      <c r="R217">
         <v>1.775</v>
       </c>
-      <c r="V214">
+      <c r="S217">
         <v>2.025</v>
       </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
+        <v>1.775</v>
+      </c>
+      <c r="V217">
+        <v>2.025</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>1.375</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>1.025</v>
+      </c>
+      <c r="AB217">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7630573</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45361.70833333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>44</v>
+      </c>
+      <c r="G218" t="s">
+        <v>31</v>
+      </c>
+      <c r="K218">
+        <v>3.6</v>
+      </c>
+      <c r="L218">
+        <v>3.2</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218">
+        <v>3.3</v>
+      </c>
+      <c r="P218">
+        <v>1.85</v>
+      </c>
+      <c r="Q218">
+        <v>0.5</v>
+      </c>
+      <c r="R218">
+        <v>1.925</v>
+      </c>
+      <c r="S218">
+        <v>1.875</v>
+      </c>
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
+        <v>1.975</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7630567</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45362.72916666666</v>
+      </c>
+      <c r="F219" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" t="s">
+        <v>45</v>
+      </c>
+      <c r="K219">
+        <v>2.1</v>
+      </c>
+      <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219">
+        <v>3.3</v>
+      </c>
+      <c r="P219">
+        <v>3.25</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.775</v>
+      </c>
+      <c r="S219">
+        <v>2.025</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.875</v>
+      </c>
+      <c r="V219">
+        <v>1.925</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7630570</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45362.72916666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>36</v>
+      </c>
+      <c r="G220" t="s">
+        <v>43</v>
+      </c>
+      <c r="K220">
+        <v>1.5</v>
+      </c>
+      <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
+        <v>5.5</v>
+      </c>
+      <c r="N220">
+        <v>1.5</v>
+      </c>
+      <c r="O220">
+        <v>3.75</v>
+      </c>
+      <c r="P220">
+        <v>5.5</v>
+      </c>
+      <c r="Q220">
+        <v>-1</v>
+      </c>
+      <c r="R220">
+        <v>1.9</v>
+      </c>
+      <c r="S220">
+        <v>1.9</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.925</v>
+      </c>
+      <c r="V220">
+        <v>1.875</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7630572</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45362.72916666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>37</v>
+      </c>
+      <c r="G221" t="s">
+        <v>40</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>3.1</v>
+      </c>
+      <c r="M221">
+        <v>3.6</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221">
+        <v>3.1</v>
+      </c>
+      <c r="P221">
+        <v>3.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.5</v>
+      </c>
+      <c r="R221">
+        <v>1.975</v>
+      </c>
+      <c r="S221">
+        <v>1.825</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>1.775</v>
+      </c>
+      <c r="V221">
+        <v>2.025</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,76 +1174,76 @@
         <v>45087.75</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
+        <v>1.615</v>
+      </c>
+      <c r="L8">
+        <v>3.6</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
         <v>1.533</v>
       </c>
-      <c r="L8">
-        <v>3.8</v>
-      </c>
-      <c r="M8">
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
         <v>5.75</v>
       </c>
-      <c r="N8">
-        <v>1.363</v>
-      </c>
-      <c r="O8">
-        <v>4.2</v>
-      </c>
-      <c r="P8">
-        <v>7.5</v>
-      </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.8</v>
+      </c>
+      <c r="AB8">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-0.5</v>
-      </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,76 +1263,76 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N9">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
         <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>1.825</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
       <c r="W23">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>3.4</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6990717</v>
+        <v>6990715</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,49 +3043,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>51</v>
       </c>
       <c r="K29">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
         <v>2.025</v>
@@ -3094,7 +3094,7 @@
         <v>1.775</v>
       </c>
       <c r="W29">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3103,7 +3103,7 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6990716</v>
+        <v>6990717</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M30">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>1.975</v>
-      </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
+        <v>2.025</v>
+      </c>
+      <c r="V30">
         <v>1.775</v>
       </c>
-      <c r="V30">
-        <v>2.025</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6990715</v>
+        <v>6990716</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
         <v>4</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>1.833</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
+        <v>1.975</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1.775</v>
+      </c>
+      <c r="V31">
         <v>2.025</v>
       </c>
-      <c r="S31">
-        <v>1.775</v>
-      </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>2.025</v>
-      </c>
-      <c r="V31">
-        <v>1.775</v>
-      </c>
       <c r="W31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>1.025</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>1.025</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6990719</v>
+        <v>6990718</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q32">
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6990718</v>
+        <v>6990719</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45144.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
         <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.85</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
-      <c r="V33">
-        <v>1.8</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA33">
+        <v>-0.5</v>
+      </c>
+      <c r="AB33">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,49 +3933,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3984,19 +3984,19 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990725</v>
+        <v>6990726</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,49 +4111,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
         <v>1.8</v>
@@ -4162,19 +4162,19 @@
         <v>2</v>
       </c>
       <c r="W41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,55 +6069,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L63">
+        <v>3.2</v>
+      </c>
+      <c r="M63">
+        <v>2.2</v>
+      </c>
+      <c r="N63">
+        <v>2.4</v>
+      </c>
+      <c r="O63">
+        <v>3.25</v>
+      </c>
+      <c r="P63">
         <v>3</v>
       </c>
-      <c r="M63">
-        <v>3</v>
-      </c>
-      <c r="N63">
-        <v>2.375</v>
-      </c>
-      <c r="O63">
-        <v>3.2</v>
-      </c>
-      <c r="P63">
-        <v>3.2</v>
-      </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6126,19 +6126,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>2.375</v>
+      </c>
+      <c r="O64">
         <v>3.2</v>
       </c>
-      <c r="M64">
+      <c r="P64">
+        <v>3.2</v>
+      </c>
+      <c r="Q64">
+        <v>-0.25</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>1.8</v>
+      </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>2.2</v>
       </c>
-      <c r="N64">
-        <v>2.4</v>
-      </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.7</v>
-      </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>2.025</v>
-      </c>
-      <c r="V64">
-        <v>1.775</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>2</v>
-      </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90">
+        <v>1.5</v>
+      </c>
+      <c r="L90">
+        <v>4.333</v>
+      </c>
+      <c r="M90">
+        <v>6.5</v>
+      </c>
+      <c r="N90">
+        <v>1.615</v>
+      </c>
+      <c r="O90">
+        <v>3.8</v>
+      </c>
+      <c r="P90">
+        <v>5.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
         <v>2.25</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>3</v>
-      </c>
-      <c r="N90">
-        <v>2.4</v>
-      </c>
-      <c r="O90">
-        <v>3.1</v>
-      </c>
-      <c r="P90">
-        <v>3.2</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>2.05</v>
-      </c>
-      <c r="S90">
-        <v>1.75</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990794</v>
+        <v>6990792</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,46 +9807,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.25</v>
@@ -9858,25 +9858,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6990792</v>
+        <v>6990794</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,46 +9896,46 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
         <v>2.25</v>
@@ -9947,25 +9947,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6990812</v>
+        <v>6990817</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11958,25 +11958,25 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
         <v>2</v>
@@ -11985,16 +11985,16 @@
         <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12009,7 +12009,7 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6990817</v>
+        <v>6990812</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,13 +12032,13 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12047,25 +12047,25 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>3.25</v>
+      </c>
+      <c r="N130">
+        <v>4.75</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="M130">
-        <v>4.25</v>
-      </c>
-      <c r="N130">
-        <v>1.75</v>
-      </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
       <c r="P130">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>2</v>
@@ -12074,16 +12074,16 @@
         <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990821</v>
+        <v>6990820</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
         <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
+        <v>1.975</v>
+      </c>
+      <c r="S135">
+        <v>1.825</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
         <v>1.8</v>
       </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X135">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6990826</v>
+        <v>6990821</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y137">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990819</v>
+        <v>6990822</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
+        <v>1.615</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>5</v>
+      </c>
+      <c r="N138">
         <v>3.6</v>
-      </c>
-      <c r="L138">
-        <v>3.25</v>
-      </c>
-      <c r="M138">
-        <v>1.909</v>
-      </c>
-      <c r="N138">
-        <v>5.25</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z138">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990822</v>
+        <v>6990826</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,55 +12833,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12890,19 +12890,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990823</v>
+        <v>6990819</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140">
+        <v>3.6</v>
+      </c>
+      <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>1.909</v>
+      </c>
+      <c r="N140">
+        <v>5.25</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>1.615</v>
+      </c>
+      <c r="Q140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
-      <c r="J140" t="s">
-        <v>49</v>
-      </c>
-      <c r="K140">
-        <v>1.909</v>
-      </c>
-      <c r="L140">
-        <v>3.4</v>
-      </c>
-      <c r="M140">
-        <v>3.5</v>
-      </c>
-      <c r="N140">
-        <v>2.6</v>
-      </c>
-      <c r="O140">
-        <v>3.2</v>
-      </c>
-      <c r="P140">
-        <v>2.875</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y140">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.825</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990820</v>
+        <v>6990823</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,73 +13011,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
         <v>3.4</v>
       </c>
       <c r="M141">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>1.875</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
         <v>1</v>
       </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7630525</v>
+        <v>7630524</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O172">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W172">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7630524</v>
+        <v>7630525</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N174">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q174">
+        <v>-0.75</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>1.95</v>
+      </c>
+      <c r="W174">
+        <v>0.615</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
         <v>-0.5</v>
       </c>
-      <c r="R174">
-        <v>1.9</v>
-      </c>
-      <c r="S174">
-        <v>1.9</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>1.975</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>2.4</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
-      <c r="AA174">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB174">
-        <v>0.825</v>
-      </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K191">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA191">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,76 +17550,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>49</v>
+      </c>
+      <c r="K192">
+        <v>2.7</v>
+      </c>
+      <c r="L192">
         <v>3</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
-      <c r="J192" t="s">
-        <v>51</v>
-      </c>
-      <c r="K192">
+      <c r="M192">
+        <v>2.45</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192">
+        <v>3.1</v>
+      </c>
+      <c r="P192">
+        <v>2.4</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
         <v>1.75</v>
       </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>4</v>
-      </c>
-      <c r="N192">
-        <v>1.727</v>
-      </c>
-      <c r="O192">
-        <v>3.8</v>
-      </c>
-      <c r="P192">
-        <v>4.75</v>
-      </c>
-      <c r="Q192">
-        <v>-0.75</v>
-      </c>
-      <c r="R192">
-        <v>1.925</v>
-      </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z192">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7630566</v>
+        <v>7630565</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,46 +19419,46 @@
         <v>45354.72916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K213">
+        <v>1.533</v>
+      </c>
+      <c r="L213">
         <v>4</v>
       </c>
-      <c r="L213">
-        <v>3.3</v>
-      </c>
       <c r="M213">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P213">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2.25</v>
@@ -19470,25 +19470,25 @@
         <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7630565</v>
+        <v>7630566</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,46 +19508,46 @@
         <v>45354.72916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N214">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
         <v>2.25</v>
@@ -19559,25 +19559,25 @@
         <v>2</v>
       </c>
       <c r="W214">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC214">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19882,28 +19882,28 @@
         <v>4</v>
       </c>
       <c r="O218">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q218">
         <v>0.5</v>
       </c>
       <c r="R218">
+        <v>1.875</v>
+      </c>
+      <c r="S218">
         <v>1.925</v>
-      </c>
-      <c r="S218">
-        <v>1.875</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19953,31 +19953,31 @@
         <v>3</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P219">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S219">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -20027,31 +20027,31 @@
         <v>5.5</v>
       </c>
       <c r="N220">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20101,31 +20101,31 @@
         <v>3.6</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O221">
         <v>3.1</v>
       </c>
       <c r="P221">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q221">
         <v>-0.5</v>
       </c>
       <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
         <v>1.975</v>
-      </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-      <c r="U221">
-        <v>1.775</v>
-      </c>
-      <c r="V221">
-        <v>2.025</v>
       </c>
       <c r="W221">
         <v>0</v>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Colombia Primera B</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Patriotas FC</t>
   </si>
   <si>
-    <t>Patriotas FC</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
     <t>Deportes Quindio</t>
@@ -133,10 +133,10 @@
     <t>Tigres FC</t>
   </si>
   <si>
-    <t>Boca Juniors De Cali</t>
+    <t>Real San Andres</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Boca Juniors De Cali</t>
   </si>
   <si>
     <t>Real Soacha Cundinamarca</t>
@@ -145,10 +145,10 @@
     <t>Atletico Cali FC</t>
   </si>
   <si>
-    <t>Barranquilla FC</t>
+    <t>Bogota FC</t>
   </si>
   <si>
-    <t>Bogota FC</t>
+    <t>Barranquilla FC</t>
   </si>
   <si>
     <t>Leones</t>
@@ -163,10 +163,10 @@
     <t>Atletico Huila</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q2">
         <v>-0.25</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
         <v>1.925</v>
       </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
       <c r="T3">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>1.75</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.875</v>
@@ -1085,7 +1085,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.8</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.615</v>
@@ -1263,10 +1263,10 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>2.875</v>
@@ -1530,7 +1530,7 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1622,7 +1622,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>4.2</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>3.3</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6838617</v>
+        <v>6838615</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1901,25 +1901,25 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -1940,22 +1940,22 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838615</v>
+        <v>6838617</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1990,25 +1990,25 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -2029,22 +2029,22 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,49 +2064,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N18">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.9</v>
@@ -2118,22 +2118,22 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y18">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,49 +2153,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
         <v>1.8</v>
       </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
         <v>1.9</v>
@@ -2207,22 +2207,22 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>1.7</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883102</v>
+        <v>6883101</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L23">
         <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883101</v>
+        <v>6883102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45136.72916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
         <v>3.4</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
+        <v>1.825</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
         <v>1.95</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6883103</v>
+        <v>6883106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,73 +2690,73 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O25">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X25">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6883106</v>
+        <v>6883103</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,73 +2779,73 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3132,10 +3132,10 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3313,7 +3313,7 @@
         <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>2.375</v>
@@ -3402,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3491,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>2.8</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.4</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,49 +3933,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>1.7</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>4.333</v>
+      </c>
+      <c r="N39">
+        <v>1.65</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>4.333</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.85</v>
       </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.85</v>
-      </c>
-      <c r="O39">
-        <v>3.25</v>
-      </c>
-      <c r="P39">
-        <v>3.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3984,19 +3984,19 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,10 +4022,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4034,34 +4034,34 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M40">
+        <v>6.5</v>
+      </c>
+      <c r="N40">
+        <v>1.363</v>
+      </c>
+      <c r="O40">
         <v>4.333</v>
       </c>
-      <c r="N40">
-        <v>1.65</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.5</v>
@@ -4079,13 +4079,13 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,49 +4111,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>1.8</v>
@@ -4162,19 +4162,19 @@
         <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -4200,10 +4200,10 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>3.1</v>
@@ -4378,11 +4378,11 @@
         <v>45153.90277777778</v>
       </c>
       <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s">
         <v>39</v>
       </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>2.4</v>
@@ -4467,7 +4467,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4479,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>2.6</v>
@@ -4556,7 +4556,7 @@
         <v>45156.83333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4645,7 +4645,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4826,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4915,7 +4915,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>1.75</v>
@@ -5182,7 +5182,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>1.5</v>
@@ -5271,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5446,10 +5446,10 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>3.75</v>
@@ -5713,7 +5713,7 @@
         <v>45163.66666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -5891,7 +5891,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2.15</v>
@@ -5983,7 +5983,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6170,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2.25</v>
@@ -6247,10 +6247,10 @@
         <v>45166.72916666666</v>
       </c>
       <c r="F65" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" t="s">
         <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6425,7 +6425,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6603,7 +6603,7 @@
         <v>45170.75</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6692,10 +6692,10 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>2.6</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>1.571</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74">
         <v>1.727</v>
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7226,10 +7226,10 @@
         <v>45173.75</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>1.533</v>
@@ -7407,7 +7407,7 @@
         <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.1</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.8</v>
@@ -7852,7 +7852,7 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>45177.79166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
         <v>35</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8116,7 +8116,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>45</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>1.666</v>
@@ -8294,7 +8294,7 @@
         <v>45179.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -8306,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8383,7 +8383,7 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
         <v>36</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8472,7 +8472,7 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8561,7 +8561,7 @@
         <v>45180.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>3.2</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>1.5</v>
@@ -8742,7 +8742,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>2.7</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>2.375</v>
+      </c>
+      <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
+        <v>2.75</v>
+      </c>
+      <c r="N94">
+        <v>3.3</v>
+      </c>
+      <c r="O94">
         <v>2.875</v>
       </c>
-      <c r="L94">
-        <v>2.9</v>
-      </c>
-      <c r="M94">
-        <v>2.3</v>
-      </c>
-      <c r="N94">
-        <v>2.625</v>
-      </c>
-      <c r="O94">
-        <v>3.4</v>
-      </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
         <v>-0</v>
-      </c>
-      <c r="AB94">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9098,7 +9098,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9187,7 +9187,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9365,7 +9365,7 @@
         <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9451,7 +9451,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>1.909</v>
@@ -9629,7 +9629,7 @@
         <v>45188.84027777778</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9718,7 +9718,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -9896,7 +9896,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9908,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.909</v>
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
         <v>1.833</v>
@@ -10074,7 +10074,7 @@
         <v>45190.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10175,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10255,7 +10255,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10442,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>3.2</v>
@@ -10522,7 +10522,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10611,7 +10611,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10697,7 +10697,7 @@
         <v>45195.72916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10789,7 +10789,7 @@
         <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10875,7 +10875,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10887,7 +10887,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10964,7 +10964,7 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11142,7 +11142,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.55</v>
@@ -11231,10 +11231,10 @@
         <v>45201.72916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.444</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>2.1</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11765,7 +11765,7 @@
         <v>45205.75</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>1.75</v>
@@ -11857,7 +11857,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11943,10 +11943,10 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12035,7 +12035,7 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12133,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>1.666</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990825</v>
+        <v>6990822</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,73 +12388,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K134">
+        <v>1.615</v>
+      </c>
+      <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>5</v>
+      </c>
+      <c r="N134">
+        <v>3.6</v>
+      </c>
+      <c r="O134">
         <v>4</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134" t="s">
-        <v>51</v>
-      </c>
-      <c r="K134">
-        <v>1.363</v>
-      </c>
-      <c r="L134">
-        <v>4.2</v>
-      </c>
-      <c r="M134">
-        <v>8</v>
-      </c>
-      <c r="N134">
-        <v>1.3</v>
-      </c>
-      <c r="O134">
-        <v>5.5</v>
-      </c>
       <c r="P134">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="V134">
-        <v>1.925</v>
-      </c>
       <c r="W134">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990820</v>
+        <v>6990823</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,73 +12477,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
         <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>1.875</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>1</v>
       </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990824</v>
+        <v>6990819</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136">
+        <v>3.6</v>
+      </c>
+      <c r="L136">
+        <v>3.25</v>
+      </c>
+      <c r="M136">
+        <v>1.909</v>
+      </c>
+      <c r="N136">
+        <v>5.25</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>1.615</v>
+      </c>
+      <c r="Q136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136" t="s">
-        <v>50</v>
-      </c>
-      <c r="K136">
-        <v>2.05</v>
-      </c>
-      <c r="L136">
-        <v>2.9</v>
-      </c>
-      <c r="M136">
-        <v>3.5</v>
-      </c>
-      <c r="N136">
-        <v>2.1</v>
-      </c>
-      <c r="O136">
+      <c r="R136">
+        <v>1.725</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
+        <v>1.825</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
         <v>3</v>
       </c>
-      <c r="P136">
-        <v>4.2</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.775</v>
-      </c>
-      <c r="S136">
-        <v>2.025</v>
-      </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>2</v>
-      </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.15</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990822</v>
+        <v>6990824</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>49</v>
       </c>
       <c r="K138">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P138">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
         <v>2.025</v>
       </c>
-      <c r="S138">
-        <v>1.775</v>
-      </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y138">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990826</v>
+        <v>6990820</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990819</v>
+        <v>6990825</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N140">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P140">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X140">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990823</v>
+        <v>6990826</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,55 +13011,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>2</v>
-      </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
+        <v>2.375</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>2.875</v>
+      </c>
+      <c r="N141">
+        <v>4.75</v>
+      </c>
+      <c r="O141">
+        <v>3.1</v>
+      </c>
+      <c r="P141">
         <v>1.909</v>
       </c>
-      <c r="L141">
-        <v>3.4</v>
-      </c>
-      <c r="M141">
-        <v>3.5</v>
-      </c>
-      <c r="N141">
-        <v>2.6</v>
-      </c>
-      <c r="O141">
-        <v>3.2</v>
-      </c>
-      <c r="P141">
-        <v>2.875</v>
-      </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13068,19 +13068,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>45215.72916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13278,7 +13278,7 @@
         <v>45217.72916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13548,7 +13548,7 @@
         <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13726,7 +13726,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13815,7 +13815,7 @@
         <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -14002,7 +14002,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14079,7 +14079,7 @@
         <v>45226.75</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
         <v>34</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>3.2</v>
@@ -14171,7 +14171,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>45230.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
         <v>45</v>
@@ -14269,7 +14269,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>5</v>
@@ -14524,7 +14524,7 @@
         <v>45234.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>35</v>
@@ -14702,7 +14702,7 @@
         <v>45235.89583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>3.2</v>
@@ -14972,7 +14972,7 @@
         <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>1.833</v>
@@ -15061,7 +15061,7 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>4</v>
@@ -15414,7 +15414,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15506,7 +15506,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15592,7 +15592,7 @@
         <v>45324.75</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -15604,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K170">
         <v>3</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7630524</v>
+        <v>7630525</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q172">
+        <v>-0.75</v>
+      </c>
+      <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
+        <v>0.615</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>0.8</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>-0.5</v>
       </c>
-      <c r="R172">
-        <v>1.9</v>
-      </c>
-      <c r="S172">
-        <v>1.9</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.825</v>
-      </c>
-      <c r="V172">
-        <v>1.975</v>
-      </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>2.4</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
-      <c r="Z172">
-        <v>-1</v>
-      </c>
-      <c r="AA172">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>0.825</v>
-      </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,61 +15859,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N173">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.9</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -15922,13 +15922,13 @@
         <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB173">
         <v>0.825</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7630525</v>
+        <v>7630523</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O174">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7630522</v>
+        <v>7630528</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,13 +16126,13 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -16141,61 +16141,61 @@
         <v>50</v>
       </c>
       <c r="K176">
+        <v>3.2</v>
+      </c>
+      <c r="L176">
+        <v>3.1</v>
+      </c>
+      <c r="M176">
         <v>2.2</v>
       </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>3.2</v>
-      </c>
       <c r="N176">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>1.775</v>
+      </c>
+      <c r="V176">
         <v>2.025</v>
       </c>
-      <c r="S176">
-        <v>1.775</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7630528</v>
+        <v>7630522</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,13 +16215,13 @@
         <v>45326.72916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16230,61 +16230,61 @@
         <v>49</v>
       </c>
       <c r="K177">
+        <v>2.2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
         <v>3.2</v>
       </c>
-      <c r="L177">
-        <v>3.1</v>
-      </c>
-      <c r="M177">
+      <c r="N177">
+        <v>2.375</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>3.2</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
+        <v>2.025</v>
+      </c>
+      <c r="S177">
+        <v>1.775</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
+        <v>1.825</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>2.2</v>
       </c>
-      <c r="N177">
-        <v>3.3</v>
-      </c>
-      <c r="O177">
-        <v>3.25</v>
-      </c>
-      <c r="P177">
-        <v>2.2</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>2.025</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.5</v>
@@ -16396,7 +16396,7 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,73 +16482,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O180">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z180">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,73 +16571,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F181" t="s">
+        <v>41</v>
+      </c>
+      <c r="G181" t="s">
         <v>39</v>
       </c>
-      <c r="G181" t="s">
-        <v>44</v>
-      </c>
       <c r="H181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K181">
+        <v>3.25</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>2.3</v>
+      </c>
+      <c r="N181">
         <v>2.1</v>
       </c>
-      <c r="L181">
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>3.6</v>
-      </c>
-      <c r="N181">
-        <v>1.95</v>
-      </c>
-      <c r="O181">
-        <v>3.3</v>
-      </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16672,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
         <v>1.7</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>2.2</v>
@@ -17016,7 +17016,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17028,7 +17028,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>1.4</v>
@@ -17105,7 +17105,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17117,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>2.05</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>49</v>
       </c>
       <c r="K188">
+        <v>3.6</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>2.1</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>3.4</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
         <v>2.5</v>
       </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>2.5</v>
       </c>
-      <c r="N188">
-        <v>3</v>
-      </c>
-      <c r="O188">
-        <v>3.1</v>
-      </c>
-      <c r="P188">
-        <v>2.15</v>
-      </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.75</v>
-      </c>
-      <c r="V188">
-        <v>2.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
       <c r="Y188">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB188">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,73 +17283,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
         <v>50</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17384,7 +17384,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K190">
         <v>1.5</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>50</v>
+      </c>
+      <c r="K191">
+        <v>2.7</v>
+      </c>
+      <c r="L191">
         <v>3</v>
       </c>
-      <c r="I191">
-        <v>2</v>
-      </c>
-      <c r="J191" t="s">
-        <v>51</v>
-      </c>
-      <c r="K191">
+      <c r="M191">
+        <v>2.45</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191">
+        <v>3.1</v>
+      </c>
+      <c r="P191">
+        <v>2.4</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
         <v>1.75</v>
       </c>
-      <c r="L191">
-        <v>3.4</v>
-      </c>
-      <c r="M191">
-        <v>4</v>
-      </c>
-      <c r="N191">
-        <v>1.727</v>
-      </c>
-      <c r="O191">
-        <v>3.8</v>
-      </c>
-      <c r="P191">
-        <v>4.75</v>
-      </c>
-      <c r="Q191">
-        <v>-0.75</v>
-      </c>
-      <c r="R191">
-        <v>1.925</v>
-      </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z191">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,76 +17550,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA192">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>2.55</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17820,7 +17820,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17909,7 +17909,7 @@
         <v>47</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17918,7 +17918,7 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>1.533</v>
@@ -18096,7 +18096,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>2.75</v>
@@ -18176,7 +18176,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18274,7 +18274,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K200">
         <v>4</v>
@@ -18354,7 +18354,7 @@
         <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18452,7 +18452,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K202">
         <v>4</v>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K204">
         <v>1.727</v>
@@ -18707,10 +18707,10 @@
         <v>45348.75</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18796,7 +18796,7 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
         <v>48</v>
@@ -18885,7 +18885,7 @@
         <v>45349.72916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
         <v>42</v>
@@ -18897,7 +18897,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18986,7 +18986,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K208">
         <v>1.909</v>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>1.727</v>
@@ -19244,7 +19244,7 @@
         <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>1.333</v>
@@ -19422,7 +19422,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19520,7 +19520,7 @@
         <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K214">
         <v>4</v>
@@ -19609,7 +19609,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K215">
         <v>1.8</v>
@@ -19686,10 +19686,10 @@
         <v>45355.83680555555</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19787,7 +19787,7 @@
         <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K217">
         <v>2.9</v>
@@ -19864,11 +19864,20 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G218" t="s">
         <v>31</v>
       </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>49</v>
+      </c>
       <c r="K218">
         <v>3.6</v>
       </c>
@@ -19879,46 +19888,52 @@
         <v>2</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q218">
         <v>0.5</v>
       </c>
       <c r="R218">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S218">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC218">
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19926,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7630567</v>
+        <v>7630569</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19935,64 +19950,79 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45362.72916666666</v>
+        <v>45361.72916666666</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N219">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>1.025</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20000,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7630570</v>
+        <v>7630567</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20012,61 +20042,76 @@
         <v>45362.72916666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>51</v>
       </c>
       <c r="K220">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M220">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N220">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O220">
         <v>3.5</v>
       </c>
       <c r="P220">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20074,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7630572</v>
+        <v>7630570</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20086,61 +20131,165 @@
         <v>45362.72916666666</v>
       </c>
       <c r="F221" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" t="s">
+        <v>44</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>51</v>
+      </c>
+      <c r="K221">
+        <v>1.5</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>5.5</v>
+      </c>
+      <c r="N221">
+        <v>1.666</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>5.5</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>1.95</v>
+      </c>
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
+        <v>1.95</v>
+      </c>
+      <c r="V221">
+        <v>1.75</v>
+      </c>
+      <c r="W221">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
+        <v>0.425</v>
+      </c>
+      <c r="AA221">
+        <v>-0.5</v>
+      </c>
+      <c r="AB221">
+        <v>0.95</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7630572</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45362.72916666666</v>
+      </c>
+      <c r="F222" t="s">
         <v>37</v>
       </c>
-      <c r="G221" t="s">
-        <v>40</v>
-      </c>
-      <c r="K221">
-        <v>2</v>
-      </c>
-      <c r="L221">
+      <c r="G222" t="s">
+        <v>39</v>
+      </c>
+      <c r="H222">
+        <v>4</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>51</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
         <v>3.1</v>
       </c>
-      <c r="M221">
+      <c r="M222">
         <v>3.6</v>
       </c>
-      <c r="N221">
+      <c r="N222">
+        <v>1.8</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>5.25</v>
+      </c>
+      <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>1.975</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
         <v>1.85</v>
       </c>
-      <c r="O221">
-        <v>3.1</v>
-      </c>
-      <c r="P221">
-        <v>4.2</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
-      </c>
-      <c r="R221">
+      <c r="V222">
         <v>1.95</v>
       </c>
-      <c r="S221">
-        <v>1.85</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-      <c r="U221">
-        <v>1.825</v>
-      </c>
-      <c r="V221">
-        <v>1.975</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
-        <v>0</v>
+      <c r="W222">
+        <v>0.8</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA222">
+        <v>-1</v>
+      </c>
+      <c r="AB222">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC222">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Colombia Primera B</t>
   </si>
   <si>
-    <t>Patriotas FC</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Patriotas FC</t>
   </si>
   <si>
     <t>Deportes Quindio</t>
@@ -133,10 +133,10 @@
     <t>Tigres FC</t>
   </si>
   <si>
-    <t>Real San Andres</t>
+    <t>Boca Juniors De Cali</t>
   </si>
   <si>
-    <t>Boca Juniors De Cali</t>
+    <t>Real San Andres</t>
   </si>
   <si>
     <t>Real Soacha Cundinamarca</t>
@@ -163,10 +163,10 @@
     <t>Atletico Huila</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC222"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N2">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <v>-0.25</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
         <v>1.925</v>
       </c>
-      <c r="S2">
-        <v>1.875</v>
-      </c>
       <c r="T2">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>1.75</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>2.875</v>
@@ -1085,7 +1085,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>2.8</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>1.615</v>
@@ -1263,10 +1263,10 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2.875</v>
@@ -1530,7 +1530,7 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1622,7 +1622,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>4.2</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>3.3</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6838615</v>
+        <v>6838617</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1901,25 +1901,25 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -1940,22 +1940,22 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6838617</v>
+        <v>6838615</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1990,25 +1990,25 @@
         <v>49</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -2029,22 +2029,22 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6959921</v>
+        <v>6838616</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,49 +2064,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
         <v>1.9</v>
@@ -2118,22 +2118,22 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6838616</v>
+        <v>6959921</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,49 +2153,49 @@
         <v>45130.72916666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
         <v>1.9</v>
@@ -2207,22 +2207,22 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2331,7 +2331,7 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>1.7</v>
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>1.833</v>
@@ -2690,7 +2690,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.55</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3132,10 +3132,10 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>2.375</v>
@@ -3402,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3500,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2.8</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>2.4</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990727</v>
+        <v>6990725</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,49 +3933,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3984,19 +3984,19 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6990726</v>
+        <v>6990727</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,10 +4022,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4034,34 +4034,34 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N40">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
+        <v>3.6</v>
+      </c>
+      <c r="P40">
         <v>4.333</v>
       </c>
-      <c r="P40">
-        <v>7</v>
-      </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
         <v>2.5</v>
@@ -4079,13 +4079,13 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>6</v>
+        <v>3.333</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990725</v>
+        <v>6990726</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,49 +4111,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
         <v>1.8</v>
@@ -4162,19 +4162,19 @@
         <v>2</v>
       </c>
       <c r="W41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -4203,7 +4203,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>3.1</v>
@@ -4378,11 +4378,11 @@
         <v>45153.90277777778</v>
       </c>
       <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
         <v>40</v>
       </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>2.4</v>
@@ -4467,7 +4467,7 @@
         <v>45156.73958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4479,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>2.6</v>
@@ -4645,7 +4645,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4826,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>1.75</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>1.5</v>
@@ -5271,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O56">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
         <v>-0</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L57">
         <v>3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N57">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O57">
+        <v>2.9</v>
+      </c>
+      <c r="P57">
         <v>3.1</v>
       </c>
-      <c r="P57">
-        <v>2.8</v>
-      </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
+        <v>1.775</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.925</v>
-      </c>
-      <c r="V57">
-        <v>1.875</v>
-      </c>
       <c r="W57">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -5891,7 +5891,7 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.15</v>
@@ -5983,7 +5983,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6990754</v>
+        <v>7121333</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,76 +6069,76 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>2.375</v>
+      </c>
+      <c r="O63">
         <v>3.2</v>
       </c>
-      <c r="M63">
+      <c r="P63">
+        <v>3.2</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>1.8</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>2.2</v>
       </c>
-      <c r="N63">
-        <v>2.4</v>
-      </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
-      <c r="P63">
-        <v>3</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.7</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>2.025</v>
-      </c>
-      <c r="V63">
-        <v>1.775</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>2</v>
-      </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7121333</v>
+        <v>6990754</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,55 +6158,55 @@
         <v>45166.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L64">
+        <v>3.2</v>
+      </c>
+      <c r="M64">
+        <v>2.2</v>
+      </c>
+      <c r="N64">
+        <v>2.4</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
         <v>3</v>
       </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
-      <c r="N64">
-        <v>2.375</v>
-      </c>
-      <c r="O64">
-        <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>3.2</v>
-      </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6215,19 +6215,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6425,7 +6425,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6603,7 +6603,7 @@
         <v>45170.75</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6695,7 +6695,7 @@
         <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2.6</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>1.571</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6990762</v>
+        <v>6990759</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45172.75</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
+        <v>1.75</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>2.25</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="T73">
-        <v>2.5</v>
-      </c>
-      <c r="U73">
-        <v>1.975</v>
-      </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6990759</v>
+        <v>6990762</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45172.75</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
+        <v>5.25</v>
+      </c>
+      <c r="N74">
+        <v>1.571</v>
+      </c>
+      <c r="O74">
         <v>4</v>
       </c>
-      <c r="N74">
-        <v>1.8</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
-      </c>
       <c r="P74">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7226,7 +7226,7 @@
         <v>45173.75</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7318,7 +7318,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>1.533</v>
@@ -7407,7 +7407,7 @@
         <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6990770</v>
+        <v>6990769</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,25 +7493,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L79">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
         <v>3.2</v>
@@ -7520,28 +7520,28 @@
         <v>2.55</v>
       </c>
       <c r="O79">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7550,19 +7550,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.675</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6990769</v>
+        <v>6990770</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,25 +7582,25 @@
         <v>45175.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M80">
         <v>3.2</v>
@@ -7609,28 +7609,28 @@
         <v>2.55</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7639,19 +7639,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0.675</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2.8</v>
@@ -7852,7 +7852,7 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8116,7 +8116,7 @@
         <v>45178.70833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
         <v>45</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>1.666</v>
@@ -8306,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6990772</v>
+        <v>6990776</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K89">
+        <v>1.5</v>
+      </c>
+      <c r="L89">
+        <v>4.333</v>
+      </c>
+      <c r="M89">
+        <v>6.5</v>
+      </c>
+      <c r="N89">
+        <v>1.615</v>
+      </c>
+      <c r="O89">
+        <v>3.8</v>
+      </c>
+      <c r="P89">
+        <v>5.75</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1.8</v>
+      </c>
+      <c r="T89">
         <v>2.25</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>2.4</v>
-      </c>
-      <c r="O89">
-        <v>3.1</v>
-      </c>
-      <c r="P89">
-        <v>3.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>2.05</v>
-      </c>
-      <c r="S89">
-        <v>1.75</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6990776</v>
+        <v>6990772</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>3.2</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>1.5</v>
@@ -8742,7 +8742,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.7</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6990785</v>
+        <v>6990779</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M94">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N94">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6990779</v>
+        <v>6990785</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45184.72916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
+        <v>2.375</v>
+      </c>
+      <c r="L95">
+        <v>3.1</v>
+      </c>
+      <c r="M95">
+        <v>2.75</v>
+      </c>
+      <c r="N95">
+        <v>3.3</v>
+      </c>
+      <c r="O95">
         <v>2.875</v>
       </c>
-      <c r="L95">
-        <v>2.9</v>
-      </c>
-      <c r="M95">
-        <v>2.3</v>
-      </c>
-      <c r="N95">
-        <v>2.625</v>
-      </c>
-      <c r="O95">
-        <v>3.4</v>
-      </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
         <v>-0</v>
-      </c>
-      <c r="AB95">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9187,7 +9187,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9451,7 +9451,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>1.909</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,10 +9718,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9733,34 +9733,34 @@
         <v>51</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
         <v>1.85</v>
@@ -9769,7 +9769,7 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,10 +9778,10 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,10 +9807,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9822,34 +9822,34 @@
         <v>51</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -9858,7 +9858,7 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9896,7 +9896,7 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9908,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.909</v>
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.833</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10175,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10255,7 +10255,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10442,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>3.2</v>
@@ -10611,7 +10611,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10697,7 +10697,7 @@
         <v>45195.72916666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10875,7 +10875,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10887,7 +10887,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11142,7 +11142,7 @@
         <v>45200.72916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.55</v>
@@ -11234,7 +11234,7 @@
         <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>1.444</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.1</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11765,7 +11765,7 @@
         <v>45205.75</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.75</v>
@@ -11943,7 +11943,7 @@
         <v>45206.72916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12035,7 +12035,7 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12133,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>1.666</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990822</v>
+        <v>6990824</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M134">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N134">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990823</v>
+        <v>6990822</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,55 +12477,55 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L135">
         <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12534,16 +12534,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990819</v>
+        <v>6990823</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>49</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N136">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="Q136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z136">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6990821</v>
+        <v>6990825</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X137">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990824</v>
+        <v>6990821</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,10 +12744,10 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12756,49 +12756,49 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L138">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
@@ -12807,13 +12807,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990820</v>
+        <v>6990819</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>50</v>
+      </c>
+      <c r="K139">
+        <v>3.6</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>1.909</v>
+      </c>
+      <c r="N139">
+        <v>5.25</v>
+      </c>
+      <c r="O139">
+        <v>4</v>
+      </c>
+      <c r="P139">
+        <v>1.615</v>
+      </c>
+      <c r="Q139">
         <v>1</v>
       </c>
-      <c r="J139" t="s">
-        <v>51</v>
-      </c>
-      <c r="K139">
-        <v>1.833</v>
-      </c>
-      <c r="L139">
-        <v>3.4</v>
-      </c>
-      <c r="M139">
-        <v>3.75</v>
-      </c>
-      <c r="N139">
-        <v>2</v>
-      </c>
-      <c r="O139">
-        <v>3.6</v>
-      </c>
-      <c r="P139">
-        <v>3.6</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
       <c r="R139">
+        <v>1.725</v>
+      </c>
+      <c r="S139">
         <v>1.975</v>
-      </c>
-      <c r="S139">
-        <v>1.825</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6990825</v>
+        <v>6990826</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,40 +12922,40 @@
         <v>45210.71875</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O140">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
         <v>1.875</v>
@@ -12964,34 +12964,34 @@
         <v>1.925</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990826</v>
+        <v>6990820</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N141">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>45215.72916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13548,7 +13548,7 @@
         <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13815,7 +13815,7 @@
         <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -14002,7 +14002,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>3.2</v>
@@ -14257,7 +14257,7 @@
         <v>45230.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
         <v>45</v>
@@ -14269,7 +14269,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>5</v>
@@ -14524,7 +14524,7 @@
         <v>45234.72916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
         <v>35</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>3.2</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7452587</v>
+        <v>7452586</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,49 +14880,49 @@
         <v>45241.75</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>1.833</v>
       </c>
       <c r="L162">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N162">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O162">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>1.875</v>
@@ -14931,19 +14931,19 @@
         <v>1.925</v>
       </c>
       <c r="W162">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7452586</v>
+        <v>7452587</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,49 +14969,49 @@
         <v>45241.75</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K163">
         <v>1.833</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
         <v>1.875</v>
@@ -15020,19 +15020,19 @@
         <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X163">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -15061,7 +15061,7 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>4</v>
@@ -15414,7 +15414,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15506,7 +15506,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>3</v>
@@ -15773,7 +15773,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7630524</v>
+        <v>7630523</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,61 +15859,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -15922,13 +15922,13 @@
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.825</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7630523</v>
+        <v>7630524</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,61 +15948,61 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
         <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.9</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
         <v>1.975</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.975</v>
-      </c>
-      <c r="V174">
-        <v>1.825</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
         <v>-1</v>
@@ -16011,13 +16011,13 @@
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB174">
         <v>0.825</v>
       </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>3.2</v>
@@ -16227,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>2.2</v>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2.5</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7630530</v>
+        <v>7630531</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,73 +16482,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
         <v>40</v>
       </c>
-      <c r="G180" t="s">
-        <v>43</v>
-      </c>
       <c r="H180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
+        <v>3.25</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>2.3</v>
+      </c>
+      <c r="N180">
         <v>2.1</v>
       </c>
-      <c r="L180">
+      <c r="O180">
         <v>3.2</v>
       </c>
-      <c r="M180">
-        <v>3.6</v>
-      </c>
-      <c r="N180">
-        <v>1.95</v>
-      </c>
-      <c r="O180">
-        <v>3.3</v>
-      </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7630531</v>
+        <v>7630530</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,73 +16571,73 @@
         <v>45332.72916666666</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O181">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16672,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.7</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>2.2</v>
@@ -17016,7 +17016,7 @@
         <v>45337.72916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17028,7 +17028,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>1.4</v>
@@ -17117,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K187">
         <v>2.05</v>
@@ -17206,7 +17206,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>3.6</v>
@@ -17295,7 +17295,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>2.5</v>
@@ -17384,7 +17384,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>1.5</v>
@@ -17461,7 +17461,7 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
         <v>48</v>
@@ -17473,7 +17473,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>2.7</v>
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K193">
         <v>2.55</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17820,7 +17820,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17918,7 +17918,7 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>1.533</v>
@@ -18096,7 +18096,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K198">
         <v>2.75</v>
@@ -18176,7 +18176,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18274,7 +18274,7 @@
         <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>4</v>
@@ -18452,7 +18452,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>4</v>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>1.727</v>
@@ -18707,7 +18707,7 @@
         <v>45348.75</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
         <v>44</v>
@@ -18885,7 +18885,7 @@
         <v>45349.72916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
         <v>42</v>
@@ -18897,7 +18897,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18986,7 +18986,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K208">
         <v>1.909</v>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>1.727</v>
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K212">
         <v>1.333</v>
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7630565</v>
+        <v>7630566</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,46 +19419,46 @@
         <v>45354.72916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K213">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N213">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.25</v>
@@ -19470,25 +19470,25 @@
         <v>2</v>
       </c>
       <c r="W213">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7630566</v>
+        <v>7630565</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,46 +19508,46 @@
         <v>45354.72916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K214">
+        <v>1.533</v>
+      </c>
+      <c r="L214">
         <v>4</v>
       </c>
-      <c r="L214">
-        <v>3.3</v>
-      </c>
       <c r="M214">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
         <v>2.25</v>
@@ -19559,25 +19559,25 @@
         <v>2</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19609,7 +19609,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K215">
         <v>1.8</v>
@@ -19689,7 +19689,7 @@
         <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19787,7 +19787,7 @@
         <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>2.9</v>
@@ -19876,7 +19876,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K218">
         <v>3.6</v>
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K219">
         <v>2.25</v>
@@ -20042,7 +20042,7 @@
         <v>45362.72916666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
         <v>45</v>
@@ -20223,7 +20223,7 @@
         <v>37</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H222">
         <v>4</v>
@@ -20290,6 +20290,925 @@
       </c>
       <c r="AC222">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7630635</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45362.83333333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>47</v>
+      </c>
+      <c r="G223" t="s">
+        <v>35</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>50</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3.2</v>
+      </c>
+      <c r="M223">
+        <v>3.4</v>
+      </c>
+      <c r="N223">
+        <v>3.2</v>
+      </c>
+      <c r="O223">
+        <v>3.1</v>
+      </c>
+      <c r="P223">
+        <v>2.4</v>
+      </c>
+      <c r="Q223">
+        <v>0.25</v>
+      </c>
+      <c r="R223">
+        <v>1.775</v>
+      </c>
+      <c r="S223">
+        <v>2.025</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
+        <v>1.8</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>2.1</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>0.3875</v>
+      </c>
+      <c r="AA223">
+        <v>-0.5</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7630568</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45363.79166666666</v>
+      </c>
+      <c r="F224" t="s">
+        <v>41</v>
+      </c>
+      <c r="G224" t="s">
+        <v>42</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>51</v>
+      </c>
+      <c r="K224">
+        <v>2.1</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>3.6</v>
+      </c>
+      <c r="N224">
+        <v>1.666</v>
+      </c>
+      <c r="O224">
+        <v>3.75</v>
+      </c>
+      <c r="P224">
+        <v>5</v>
+      </c>
+      <c r="Q224">
+        <v>-0.75</v>
+      </c>
+      <c r="R224">
+        <v>1.8</v>
+      </c>
+      <c r="S224">
+        <v>2</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>1.85</v>
+      </c>
+      <c r="V224">
+        <v>1.95</v>
+      </c>
+      <c r="W224">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>0.4</v>
+      </c>
+      <c r="AA224">
+        <v>-0.5</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7630571</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45363.87847222222</v>
+      </c>
+      <c r="F225" t="s">
+        <v>48</v>
+      </c>
+      <c r="G225" t="s">
+        <v>34</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>51</v>
+      </c>
+      <c r="K225">
+        <v>1.727</v>
+      </c>
+      <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>4.75</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225">
+        <v>3.4</v>
+      </c>
+      <c r="P225">
+        <v>3.5</v>
+      </c>
+      <c r="Q225">
+        <v>-0.5</v>
+      </c>
+      <c r="R225">
+        <v>2.025</v>
+      </c>
+      <c r="S225">
+        <v>1.775</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>1.925</v>
+      </c>
+      <c r="V225">
+        <v>1.875</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>1.025</v>
+      </c>
+      <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>0.925</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7630577</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45366.72916666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>44</v>
+      </c>
+      <c r="G226" t="s">
+        <v>46</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>50</v>
+      </c>
+      <c r="K226">
+        <v>2.05</v>
+      </c>
+      <c r="L226">
+        <v>3.1</v>
+      </c>
+      <c r="M226">
+        <v>3.6</v>
+      </c>
+      <c r="N226">
+        <v>2.05</v>
+      </c>
+      <c r="O226">
+        <v>3.3</v>
+      </c>
+      <c r="P226">
+        <v>3.8</v>
+      </c>
+      <c r="Q226">
+        <v>-0.5</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>1.8</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>1.95</v>
+      </c>
+      <c r="V226">
+        <v>1.85</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>2.3</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.8</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7630580</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45367.72916666666</v>
+      </c>
+      <c r="F227" t="s">
+        <v>42</v>
+      </c>
+      <c r="G227" t="s">
+        <v>37</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>3.25</v>
+      </c>
+      <c r="M227">
+        <v>3.6</v>
+      </c>
+      <c r="N227">
+        <v>2.4</v>
+      </c>
+      <c r="O227">
+        <v>3.1</v>
+      </c>
+      <c r="P227">
+        <v>3.2</v>
+      </c>
+      <c r="Q227">
+        <v>-0.25</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2</v>
+      </c>
+      <c r="U227">
+        <v>1.85</v>
+      </c>
+      <c r="V227">
+        <v>1.95</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>2.2</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.8</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7630576</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45367.72916666666</v>
+      </c>
+      <c r="F228" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" t="s">
+        <v>47</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>51</v>
+      </c>
+      <c r="K228">
+        <v>2.75</v>
+      </c>
+      <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>2.4</v>
+      </c>
+      <c r="N228">
+        <v>3.4</v>
+      </c>
+      <c r="O228">
+        <v>3.6</v>
+      </c>
+      <c r="P228">
+        <v>2.05</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>1.775</v>
+      </c>
+      <c r="S228">
+        <v>2.025</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.95</v>
+      </c>
+      <c r="V228">
+        <v>1.85</v>
+      </c>
+      <c r="W228">
+        <v>2.4</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7630578</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45367.75</v>
+      </c>
+      <c r="F229" t="s">
+        <v>34</v>
+      </c>
+      <c r="G229" t="s">
+        <v>43</v>
+      </c>
+      <c r="H229">
+        <v>6</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>51</v>
+      </c>
+      <c r="K229">
+        <v>1.363</v>
+      </c>
+      <c r="L229">
+        <v>4.2</v>
+      </c>
+      <c r="M229">
+        <v>7.5</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>4.2</v>
+      </c>
+      <c r="P229">
+        <v>6.5</v>
+      </c>
+      <c r="Q229">
+        <v>-1</v>
+      </c>
+      <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
+        <v>0.5</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.825</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.95</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>7630581</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45368.70833333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>41</v>
+      </c>
+      <c r="G230" t="s">
+        <v>39</v>
+      </c>
+      <c r="K230">
+        <v>1.727</v>
+      </c>
+      <c r="L230">
+        <v>3.6</v>
+      </c>
+      <c r="M230">
+        <v>4.75</v>
+      </c>
+      <c r="N230">
+        <v>1.85</v>
+      </c>
+      <c r="O230">
+        <v>3.4</v>
+      </c>
+      <c r="P230">
+        <v>4.5</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.85</v>
+      </c>
+      <c r="S230">
+        <v>1.95</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>2.025</v>
+      </c>
+      <c r="V230">
+        <v>1.775</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7630575</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>38</v>
+      </c>
+      <c r="G231" t="s">
+        <v>36</v>
+      </c>
+      <c r="K231">
+        <v>2.875</v>
+      </c>
+      <c r="L231">
+        <v>3.1</v>
+      </c>
+      <c r="M231">
+        <v>2.4</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231">
+        <v>3.2</v>
+      </c>
+      <c r="P231">
+        <v>2.45</v>
+      </c>
+      <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.75</v>
+      </c>
+      <c r="S231">
+        <v>2.05</v>
+      </c>
+      <c r="T231">
+        <v>1.75</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>1.95</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>7630574</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45369.92013888889</v>
+      </c>
+      <c r="F232" t="s">
+        <v>45</v>
+      </c>
+      <c r="G232" t="s">
+        <v>48</v>
+      </c>
+      <c r="K232">
+        <v>2.8</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>2.25</v>
+      </c>
+      <c r="N232">
+        <v>2.9</v>
+      </c>
+      <c r="O232">
+        <v>3.4</v>
+      </c>
+      <c r="P232">
+        <v>2.4</v>
+      </c>
+      <c r="Q232">
+        <v>0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.75</v>
+      </c>
+      <c r="S232">
+        <v>2.05</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2.025</v>
+      </c>
+      <c r="V232">
+        <v>1.775</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>7630579</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45370.89583333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233" t="s">
+        <v>35</v>
+      </c>
+      <c r="K233">
+        <v>1.8</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>4.2</v>
+      </c>
+      <c r="N233">
+        <v>1.909</v>
+      </c>
+      <c r="O233">
+        <v>3.6</v>
+      </c>
+      <c r="P233">
+        <v>4</v>
+      </c>
+      <c r="Q233">
+        <v>-0.5</v>
+      </c>
+      <c r="R233">
+        <v>1.9</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
+        <v>1.8</v>
+      </c>
+      <c r="V233">
+        <v>2</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Colombia Primera B/Colombia Primera B.xlsx
+++ b/Colombia Primera B/Colombia Primera B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Colombia Primera B</t>
   </si>
   <si>
-    <t>Valledupar FC</t>
+    <t>Patriotas FC</t>
   </si>
   <si>
-    <t>Patriotas FC</t>
+    <t>Valledupar FC</t>
   </si>
   <si>
     <t>Deportes Quindio</t>
@@ -163,10 +163,10 @@
     <t>Atletico Huila</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6695293</v>
+        <v>6681954</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q2">
         <v>-0.25</v>
       </c>
       <c r="R2">
+        <v>1.925</v>
+      </c>
+      <c r="S2">
         <v>1.875</v>
       </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6681954</v>
+        <v>6695293</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
         <v>1.925</v>
       </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
       <c r="T3">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>1.75</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.875</v>
@@ -1085,7 +1085,7 @@
         <v>45083.92013888889</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.8</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6695296</v>
+        <v>6695297</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,76 +1174,76 @@
         <v>45087.75</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N8">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6695297</v>
+        <v>6695296</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1263,76 +1263,76 @@
         <v>45087.75</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9">
+        <v>1.615</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
         <v>1.533</v>
       </c>
-      <c r="L9">
-        <v>3.8</v>
-      </c>
-      <c r="M9">
+      <c r="O9">
+        <v>3.6</v>
+      </c>
+      <c r="P9">
         <v>5.75</v>
       </c>
-      <c r="N9">
-        <v>1.363</v>
-      </c>
-      <c r="O9">
-        <v>4.2</v>
-      </c>
-      <c r="P9">
-        <v>7.5</v>
-      </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>0.8</v>
+      </c>
+      <c r="AB9">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-0.5</v>
-      </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>2.875</v>
@@ -1530,7 +1530,7 @@
         <v>45095.83333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1622,7 +1622,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>4.2</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>3.3</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1987,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>1.65</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>1.571</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2331,7 +2331,7 @@
         <v>45135.83333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>1.7</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>1.833</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.55</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6990715</v>
+        <v>6990717</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,49 +3043,49 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>51</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>2.025</v>
@@ -3094,7 +3094,7 @@
         <v>1.775</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3103,7 +3103,7 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6990717</v>
+        <v>6990716</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="N30">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>1.975</v>
       </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
+        <v>1.775</v>
+      </c>
+      <c r="V30">
         <v>2.025</v>
       </c>
-      <c r="V30">
-        <v>1.775</v>
-      </c>
       <c r="W30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>1.025</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6990716</v>
+        <v>6990715</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
+        <v>2.025</v>
+      </c>
+      <c r="V31">
         <v>1.775</v>
       </c>
-      <c r="V31">
-        <v>2.025</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>2.375</v>
@@ -3500,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>2.8</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.4</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6990725</v>
+        <v>6990727</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,49 +3933,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>1.7</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>4.333</v>
+      </c>
+      <c r="N39">
+        <v>1.65</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>4.333</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.85</v>
       </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.85</v>
-      </c>
-      <c r="O39">
-        <v>3.25</v>
-      </c>
-      <c r="P39">
-        <v>3.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3984,19 +3984,19 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
         <v>0.8</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6990727</v>
+        <v>6990726</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,10 +4022,10 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4034,34 +4034,34 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M40">
+        <v>6.5</v>
+      </c>
+      <c r="N40">
+        <v>1.363</v>
+      </c>
+      <c r="O40">
         <v>4.333</v>
       </c>
-      <c r="N40">
-        <v>1.65</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.5</v>
@@ -4079,13 +4079,13 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3.333</v>
+        <v>6</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>0.8</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6990726</v>
+        <v>6990725</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,49 +4111,49 @@
         <v>45150.72916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>1.8</v>
@@ -4162,19 +4162,19 @@
         <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>0.8</v>
@@ -4203,7 +4203,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4301,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>3.1</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>2.4</v>
@@ -4479,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>2.6</v>
@@ -4645,7 +4645,7 @@
         <v>45156.92013888889</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4657,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>1.75</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>1.5</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6990746</v>
+        <v>6990739</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L56">
         <v>3</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N56">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
+        <v>2.9</v>
+      </c>
+      <c r="P56">
         <v>3.1</v>
       </c>
-      <c r="P56">
-        <v>2.8</v>
-      </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
+        <v>1.775</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6990739</v>
+        <v>6990746</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45162.72916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>3</v>
       </c>
       <c r="M57">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X57">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
         <v>-0</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2.15</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2.25</v>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6425,7 +6425,7 @@
         <v>45167.83680555555</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6704,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>2.6</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>1.571</v>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7226,7 +7226,7 @@
         <v>45173.75</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>1.533</v>
@@ -7505,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.8</v>
@@ -7852,7 +7852,7 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>1.666</v>
@@ -8306,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8383,7 +8383,7 @@
         <v>45180.70833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>3.2</v>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>1.5</v>
@@ -8751,7 +8751,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>2.7</v>
@@ -8840,7 +8840,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8920,7 +8920,7 @@
         <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8929,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>2.375</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9451,7 +9451,7 @@
         <v>45188.66666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>1.909</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6990792</v>
+        <v>6990788</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,10 +9718,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9733,34 +9733,34 @@
         <v>51</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>1.85</v>
@@ -9769,7 +9769,7 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9778,10 +9778,10 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6990788</v>
+        <v>6990792</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,10 +9807,10 @@
         <v>45189.72916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9822,34 +9822,34 @@
         <v>51</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -9858,7 +9858,7 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9908,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.909</v>
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
         <v>1.833</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10175,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10442,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>3.2</v>
@@ -10611,7 +10611,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10875,7 +10875,7 @@
         <v>45198.72916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10887,7 +10887,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.55</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.444</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>2.1</v>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>1.75</v>
@@ -12035,7 +12035,7 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12133,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>1.666</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6990824</v>
+        <v>6990823</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
         <v>3.5</v>
       </c>
       <c r="N134">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6990822</v>
+        <v>6990821</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
+        <v>2.2</v>
+      </c>
+      <c r="O135">
+        <v>3.1</v>
+      </c>
+      <c r="P135">
         <v>3.6</v>
-      </c>
-      <c r="O135">
-        <v>4</v>
-      </c>
-      <c r="P135">
-        <v>1.727</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y135">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6990823</v>
+        <v>6990820</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,73 +12566,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L136">
         <v>3.4</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>1</v>
-      </c>
-      <c r="AB136">
-        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6990825</v>
+        <v>6990822</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,73 +12655,73 @@
         <v>45210.71875</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>50</v>
+      </c>
+      <c r="K137">
+        <v>1.615</v>
+      </c>
+      <c r="L137">
+        <v>3.4</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>3.6</v>
+      </c>
+      <c r="O137">
         <v>4</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" t="s">
-        <v>51</v>
-      </c>
-      <c r="K137">
-        <v>1.363</v>
-      </c>
-      <c r="L137">
-        <v>4.2</v>
-      </c>
-      <c r="M137">
-        <v>8</v>
-      </c>
-      <c r="N137">
-        <v>1.3</v>
-      </c>
-      <c r="O137">
-        <v>5.5</v>
-      </c>
       <c r="P137">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="Q137">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
         <v>1.875</v>
       </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
       <c r="W137">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6990821</v>
+        <v>6990825</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M138">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="N138">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA138">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6990819</v>
+        <v>6990824</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M139">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N139">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
         <v>2.375</v>
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6990820</v>
+        <v>6990819</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45210.71875</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>49</v>
+      </c>
+      <c r="K141">
+        <v>3.6</v>
+      </c>
+      <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>1.909</v>
+      </c>
+      <c r="N141">
+        <v>5.25</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>1.615</v>
+      </c>
+      <c r="Q141">
         <v>1</v>
       </c>
-      <c r="J141" t="s">
-        <v>51</v>
-      </c>
-      <c r="K141">
-        <v>1.833</v>
-      </c>
-      <c r="L141">
-        <v>3.4</v>
-      </c>
-      <c r="M141">
-        <v>3.75</v>
-      </c>
-      <c r="N141">
-        <v>2</v>
-      </c>
-      <c r="O141">
-        <v>3.6</v>
-      </c>
-      <c r="P141">
-        <v>3.6</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
       <c r="R141">
+        <v>1.725</v>
+      </c>
+      <c r="S141">
         <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -14002,7 +14002,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.8</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>3.2</v>
@@ -14269,7 +14269,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>5</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>3.2</v>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>1.833</v>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>4</v>
@@ -15414,7 +15414,7 @@
         <v>45252.89583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15506,7 +15506,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K170">
         <v>3</v>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>2.375</v>
@@ -15960,7 +15960,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>2.1</v>
@@ -16138,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K176">
         <v>3.2</v>
@@ -16227,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2.2</v>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.5</v>
@@ -16583,7 +16583,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16672,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
         <v>1.7</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>2.2</v>
@@ -17028,7 +17028,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>1.4</v>
@@ -17117,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>2.05</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7630540</v>
+        <v>7630542</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
         <v>50</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N188">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7630542</v>
+        <v>7630540</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,73 +17283,73 @@
         <v>45338.72916666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>49</v>
       </c>
       <c r="K189">
+        <v>3.6</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>2.1</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>3.4</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
+        <v>1.975</v>
+      </c>
+      <c r="T189">
         <v>2.5</v>
       </c>
-      <c r="L189">
-        <v>3.2</v>
-      </c>
-      <c r="M189">
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.5</v>
       </c>
-      <c r="N189">
-        <v>3</v>
-      </c>
-      <c r="O189">
-        <v>3.1</v>
-      </c>
-      <c r="P189">
-        <v>2.15</v>
-      </c>
-      <c r="Q189">
-        <v>0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.85</v>
-      </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
-      <c r="T189">
-        <v>2</v>
-      </c>
-      <c r="U189">
-        <v>1.75</v>
-      </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
       <c r="Y189">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17384,7 +17384,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K190">
         <v>1.5</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7630536</v>
+        <v>7630538</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K191">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA191">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7630538</v>
+        <v>7630536</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,76 +17550,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>50</v>
+      </c>
+      <c r="K192">
+        <v>2.7</v>
+      </c>
+      <c r="L192">
         <v>3</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
-      <c r="J192" t="s">
-        <v>51</v>
-      </c>
-      <c r="K192">
+      <c r="M192">
+        <v>2.45</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192">
+        <v>3.1</v>
+      </c>
+      <c r="P192">
+        <v>2.4</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
         <v>1.75</v>
       </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>4</v>
-      </c>
-      <c r="N192">
-        <v>1.727</v>
-      </c>
-      <c r="O192">
-        <v>3.8</v>
-      </c>
-      <c r="P192">
-        <v>4.75</v>
-      </c>
-      <c r="Q192">
-        <v>-0.75</v>
-      </c>
-      <c r="R192">
-        <v>1.925</v>
-      </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z192">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>2.55</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K194">
         <v>1.8</v>
@@ -17918,7 +17918,7 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>1.533</v>
@@ -18096,7 +18096,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>2.75</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7630551</v>
+        <v>7630550</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,73 +18262,73 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
         <v>1.8</v>
       </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7630550</v>
+        <v>7630551</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,73 +18351,73 @@
         <v>45345.72916666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
         <v>3</v>
       </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>1.909</v>
+      </c>
+      <c r="N201">
         <v>3.5</v>
       </c>
-      <c r="M201">
-        <v>5</v>
-      </c>
-      <c r="N201">
-        <v>1.444</v>
-      </c>
       <c r="O201">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18452,7 +18452,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K202">
         <v>4</v>
@@ -18630,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K204">
         <v>1.727</v>
@@ -18897,7 +18897,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18986,7 +18986,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K208">
         <v>1.909</v>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>1.727</v>
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>1.333</v>
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7630566</v>
+        <v>7630565</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,46 +19419,46 @@
         <v>45354.72916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K213">
+        <v>1.533</v>
+      </c>
+      <c r="L213">
         <v>4</v>
       </c>
-      <c r="L213">
-        <v>3.3</v>
-      </c>
       <c r="M213">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P213">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2.25</v>
@@ -19470,25 +19470,25 @@
         <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,7 +19496,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7630565</v>
+        <v>7630566</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19508,46 +19508,46 @@
         <v>45354.72916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N214">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
         <v>2.25</v>
@@ -19559,25 +19559,25 @@
         <v>2</v>
       </c>
       <c r="W214">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC214">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19609,7 +19609,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K215">
         <v>1.8</v>
@@ -19787,7 +19787,7 @@
         <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K217">
         <v>2.9</v>
@@ -19876,7 +19876,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K218">
         <v>3.6</v>
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K219">
         <v>2.25</v>
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7630567</v>
+        <v>7630572</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,58 +20042,58 @@
         <v>45362.72916666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>51</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N220">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U220">
+        <v>1.85</v>
+      </c>
+      <c r="V220">
         <v>1.95</v>
       </c>
-      <c r="V220">
-        <v>1.85</v>
-      </c>
       <c r="W220">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20102,16 +20102,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7630572</v>
+        <v>7630567</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,58 +20220,58 @@
         <v>45362.72916666666</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>51</v>
       </c>
       <c r="K222">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L222">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>2.1</v>
+      </c>
+      <c r="O222">
+        <v>3.5</v>
+      </c>
+      <c r="P222">
         <v>3.6</v>
       </c>
-      <c r="N222">
-        <v>1.8</v>
-      </c>
-      <c r="O222">
-        <v>3.4</v>
-      </c>
-      <c r="P222">
-        <v>5.25</v>
-      </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
         <v>1.85</v>
       </c>
-      <c r="V222">
-        <v>1.95</v>
-      </c>
       <c r="W222">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20280,16 +20280,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20321,7 +20321,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>2</v>
@@ -20588,7 +20588,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K226">
         <v>2.05</v>
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7630580</v>
+        <v>7630576</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,76 +20665,76 @@
         <v>45367.72916666666</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M227">
+        <v>2.4</v>
+      </c>
+      <c r="N227">
+        <v>3.4</v>
+      </c>
+      <c r="O227">
         <v>3.6</v>
       </c>
-      <c r="N227">
+      <c r="P227">
+        <v>2.05</v>
+      </c>
+      <c r="Q227">
+        <v>0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.775</v>
+      </c>
+      <c r="S227">
+        <v>2.025</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
+        <v>1.95</v>
+      </c>
+      <c r="V227">
+        <v>1.85</v>
+      </c>
+      <c r="W227">
         <v>2.4</v>
       </c>
-      <c r="O227">
-        <v>3.1</v>
-      </c>
-      <c r="P227">
-        <v>3.2</v>
-      </c>
-      <c r="Q227">
-        <v>-0.25</v>
-      </c>
-      <c r="R227">
-        <v>2</v>
-      </c>
-      <c r="S227">
-        <v>1.8</v>
-      </c>
-      <c r="T227">
-        <v>2</v>
-      </c>
-      <c r="U227">
-        <v>1.85</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
-      <c r="W227">
-        <v>-1</v>
-      </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20742,7 +20742,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7630576</v>
+        <v>7630580</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20754,76 +20754,76 @@
         <v>45367.72916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L228">
+        <v>3.25</v>
+      </c>
+      <c r="M228">
+        <v>3.6</v>
+      </c>
+      <c r="N228">
+        <v>2.4</v>
+      </c>
+      <c r="O228">
         <v>3.1</v>
       </c>
-      <c r="M228">
-        <v>2.4</v>
-      </c>
-      <c r="N228">
-        <v>3.4</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
       <c r="P228">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U228">
+        <v>1.85</v>
+      </c>
+      <c r="V228">
         <v>1.95</v>
       </c>
-      <c r="V228">
-        <v>1.85</v>
-      </c>
       <c r="W228">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z228">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20937,6 +20937,15 @@
       <c r="G230" t="s">
         <v>39</v>
       </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>51</v>
+      </c>
       <c r="K230">
         <v>1.727</v>
       </c>
@@ -20947,46 +20956,52 @@
         <v>4.75</v>
       </c>
       <c r="N230">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
         <v>3.4</v>
       </c>
       <c r="P230">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U230">
+        <v>1.775</v>
+      </c>
+      <c r="V230">
         <v>2.025</v>
       </c>
-      <c r="V230">
-        <v>1.775</v>
-      </c>
       <c r="W230">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
+        <v>1.025</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21011,6 +21026,15 @@
       <c r="G231" t="s">
         <v>36</v>
       </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>49</v>
+      </c>
       <c r="K231">
         <v>2.875</v>
       </c>
@@ -21021,46 +21045,52 @@
         <v>2.4</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O231">
         <v>3.2</v>
       </c>
       <c r="P231">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q231">
         <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
         <v>1.75</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB231">
+        <v>0.45</v>
+      </c>
+      <c r="AC231">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21085,6 +21115,15 @@
       <c r="G232" t="s">
         <v>48</v>
       </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>50</v>
+      </c>
       <c r="K232">
         <v>2.8</v>
       </c>
@@ -21095,10 +21134,10 @@
         <v>2.25</v>
       </c>
       <c r="N232">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
         <v>2.4</v>
@@ -21107,34 +21146,40 @@
         <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S232">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB232">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21159,6 +21204,15 @@
       <c r="G233" t="s">
         <v>35</v>
       </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>51</v>
+      </c>
       <c r="K233">
         <v>1.8</v>
       </c>
@@ -21169,46 +21223,675 @@
         <v>4.2</v>
       </c>
       <c r="N233">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O233">
         <v>3.6</v>
       </c>
       <c r="P233">
+        <v>2.25</v>
+      </c>
+      <c r="Q233">
+        <v>0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.8</v>
+      </c>
+      <c r="S233">
+        <v>2</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>2</v>
+      </c>
+      <c r="V233">
+        <v>1.8</v>
+      </c>
+      <c r="W233">
+        <v>2</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
+        <v>0.8</v>
+      </c>
+      <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>7658158</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45375.72916666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>36</v>
+      </c>
+      <c r="G234" t="s">
+        <v>41</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>3</v>
+      </c>
+      <c r="J234" t="s">
+        <v>49</v>
+      </c>
+      <c r="K234">
+        <v>1.727</v>
+      </c>
+      <c r="L234">
+        <v>3.6</v>
+      </c>
+      <c r="M234">
+        <v>4.75</v>
+      </c>
+      <c r="N234">
+        <v>1.65</v>
+      </c>
+      <c r="O234">
+        <v>3.75</v>
+      </c>
+      <c r="P234">
+        <v>5.75</v>
+      </c>
+      <c r="Q234">
+        <v>-0.75</v>
+      </c>
+      <c r="R234">
+        <v>1.775</v>
+      </c>
+      <c r="S234">
+        <v>2.025</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
+        <v>1.85</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>2.75</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>1.025</v>
+      </c>
+      <c r="AB234">
+        <v>0.95</v>
+      </c>
+      <c r="AC234">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>7658157</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45375.75</v>
+      </c>
+      <c r="F235" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235" t="s">
+        <v>40</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>51</v>
+      </c>
+      <c r="K235">
+        <v>1.4</v>
+      </c>
+      <c r="L235">
+        <v>4.5</v>
+      </c>
+      <c r="M235">
+        <v>7</v>
+      </c>
+      <c r="N235">
+        <v>1.363</v>
+      </c>
+      <c r="O235">
+        <v>5.25</v>
+      </c>
+      <c r="P235">
+        <v>8</v>
+      </c>
+      <c r="Q235">
+        <v>-1.5</v>
+      </c>
+      <c r="R235">
+        <v>1.95</v>
+      </c>
+      <c r="S235">
+        <v>1.85</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
+        <v>1.95</v>
+      </c>
+      <c r="W235">
+        <v>0.363</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB235">
+        <v>0.425</v>
+      </c>
+      <c r="AC235">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>7994459</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45376.75</v>
+      </c>
+      <c r="F236" t="s">
+        <v>47</v>
+      </c>
+      <c r="G236" t="s">
+        <v>45</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+      <c r="J236" t="s">
+        <v>50</v>
+      </c>
+      <c r="K236">
+        <v>1.833</v>
+      </c>
+      <c r="L236">
+        <v>3.1</v>
+      </c>
+      <c r="M236">
+        <v>4.75</v>
+      </c>
+      <c r="N236">
+        <v>1.727</v>
+      </c>
+      <c r="O236">
+        <v>3.75</v>
+      </c>
+      <c r="P236">
+        <v>4.75</v>
+      </c>
+      <c r="Q236">
+        <v>-0.75</v>
+      </c>
+      <c r="R236">
+        <v>1.95</v>
+      </c>
+      <c r="S236">
+        <v>1.85</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>1.8</v>
+      </c>
+      <c r="V236">
+        <v>2</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>3.75</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB236">
+        <v>0.8</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>7994458</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45376.83333333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>37</v>
+      </c>
+      <c r="G237" t="s">
+        <v>46</v>
+      </c>
+      <c r="H237">
         <v>4</v>
       </c>
-      <c r="Q233">
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>51</v>
+      </c>
+      <c r="K237">
+        <v>1.833</v>
+      </c>
+      <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>4.2</v>
+      </c>
+      <c r="N237">
+        <v>3.5</v>
+      </c>
+      <c r="O237">
+        <v>3.2</v>
+      </c>
+      <c r="P237">
+        <v>2.2</v>
+      </c>
+      <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>1.85</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>1.775</v>
+      </c>
+      <c r="V237">
+        <v>2.025</v>
+      </c>
+      <c r="W237">
+        <v>2.5</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>0.95</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC237">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7658160</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45376.85416666666</v>
+      </c>
+      <c r="F238" t="s">
+        <v>39</v>
+      </c>
+      <c r="G238" t="s">
+        <v>42</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>50</v>
+      </c>
+      <c r="K238">
+        <v>1.727</v>
+      </c>
+      <c r="L238">
+        <v>3.6</v>
+      </c>
+      <c r="M238">
+        <v>4.5</v>
+      </c>
+      <c r="N238">
+        <v>1.8</v>
+      </c>
+      <c r="O238">
+        <v>3.6</v>
+      </c>
+      <c r="P238">
+        <v>4.75</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.95</v>
+      </c>
+      <c r="S238">
+        <v>1.75</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>1.775</v>
+      </c>
+      <c r="V238">
+        <v>2.025</v>
+      </c>
+      <c r="W238">
+        <v>-1</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>3.75</v>
+      </c>
+      <c r="Z238">
+        <v>-1</v>
+      </c>
+      <c r="AA238">
+        <v>0.75</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7657921</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45377.72916666666</v>
+      </c>
+      <c r="F239" t="s">
+        <v>48</v>
+      </c>
+      <c r="G239" t="s">
+        <v>31</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>51</v>
+      </c>
+      <c r="K239">
+        <v>1.5</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>6.5</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239">
+        <v>3.25</v>
+      </c>
+      <c r="P239">
+        <v>4</v>
+      </c>
+      <c r="Q239">
         <v>-0.5</v>
       </c>
-      <c r="R233">
-        <v>1.9</v>
-      </c>
-      <c r="S233">
-        <v>1.9</v>
-      </c>
-      <c r="T233">
+      <c r="R239">
+        <v>1.95</v>
+      </c>
+      <c r="S239">
+        <v>1.85</v>
+      </c>
+      <c r="T239">
         <v>2.25</v>
       </c>
-      <c r="U233">
-        <v>1.8</v>
-      </c>
-      <c r="V233">
-        <v>2</v>
-      </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <v>0</v>
-      </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-      <c r="AA233">
-        <v>0</v>
+      <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
+        <v>1.825</v>
+      </c>
+      <c r="W239">
+        <v>1</v>
+      </c>
+      <c r="X239">
+        <v>-1</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.95</v>
+      </c>
+      <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7658156</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45377.75</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>44</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>49</v>
+      </c>
+      <c r="K240">
+        <v>1.615</v>
+      </c>
+      <c r="L240">
+        <v>3.8</v>
+      </c>
+      <c r="M240">
+        <v>5.25</v>
+      </c>
+      <c r="N240">
+        <v>1.6</v>
+      </c>
+      <c r="O240">
+        <v>3.8</v>
+      </c>
+      <c r="P240">
+        <v>5.5</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>2.025</v>
+      </c>
+      <c r="S240">
+        <v>1.775</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240